--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="info" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="info" state="veryHidden" r:id="rId4"/>
     <sheet sheetId="2" name="Carga Masiva" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="519">
   <si>
     <t>VAT</t>
   </si>
@@ -1397,18 +1397,12 @@
     <t>23/04/2023</t>
   </si>
   <si>
-    <t>26/00/2023</t>
-  </si>
-  <si>
     <t>Establecimiento - Región de Los Lagos</t>
   </si>
   <si>
     <t>15/01/2023</t>
   </si>
   <si>
-    <t>123.123</t>
-  </si>
-  <si>
     <t>12/09/2012</t>
   </si>
   <si>
@@ -1460,6 +1454,12 @@
     <t>15</t>
   </si>
   <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>Nombre - Región de Coquimbo</t>
   </si>
   <si>
@@ -1545,9 +1545,6 @@
   </si>
   <si>
     <t>44.44</t>
-  </si>
-  <si>
-    <t>EST REG ARICA - Región de Arica y Parinacota</t>
   </si>
   <si>
     <t>VALPO-ETL - Región de Valparaíso</t>
@@ -1607,8 +1604,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5916,7 +5919,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M114"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
@@ -5993,25 +5996,25 @@
       <c r="F2" t="s">
         <v>392</v>
       </c>
-      <c r="G2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6034,25 +6037,25 @@
       <c r="F3" t="s">
         <v>392</v>
       </c>
-      <c r="G3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H3" t="s">
-        <v>393</v>
-      </c>
-      <c r="I3" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6075,25 +6078,25 @@
       <c r="F4" t="s">
         <v>392</v>
       </c>
-      <c r="G4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H4" t="s">
-        <v>393</v>
-      </c>
-      <c r="I4" t="s">
-        <v>393</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6116,25 +6119,25 @@
       <c r="F5" t="s">
         <v>396</v>
       </c>
-      <c r="G5" t="s">
-        <v>393</v>
-      </c>
-      <c r="H5" t="s">
-        <v>393</v>
-      </c>
-      <c r="I5" t="s">
-        <v>393</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6157,25 +6160,25 @@
       <c r="F6" t="s">
         <v>392</v>
       </c>
-      <c r="G6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I6" t="s">
-        <v>393</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6198,25 +6201,25 @@
       <c r="F7" t="s">
         <v>398</v>
       </c>
-      <c r="G7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I7" t="s">
-        <v>393</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6239,25 +6242,25 @@
       <c r="F8" t="s">
         <v>400</v>
       </c>
-      <c r="G8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I8" t="s">
-        <v>393</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6280,25 +6283,25 @@
       <c r="F9" t="s">
         <v>402</v>
       </c>
-      <c r="G9" t="s">
-        <v>393</v>
-      </c>
-      <c r="H9" t="s">
-        <v>393</v>
-      </c>
-      <c r="I9" t="s">
-        <v>393</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6321,25 +6324,25 @@
       <c r="F10" t="s">
         <v>404</v>
       </c>
-      <c r="G10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H10" t="s">
-        <v>393</v>
-      </c>
-      <c r="I10" t="s">
-        <v>393</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6362,25 +6365,25 @@
       <c r="F11" t="s">
         <v>405</v>
       </c>
-      <c r="G11" t="s">
-        <v>393</v>
-      </c>
-      <c r="H11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I11" t="s">
-        <v>393</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6403,25 +6406,25 @@
       <c r="F12" t="s">
         <v>408</v>
       </c>
-      <c r="G12" t="s">
-        <v>393</v>
-      </c>
-      <c r="H12" t="s">
-        <v>393</v>
-      </c>
-      <c r="I12" t="s">
-        <v>393</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6444,25 +6447,25 @@
       <c r="F13" t="s">
         <v>405</v>
       </c>
-      <c r="G13" t="s">
-        <v>393</v>
-      </c>
-      <c r="H13" t="s">
-        <v>393</v>
-      </c>
-      <c r="I13" t="s">
-        <v>393</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6485,25 +6488,25 @@
       <c r="F14" t="s">
         <v>412</v>
       </c>
-      <c r="G14" t="s">
-        <v>393</v>
-      </c>
-      <c r="H14" t="s">
-        <v>393</v>
-      </c>
-      <c r="I14" t="s">
-        <v>393</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6526,25 +6529,25 @@
       <c r="F15" t="s">
         <v>408</v>
       </c>
-      <c r="G15" t="s">
-        <v>393</v>
-      </c>
-      <c r="H15" t="s">
-        <v>393</v>
-      </c>
-      <c r="I15" t="s">
-        <v>393</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6567,25 +6570,25 @@
       <c r="F16" t="s">
         <v>408</v>
       </c>
-      <c r="G16" t="s">
-        <v>393</v>
-      </c>
-      <c r="H16" t="s">
-        <v>393</v>
-      </c>
-      <c r="I16" t="s">
-        <v>393</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6608,25 +6611,25 @@
       <c r="F17" t="s">
         <v>405</v>
       </c>
-      <c r="G17" t="s">
-        <v>393</v>
-      </c>
-      <c r="H17" t="s">
-        <v>393</v>
-      </c>
-      <c r="I17" t="s">
-        <v>393</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6649,25 +6652,25 @@
       <c r="F18" t="s">
         <v>408</v>
       </c>
-      <c r="G18" t="s">
-        <v>393</v>
-      </c>
-      <c r="H18" t="s">
-        <v>393</v>
-      </c>
-      <c r="I18" t="s">
-        <v>393</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6690,25 +6693,25 @@
       <c r="F19" t="s">
         <v>405</v>
       </c>
-      <c r="G19" t="s">
-        <v>393</v>
-      </c>
-      <c r="H19" t="s">
-        <v>393</v>
-      </c>
-      <c r="I19" t="s">
-        <v>393</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6731,25 +6734,25 @@
       <c r="F20" t="s">
         <v>408</v>
       </c>
-      <c r="G20" t="s">
-        <v>393</v>
-      </c>
-      <c r="H20" t="s">
-        <v>393</v>
-      </c>
-      <c r="I20" t="s">
-        <v>393</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6772,25 +6775,25 @@
       <c r="F21" t="s">
         <v>392</v>
       </c>
-      <c r="G21" t="s">
-        <v>393</v>
-      </c>
-      <c r="H21" t="s">
-        <v>393</v>
-      </c>
-      <c r="I21" t="s">
-        <v>393</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6813,25 +6816,25 @@
       <c r="F22" t="s">
         <v>416</v>
       </c>
-      <c r="G22" t="s">
-        <v>393</v>
-      </c>
-      <c r="H22" t="s">
-        <v>393</v>
-      </c>
-      <c r="I22" t="s">
-        <v>393</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6854,25 +6857,25 @@
       <c r="F23" t="s">
         <v>418</v>
       </c>
-      <c r="G23" t="s">
-        <v>393</v>
-      </c>
-      <c r="H23" t="s">
-        <v>393</v>
-      </c>
-      <c r="I23" t="s">
-        <v>393</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6895,25 +6898,25 @@
       <c r="F24" t="s">
         <v>419</v>
       </c>
-      <c r="G24" t="s">
-        <v>393</v>
-      </c>
-      <c r="H24" t="s">
-        <v>393</v>
-      </c>
-      <c r="I24" t="s">
-        <v>393</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6936,25 +6939,25 @@
       <c r="F25" t="s">
         <v>419</v>
       </c>
-      <c r="G25" t="s">
-        <v>393</v>
-      </c>
-      <c r="H25" t="s">
-        <v>393</v>
-      </c>
-      <c r="I25" t="s">
-        <v>393</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6977,25 +6980,25 @@
       <c r="F26" t="s">
         <v>421</v>
       </c>
-      <c r="G26" t="s">
-        <v>393</v>
-      </c>
-      <c r="H26" t="s">
-        <v>393</v>
-      </c>
-      <c r="I26" t="s">
-        <v>393</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7018,25 +7021,25 @@
       <c r="F27" t="s">
         <v>421</v>
       </c>
-      <c r="G27" t="s">
-        <v>393</v>
-      </c>
-      <c r="H27" t="s">
-        <v>393</v>
-      </c>
-      <c r="I27" t="s">
-        <v>393</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7059,25 +7062,25 @@
       <c r="F28" t="s">
         <v>424</v>
       </c>
-      <c r="G28" t="s">
-        <v>393</v>
-      </c>
-      <c r="H28" t="s">
-        <v>393</v>
-      </c>
-      <c r="I28" t="s">
-        <v>393</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="G28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7100,25 +7103,25 @@
       <c r="F29" t="s">
         <v>426</v>
       </c>
-      <c r="G29" t="s">
-        <v>393</v>
-      </c>
-      <c r="H29" t="s">
-        <v>393</v>
-      </c>
-      <c r="I29" t="s">
-        <v>393</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L29" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7141,25 +7144,25 @@
       <c r="F30" t="s">
         <v>400</v>
       </c>
-      <c r="G30" t="s">
-        <v>393</v>
-      </c>
-      <c r="H30" t="s">
-        <v>393</v>
-      </c>
-      <c r="I30" t="s">
-        <v>393</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7182,25 +7185,25 @@
       <c r="F31" t="s">
         <v>392</v>
       </c>
-      <c r="G31" t="s">
-        <v>393</v>
-      </c>
-      <c r="H31" t="s">
-        <v>393</v>
-      </c>
-      <c r="I31" t="s">
-        <v>393</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L31" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7223,25 +7226,25 @@
       <c r="F32" t="s">
         <v>396</v>
       </c>
-      <c r="G32" t="s">
-        <v>393</v>
-      </c>
-      <c r="H32" t="s">
-        <v>393</v>
-      </c>
-      <c r="I32" t="s">
-        <v>393</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7264,25 +7267,25 @@
       <c r="F33" t="s">
         <v>392</v>
       </c>
-      <c r="G33" t="s">
-        <v>393</v>
-      </c>
-      <c r="H33" t="s">
-        <v>393</v>
-      </c>
-      <c r="I33" t="s">
-        <v>393</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="G33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7305,25 +7308,25 @@
       <c r="F34" t="s">
         <v>392</v>
       </c>
-      <c r="G34" t="s">
-        <v>393</v>
-      </c>
-      <c r="H34" t="s">
-        <v>393</v>
-      </c>
-      <c r="I34" t="s">
-        <v>393</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7346,25 +7349,25 @@
       <c r="F35" t="s">
         <v>392</v>
       </c>
-      <c r="G35" t="s">
-        <v>393</v>
-      </c>
-      <c r="H35" t="s">
-        <v>393</v>
-      </c>
-      <c r="I35" t="s">
-        <v>393</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L35" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7387,25 +7390,25 @@
       <c r="F36" t="s">
         <v>429</v>
       </c>
-      <c r="G36" t="s">
-        <v>393</v>
-      </c>
-      <c r="H36" t="s">
-        <v>393</v>
-      </c>
-      <c r="I36" t="s">
-        <v>393</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L36" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7428,25 +7431,25 @@
       <c r="F37" t="s">
         <v>408</v>
       </c>
-      <c r="G37" t="s">
-        <v>393</v>
-      </c>
-      <c r="H37" t="s">
-        <v>393</v>
-      </c>
-      <c r="I37" t="s">
-        <v>393</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L37" s="1" t="s">
+      <c r="G37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7469,25 +7472,25 @@
       <c r="F38" t="s">
         <v>430</v>
       </c>
-      <c r="G38" t="s">
-        <v>393</v>
-      </c>
-      <c r="H38" t="s">
-        <v>393</v>
-      </c>
-      <c r="I38" t="s">
-        <v>393</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7510,25 +7513,25 @@
       <c r="F39" t="s">
         <v>432</v>
       </c>
-      <c r="G39" t="s">
-        <v>393</v>
-      </c>
-      <c r="H39" t="s">
-        <v>393</v>
-      </c>
-      <c r="I39" t="s">
-        <v>393</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L39" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7551,25 +7554,25 @@
       <c r="F40" t="s">
         <v>404</v>
       </c>
-      <c r="G40" t="s">
-        <v>393</v>
-      </c>
-      <c r="H40" t="s">
-        <v>393</v>
-      </c>
-      <c r="I40" t="s">
-        <v>393</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L40" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7592,25 +7595,25 @@
       <c r="F41" t="s">
         <v>436</v>
       </c>
-      <c r="G41" t="s">
-        <v>393</v>
-      </c>
-      <c r="H41" t="s">
-        <v>393</v>
-      </c>
-      <c r="I41" t="s">
-        <v>393</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L41" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7633,25 +7636,25 @@
       <c r="F42" t="s">
         <v>436</v>
       </c>
-      <c r="G42" t="s">
-        <v>393</v>
-      </c>
-      <c r="H42" t="s">
-        <v>393</v>
-      </c>
-      <c r="I42" t="s">
-        <v>393</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="G42" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7674,25 +7677,25 @@
       <c r="F43" t="s">
         <v>436</v>
       </c>
-      <c r="G43" t="s">
-        <v>393</v>
-      </c>
-      <c r="H43" t="s">
-        <v>393</v>
-      </c>
-      <c r="I43" t="s">
-        <v>393</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7715,25 +7718,25 @@
       <c r="F44" t="s">
         <v>436</v>
       </c>
-      <c r="G44" t="s">
-        <v>393</v>
-      </c>
-      <c r="H44" t="s">
-        <v>393</v>
-      </c>
-      <c r="I44" t="s">
-        <v>393</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L44" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7756,25 +7759,25 @@
       <c r="F45" t="s">
         <v>436</v>
       </c>
-      <c r="G45" t="s">
-        <v>393</v>
-      </c>
-      <c r="H45" t="s">
-        <v>393</v>
-      </c>
-      <c r="I45" t="s">
-        <v>393</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L45" s="1" t="s">
+      <c r="G45" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7797,25 +7800,25 @@
       <c r="F46" t="s">
         <v>436</v>
       </c>
-      <c r="G46" t="s">
-        <v>393</v>
-      </c>
-      <c r="H46" t="s">
-        <v>393</v>
-      </c>
-      <c r="I46" t="s">
-        <v>393</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L46" s="1" t="s">
+      <c r="G46" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7838,25 +7841,25 @@
       <c r="F47" t="s">
         <v>436</v>
       </c>
-      <c r="G47" t="s">
-        <v>393</v>
-      </c>
-      <c r="H47" t="s">
-        <v>393</v>
-      </c>
-      <c r="I47" t="s">
-        <v>393</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L47" s="1" t="s">
+      <c r="G47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7879,25 +7882,25 @@
       <c r="F48" t="s">
         <v>436</v>
       </c>
-      <c r="G48" t="s">
-        <v>393</v>
-      </c>
-      <c r="H48" t="s">
-        <v>393</v>
-      </c>
-      <c r="I48" t="s">
-        <v>393</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L48" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7920,25 +7923,25 @@
       <c r="F49" t="s">
         <v>439</v>
       </c>
-      <c r="G49" t="s">
-        <v>393</v>
-      </c>
-      <c r="H49" t="s">
-        <v>393</v>
-      </c>
-      <c r="I49" t="s">
-        <v>393</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L49" s="1" t="s">
+      <c r="G49" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7961,25 +7964,25 @@
       <c r="F50" t="s">
         <v>439</v>
       </c>
-      <c r="G50" t="s">
-        <v>393</v>
-      </c>
-      <c r="H50" t="s">
-        <v>393</v>
-      </c>
-      <c r="I50" t="s">
-        <v>393</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L50" s="1" t="s">
+      <c r="G50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8002,25 +8005,25 @@
       <c r="F51" t="s">
         <v>439</v>
       </c>
-      <c r="G51" t="s">
-        <v>393</v>
-      </c>
-      <c r="H51" t="s">
-        <v>393</v>
-      </c>
-      <c r="I51" t="s">
-        <v>393</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L51" s="1" t="s">
+      <c r="G51" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8043,25 +8046,25 @@
       <c r="F52" t="s">
         <v>439</v>
       </c>
-      <c r="G52" t="s">
-        <v>393</v>
-      </c>
-      <c r="H52" t="s">
-        <v>393</v>
-      </c>
-      <c r="I52" t="s">
-        <v>393</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L52" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8084,25 +8087,25 @@
       <c r="F53" t="s">
         <v>439</v>
       </c>
-      <c r="G53" t="s">
-        <v>393</v>
-      </c>
-      <c r="H53" t="s">
-        <v>393</v>
-      </c>
-      <c r="I53" t="s">
-        <v>393</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L53" s="1" t="s">
+      <c r="G53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8125,25 +8128,25 @@
       <c r="F54" t="s">
         <v>445</v>
       </c>
-      <c r="G54" t="s">
-        <v>393</v>
-      </c>
-      <c r="H54" t="s">
-        <v>393</v>
-      </c>
-      <c r="I54" t="s">
-        <v>393</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L54" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8166,25 +8169,25 @@
       <c r="F55" t="s">
         <v>447</v>
       </c>
-      <c r="G55" t="s">
-        <v>393</v>
-      </c>
-      <c r="H55" t="s">
-        <v>393</v>
-      </c>
-      <c r="I55" t="s">
-        <v>393</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L55" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8207,25 +8210,25 @@
       <c r="F56" t="s">
         <v>448</v>
       </c>
-      <c r="G56" t="s">
-        <v>393</v>
-      </c>
-      <c r="H56" t="s">
-        <v>393</v>
-      </c>
-      <c r="I56" t="s">
-        <v>393</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L56" s="1" t="s">
+      <c r="G56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8248,25 +8251,25 @@
       <c r="F57" t="s">
         <v>449</v>
       </c>
-      <c r="G57" t="s">
-        <v>393</v>
-      </c>
-      <c r="H57" t="s">
-        <v>393</v>
-      </c>
-      <c r="I57" t="s">
-        <v>393</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L57" s="1" t="s">
+      <c r="G57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8289,25 +8292,25 @@
       <c r="F58" t="s">
         <v>451</v>
       </c>
-      <c r="G58" t="s">
-        <v>393</v>
-      </c>
-      <c r="H58" t="s">
-        <v>393</v>
-      </c>
-      <c r="I58" t="s">
-        <v>393</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L58" s="1" t="s">
+      <c r="G58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8330,25 +8333,25 @@
       <c r="F59" t="s">
         <v>447</v>
       </c>
-      <c r="G59" t="s">
-        <v>393</v>
-      </c>
-      <c r="H59" t="s">
-        <v>393</v>
-      </c>
-      <c r="I59" t="s">
-        <v>393</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L59" s="1" t="s">
+      <c r="G59" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8371,25 +8374,25 @@
       <c r="F60" t="s">
         <v>452</v>
       </c>
-      <c r="G60" t="s">
-        <v>393</v>
-      </c>
-      <c r="H60" t="s">
-        <v>393</v>
-      </c>
-      <c r="I60" t="s">
-        <v>393</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L60" s="1" t="s">
+      <c r="G60" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8412,25 +8415,25 @@
       <c r="F61" t="s">
         <v>453</v>
       </c>
-      <c r="G61" t="s">
-        <v>393</v>
-      </c>
-      <c r="H61" t="s">
-        <v>393</v>
-      </c>
-      <c r="I61" t="s">
-        <v>393</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L61" s="1" t="s">
+      <c r="G61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8453,25 +8456,25 @@
       <c r="F62" t="s">
         <v>454</v>
       </c>
-      <c r="G62" t="s">
-        <v>393</v>
-      </c>
-      <c r="H62" t="s">
-        <v>393</v>
-      </c>
-      <c r="I62" t="s">
-        <v>393</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L62" s="1" t="s">
+      <c r="G62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8494,25 +8497,25 @@
       <c r="F63" t="s">
         <v>455</v>
       </c>
-      <c r="G63" t="s">
-        <v>393</v>
-      </c>
-      <c r="H63" t="s">
-        <v>393</v>
-      </c>
-      <c r="I63" t="s">
-        <v>393</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L63" s="1" t="s">
+      <c r="G63" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8535,25 +8538,25 @@
       <c r="F64" t="s">
         <v>455</v>
       </c>
-      <c r="G64" t="s">
-        <v>393</v>
-      </c>
-      <c r="H64" t="s">
-        <v>393</v>
-      </c>
-      <c r="I64" t="s">
-        <v>393</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L64" s="1" t="s">
+      <c r="G64" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8576,25 +8579,25 @@
       <c r="F65" t="s">
         <v>457</v>
       </c>
-      <c r="G65" t="s">
-        <v>393</v>
-      </c>
-      <c r="H65" t="s">
-        <v>393</v>
-      </c>
-      <c r="I65" t="s">
-        <v>393</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L65" s="1" t="s">
+      <c r="G65" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8617,25 +8620,25 @@
       <c r="F66" t="s">
         <v>459</v>
       </c>
-      <c r="G66" t="s">
-        <v>393</v>
-      </c>
-      <c r="H66" t="s">
-        <v>393</v>
-      </c>
-      <c r="I66" t="s">
-        <v>393</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L66" s="1" t="s">
+      <c r="G66" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8658,25 +8661,25 @@
       <c r="F67" t="s">
         <v>447</v>
       </c>
-      <c r="G67" t="s">
-        <v>393</v>
-      </c>
-      <c r="H67" t="s">
-        <v>393</v>
-      </c>
-      <c r="I67" t="s">
-        <v>393</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L67" s="1" t="s">
+      <c r="G67" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8699,25 +8702,25 @@
       <c r="F68" t="s">
         <v>460</v>
       </c>
-      <c r="G68" t="s">
-        <v>393</v>
-      </c>
-      <c r="H68" t="s">
-        <v>393</v>
-      </c>
-      <c r="I68" t="s">
-        <v>393</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="G68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8726,7 +8729,7 @@
         <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="C69" t="s">
         <v>389</v>
@@ -8738,27 +8741,27 @@
         <v>391</v>
       </c>
       <c r="F69" t="s">
-        <v>461</v>
-      </c>
-      <c r="G69" t="s">
-        <v>393</v>
-      </c>
-      <c r="H69" t="s">
-        <v>393</v>
-      </c>
-      <c r="I69" t="s">
-        <v>393</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M69" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8767,7 +8770,7 @@
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C70" t="s">
         <v>389</v>
@@ -8779,27 +8782,27 @@
         <v>391</v>
       </c>
       <c r="F70" t="s">
-        <v>392</v>
-      </c>
-      <c r="G70" t="s">
-        <v>393</v>
-      </c>
-      <c r="H70" t="s">
-        <v>393</v>
-      </c>
-      <c r="I70" t="s">
-        <v>393</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M70" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8808,39 +8811,39 @@
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C71" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D71" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="E71" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="F71" t="s">
         <v>463</v>
       </c>
-      <c r="G71" t="s">
-        <v>393</v>
-      </c>
-      <c r="H71" t="s">
-        <v>393</v>
-      </c>
-      <c r="I71" t="s">
-        <v>393</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M71" s="1" t="s">
+      <c r="G71" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8849,39 +8852,39 @@
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C72" t="s">
         <v>414</v>
       </c>
       <c r="D72" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E72" t="s">
         <v>433</v>
       </c>
       <c r="F72" t="s">
-        <v>419</v>
-      </c>
-      <c r="G72" t="s">
-        <v>393</v>
-      </c>
-      <c r="H72" t="s">
-        <v>393</v>
-      </c>
-      <c r="I72" t="s">
-        <v>393</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M72" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8890,39 +8893,39 @@
         <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C73" t="s">
         <v>414</v>
       </c>
       <c r="D73" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E73" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="F73" t="s">
-        <v>465</v>
-      </c>
-      <c r="G73" t="s">
-        <v>393</v>
-      </c>
-      <c r="H73" t="s">
-        <v>393</v>
-      </c>
-      <c r="I73" t="s">
-        <v>393</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="M73" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8931,48 +8934,48 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C74" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D74" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E74" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="F74" t="s">
-        <v>465</v>
-      </c>
-      <c r="G74" t="s">
-        <v>393</v>
-      </c>
-      <c r="H74" t="s">
-        <v>393</v>
-      </c>
-      <c r="I74" t="s">
-        <v>393</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="M74" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C75" t="s">
         <v>414</v>
@@ -8981,30 +8984,30 @@
         <v>410</v>
       </c>
       <c r="E75" t="s">
+        <v>458</v>
+      </c>
+      <c r="F75" t="s">
         <v>468</v>
       </c>
-      <c r="F75" t="s">
-        <v>465</v>
-      </c>
-      <c r="G75" t="s">
-        <v>393</v>
-      </c>
-      <c r="H75" t="s">
-        <v>393</v>
-      </c>
-      <c r="I75" t="s">
-        <v>393</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M75" s="1" t="s">
+      <c r="G75" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9013,121 +9016,121 @@
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C76" t="s">
         <v>389</v>
       </c>
       <c r="D76" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E76" t="s">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="F76" t="s">
-        <v>465</v>
-      </c>
-      <c r="G76" t="s">
-        <v>393</v>
-      </c>
-      <c r="H76" t="s">
-        <v>393</v>
-      </c>
-      <c r="I76" t="s">
-        <v>393</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M76" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="B77" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D77" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E77" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="F77" t="s">
-        <v>470</v>
-      </c>
-      <c r="G77" t="s">
-        <v>393</v>
-      </c>
-      <c r="H77" t="s">
-        <v>393</v>
-      </c>
-      <c r="I77" t="s">
-        <v>393</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="M77" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C78" t="s">
         <v>389</v>
       </c>
       <c r="D78" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="E78" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="F78" t="s">
-        <v>473</v>
-      </c>
-      <c r="G78" t="s">
-        <v>393</v>
-      </c>
-      <c r="H78" t="s">
-        <v>393</v>
-      </c>
-      <c r="I78" t="s">
-        <v>393</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M78" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9136,39 +9139,39 @@
         <v>315</v>
       </c>
       <c r="B79" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C79" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D79" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E79" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="F79" t="s">
-        <v>476</v>
-      </c>
-      <c r="G79" t="s">
-        <v>393</v>
-      </c>
-      <c r="H79" t="s">
-        <v>393</v>
-      </c>
-      <c r="I79" t="s">
-        <v>393</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="M79" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="M79" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9177,80 +9180,80 @@
         <v>315</v>
       </c>
       <c r="B80" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C80" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D80" t="s">
         <v>415</v>
       </c>
       <c r="E80" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F80" t="s">
-        <v>478</v>
-      </c>
-      <c r="G80" t="s">
-        <v>393</v>
-      </c>
-      <c r="H80" t="s">
-        <v>393</v>
-      </c>
-      <c r="I80" t="s">
-        <v>393</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="M80" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="M80" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C81" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D81" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E81" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F81" t="s">
-        <v>480</v>
-      </c>
-      <c r="G81" t="s">
-        <v>393</v>
-      </c>
-      <c r="H81" t="s">
-        <v>393</v>
-      </c>
-      <c r="I81" t="s">
-        <v>393</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M81" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="M81" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9273,25 +9276,25 @@
       <c r="F82" t="s">
         <v>483</v>
       </c>
-      <c r="G82" t="s">
-        <v>393</v>
-      </c>
-      <c r="H82" t="s">
-        <v>393</v>
-      </c>
-      <c r="I82" t="s">
-        <v>393</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L82" s="1" t="s">
+      <c r="G82" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="M82" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9314,25 +9317,25 @@
       <c r="F83" t="s">
         <v>483</v>
       </c>
-      <c r="G83" t="s">
-        <v>393</v>
-      </c>
-      <c r="H83" t="s">
-        <v>393</v>
-      </c>
-      <c r="I83" t="s">
-        <v>393</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L83" s="1" t="s">
+      <c r="G83" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M83" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9341,10 +9344,10 @@
         <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C84" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="D84" t="s">
         <v>415</v>
@@ -9353,27 +9356,27 @@
         <v>444</v>
       </c>
       <c r="F84" t="s">
-        <v>483</v>
-      </c>
-      <c r="G84" t="s">
-        <v>393</v>
-      </c>
-      <c r="H84" t="s">
-        <v>393</v>
-      </c>
-      <c r="I84" t="s">
-        <v>393</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="M84" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9382,39 +9385,39 @@
         <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C85" t="s">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="D85" t="s">
         <v>415</v>
       </c>
       <c r="E85" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="F85" t="s">
-        <v>487</v>
-      </c>
-      <c r="G85" t="s">
-        <v>393</v>
-      </c>
-      <c r="H85" t="s">
-        <v>393</v>
-      </c>
-      <c r="I85" t="s">
-        <v>393</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="M85" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="M85" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9426,36 +9429,36 @@
         <v>489</v>
       </c>
       <c r="C86" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F86" t="s">
         <v>447</v>
       </c>
-      <c r="G86" t="s">
-        <v>393</v>
-      </c>
-      <c r="H86" t="s">
-        <v>393</v>
-      </c>
-      <c r="I86" t="s">
-        <v>393</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="M86" s="1" t="s">
+      <c r="G86" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="M86" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9464,39 +9467,39 @@
         <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C87" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="E87" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
-      </c>
-      <c r="G87" t="s">
-        <v>393</v>
-      </c>
-      <c r="H87" t="s">
-        <v>393</v>
-      </c>
-      <c r="I87" t="s">
-        <v>393</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M87" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="M87" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9508,36 +9511,36 @@
         <v>491</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D88" t="s">
         <v>415</v>
       </c>
       <c r="E88" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F88" t="s">
-        <v>492</v>
-      </c>
-      <c r="G88" t="s">
-        <v>393</v>
-      </c>
-      <c r="H88" t="s">
-        <v>393</v>
-      </c>
-      <c r="I88" t="s">
-        <v>393</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="M88" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="M88" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9549,7 +9552,7 @@
         <v>491</v>
       </c>
       <c r="C89" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D89" t="s">
         <v>415</v>
@@ -9558,27 +9561,27 @@
         <v>435</v>
       </c>
       <c r="F89" t="s">
-        <v>460</v>
-      </c>
-      <c r="G89" t="s">
-        <v>393</v>
-      </c>
-      <c r="H89" t="s">
-        <v>393</v>
-      </c>
-      <c r="I89" t="s">
-        <v>393</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="M89" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="M89" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9590,7 +9593,7 @@
         <v>491</v>
       </c>
       <c r="C90" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D90" t="s">
         <v>415</v>
@@ -9599,27 +9602,27 @@
         <v>435</v>
       </c>
       <c r="F90" t="s">
-        <v>493</v>
-      </c>
-      <c r="G90" t="s">
-        <v>393</v>
-      </c>
-      <c r="H90" t="s">
-        <v>393</v>
-      </c>
-      <c r="I90" t="s">
-        <v>393</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="M90" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="M90" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9631,36 +9634,36 @@
         <v>491</v>
       </c>
       <c r="C91" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="D91" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E91" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="F91" t="s">
-        <v>495</v>
-      </c>
-      <c r="G91" t="s">
-        <v>393</v>
-      </c>
-      <c r="H91" t="s">
-        <v>393</v>
-      </c>
-      <c r="I91" t="s">
-        <v>393</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="M91" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="M91" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9672,7 +9675,7 @@
         <v>491</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D92" t="s">
         <v>410</v>
@@ -9681,27 +9684,27 @@
         <v>456</v>
       </c>
       <c r="F92" t="s">
-        <v>492</v>
-      </c>
-      <c r="G92" t="s">
-        <v>393</v>
-      </c>
-      <c r="H92" t="s">
-        <v>393</v>
-      </c>
-      <c r="I92" t="s">
-        <v>393</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L92" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L92" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="M92" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9713,36 +9716,36 @@
         <v>491</v>
       </c>
       <c r="C93" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D93" t="s">
         <v>410</v>
       </c>
       <c r="E93" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="F93" t="s">
-        <v>460</v>
-      </c>
-      <c r="G93" t="s">
-        <v>393</v>
-      </c>
-      <c r="H93" t="s">
-        <v>393</v>
-      </c>
-      <c r="I93" t="s">
-        <v>393</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="M93" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="M93" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9754,36 +9757,36 @@
         <v>491</v>
       </c>
       <c r="C94" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D94" t="s">
         <v>410</v>
       </c>
       <c r="E94" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="F94" t="s">
-        <v>498</v>
-      </c>
-      <c r="G94" t="s">
-        <v>393</v>
-      </c>
-      <c r="H94" t="s">
-        <v>393</v>
-      </c>
-      <c r="I94" t="s">
-        <v>393</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="M94" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="M94" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9801,30 +9804,30 @@
         <v>410</v>
       </c>
       <c r="E95" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F95" t="s">
-        <v>448</v>
-      </c>
-      <c r="G95" t="s">
-        <v>393</v>
-      </c>
-      <c r="H95" t="s">
-        <v>393</v>
-      </c>
-      <c r="I95" t="s">
-        <v>393</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="M95" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9833,39 +9836,39 @@
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C96" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D96" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E96" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="F96" t="s">
-        <v>500</v>
-      </c>
-      <c r="G96" t="s">
-        <v>393</v>
-      </c>
-      <c r="H96" t="s">
-        <v>393</v>
-      </c>
-      <c r="I96" t="s">
-        <v>393</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M96" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="M96" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9877,36 +9880,36 @@
         <v>501</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D97" t="s">
         <v>390</v>
       </c>
       <c r="E97" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="F97" t="s">
-        <v>452</v>
-      </c>
-      <c r="G97" t="s">
-        <v>393</v>
-      </c>
-      <c r="H97" t="s">
-        <v>393</v>
-      </c>
-      <c r="I97" t="s">
-        <v>393</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="M97" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="M97" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9918,36 +9921,36 @@
         <v>501</v>
       </c>
       <c r="C98" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D98" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E98" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="F98" t="s">
-        <v>455</v>
-      </c>
-      <c r="G98" t="s">
-        <v>393</v>
-      </c>
-      <c r="H98" t="s">
-        <v>393</v>
-      </c>
-      <c r="I98" t="s">
-        <v>393</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="M98" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="M98" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9962,33 +9965,33 @@
         <v>389</v>
       </c>
       <c r="D99" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E99" t="s">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="F99" t="s">
-        <v>449</v>
-      </c>
-      <c r="G99" t="s">
-        <v>393</v>
-      </c>
-      <c r="H99" t="s">
-        <v>393</v>
-      </c>
-      <c r="I99" t="s">
-        <v>393</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="M99" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M99" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10006,30 +10009,30 @@
         <v>390</v>
       </c>
       <c r="E100" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="F100" t="s">
-        <v>459</v>
-      </c>
-      <c r="G100" t="s">
-        <v>393</v>
-      </c>
-      <c r="H100" t="s">
-        <v>393</v>
-      </c>
-      <c r="I100" t="s">
-        <v>393</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L100" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="M100" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10047,30 +10050,30 @@
         <v>390</v>
       </c>
       <c r="E101" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="F101" t="s">
         <v>457</v>
       </c>
-      <c r="G101" t="s">
-        <v>393</v>
-      </c>
-      <c r="H101" t="s">
-        <v>393</v>
-      </c>
-      <c r="I101" t="s">
-        <v>393</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L101" s="1" t="s">
+      <c r="G101" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="M101" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10093,25 +10096,25 @@
       <c r="F102" t="s">
         <v>457</v>
       </c>
-      <c r="G102" t="s">
-        <v>393</v>
-      </c>
-      <c r="H102" t="s">
-        <v>393</v>
-      </c>
-      <c r="I102" t="s">
-        <v>393</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L102" s="1" t="s">
+      <c r="G102" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="M102" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10129,30 +10132,30 @@
         <v>390</v>
       </c>
       <c r="E103" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="F103" t="s">
-        <v>457</v>
-      </c>
-      <c r="G103" t="s">
-        <v>393</v>
-      </c>
-      <c r="H103" t="s">
-        <v>393</v>
-      </c>
-      <c r="I103" t="s">
-        <v>393</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L103" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L103" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M103" s="1" t="s">
+      <c r="M103" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10164,7 +10167,7 @@
         <v>501</v>
       </c>
       <c r="C104" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D104" t="s">
         <v>390</v>
@@ -10173,68 +10176,68 @@
         <v>433</v>
       </c>
       <c r="F104" t="s">
-        <v>459</v>
-      </c>
-      <c r="G104" t="s">
-        <v>393</v>
-      </c>
-      <c r="H104" t="s">
-        <v>393</v>
-      </c>
-      <c r="I104" t="s">
-        <v>393</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L104" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L104" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M104" s="1" t="s">
+      <c r="M104" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C105" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D105" t="s">
         <v>390</v>
       </c>
       <c r="E105" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="F105" t="s">
-        <v>419</v>
-      </c>
-      <c r="G105" t="s">
-        <v>393</v>
-      </c>
-      <c r="H105" t="s">
-        <v>393</v>
-      </c>
-      <c r="I105" t="s">
-        <v>393</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M105" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="M105" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10246,36 +10249,36 @@
         <v>485</v>
       </c>
       <c r="C106" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D106" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="E106" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="F106" t="s">
-        <v>502</v>
-      </c>
-      <c r="G106" t="s">
-        <v>393</v>
-      </c>
-      <c r="H106" t="s">
-        <v>393</v>
-      </c>
-      <c r="I106" t="s">
-        <v>393</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="M106" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="M106" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10287,77 +10290,77 @@
         <v>485</v>
       </c>
       <c r="C107" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D107" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E107" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="F107" t="s">
-        <v>480</v>
-      </c>
-      <c r="G107" t="s">
-        <v>393</v>
-      </c>
-      <c r="H107" t="s">
-        <v>393</v>
-      </c>
-      <c r="I107" t="s">
-        <v>393</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="M107" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="M107" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="B108" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="C108" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D108" t="s">
         <v>410</v>
       </c>
       <c r="E108" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="F108" t="s">
-        <v>478</v>
-      </c>
-      <c r="G108" t="s">
-        <v>393</v>
-      </c>
-      <c r="H108" t="s">
-        <v>393</v>
-      </c>
-      <c r="I108" t="s">
-        <v>393</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="M108" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="M108" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10372,115 +10375,115 @@
         <v>434</v>
       </c>
       <c r="D109" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E109" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="F109" t="s">
-        <v>507</v>
-      </c>
-      <c r="G109" t="s">
-        <v>393</v>
-      </c>
-      <c r="H109" t="s">
-        <v>393</v>
-      </c>
-      <c r="I109" t="s">
-        <v>393</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M109" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M109" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B110" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C110" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E110" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="F110" t="s">
-        <v>509</v>
-      </c>
-      <c r="G110" t="s">
-        <v>393</v>
-      </c>
-      <c r="H110" t="s">
-        <v>393</v>
-      </c>
-      <c r="I110" t="s">
-        <v>393</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M110" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="M110" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B111" t="s">
         <v>511</v>
       </c>
       <c r="C111" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="D111" t="s">
         <v>415</v>
       </c>
       <c r="E111" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="F111" t="s">
-        <v>432</v>
-      </c>
-      <c r="G111" t="s">
-        <v>393</v>
-      </c>
-      <c r="H111" t="s">
-        <v>393</v>
-      </c>
-      <c r="I111" t="s">
-        <v>393</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="M111" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M111" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10489,39 +10492,39 @@
         <v>372</v>
       </c>
       <c r="B112" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C112" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D112" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E112" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="F112" t="s">
-        <v>480</v>
-      </c>
-      <c r="G112" t="s">
-        <v>393</v>
-      </c>
-      <c r="H112" t="s">
-        <v>393</v>
-      </c>
-      <c r="I112" t="s">
-        <v>393</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="M112" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="M112" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10530,39 +10533,39 @@
         <v>372</v>
       </c>
       <c r="B113" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C113" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D113" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E113" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="F113" t="s">
-        <v>514</v>
-      </c>
-      <c r="G113" t="s">
-        <v>393</v>
-      </c>
-      <c r="H113" t="s">
-        <v>393</v>
-      </c>
-      <c r="I113" t="s">
-        <v>393</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L113" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="M113" s="1" t="s">
+      <c r="G113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="M113" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10571,10 +10574,10 @@
         <v>372</v>
       </c>
       <c r="B114" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C114" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="D114" t="s">
         <v>410</v>
@@ -10583,118 +10586,37 @@
         <v>456</v>
       </c>
       <c r="F114" t="s">
-        <v>516</v>
-      </c>
-      <c r="G114" t="s">
-        <v>393</v>
-      </c>
-      <c r="H114" t="s">
-        <v>393</v>
-      </c>
-      <c r="I114" t="s">
-        <v>393</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>372</v>
-      </c>
-      <c r="B115" t="s">
-        <v>512</v>
-      </c>
-      <c r="C115" t="s">
-        <v>389</v>
-      </c>
-      <c r="D115" t="s">
-        <v>390</v>
-      </c>
-      <c r="E115" t="s">
-        <v>391</v>
-      </c>
-      <c r="F115" t="s">
-        <v>516</v>
-      </c>
-      <c r="G115" t="s">
-        <v>393</v>
-      </c>
-      <c r="H115" t="s">
-        <v>393</v>
-      </c>
-      <c r="I115" t="s">
-        <v>393</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L115" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L114" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="M115" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>372</v>
-      </c>
-      <c r="B116" t="s">
-        <v>512</v>
-      </c>
-      <c r="C116" t="s">
-        <v>389</v>
-      </c>
-      <c r="D116" t="s">
-        <v>410</v>
-      </c>
-      <c r="E116" t="s">
-        <v>456</v>
-      </c>
-      <c r="F116" t="s">
-        <v>516</v>
-      </c>
-      <c r="G116" t="s">
-        <v>393</v>
-      </c>
-      <c r="H116" t="s">
-        <v>393</v>
-      </c>
-      <c r="I116" t="s">
-        <v>393</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="M116" s="1" t="s">
+      <c r="M114" s="2" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="119">
-    <dataValidation type="list" sqref="H10:H116">
+  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <dataValidations count="117">
+    <dataValidation type="list" sqref="H10:H114">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H116">
+    <dataValidation type="list" sqref="H2:H114">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I10">
@@ -10748,12 +10670,6 @@
     <dataValidation type="list" sqref="I114">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H114,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I115">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H115,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I116">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H116,"-","_"))</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="I12">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H12,"-","_"))</formula1>
     </dataValidation>
@@ -11042,11 +10958,11 @@
     <dataValidation type="list" sqref="I99">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H99,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J116">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J114">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J116">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J114">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="638">
   <si>
     <t>VAT</t>
   </si>
@@ -1199,51 +1199,87 @@
     <t>2.2</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>17/01/2023</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>1.3</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>10/01/2023</t>
   </si>
   <si>
     <t>1.2</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>23/01/2023</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>14/01/2023</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>01/01/2023</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>01/02/2023</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>Papel Compuesto (cemento)</t>
   </si>
   <si>
     <t>02/02/2023</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>Plástico</t>
   </si>
   <si>
@@ -1256,9 +1292,33 @@
     <t>9</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>Valorización Energética</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>Metal</t>
   </si>
   <si>
@@ -1268,18 +1328,36 @@
     <t>12</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>25/03/2023</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>01/00/2023</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>Envase Aluminio</t>
   </si>
   <si>
     <t>01/04/2023</t>
   </si>
   <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>Madera</t>
   </si>
   <si>
@@ -1292,30 +1370,69 @@
     <t>1.4</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>02/01/2021</t>
   </si>
   <si>
+    <t>260</t>
+  </si>
+  <si>
     <t>Los Aromos 2432 - Quinta Región</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>1.31</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>09/01/2023</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>07/02/2023</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>28/02/2023</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>Caja Cartón</t>
   </si>
   <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>Disposición Final en RS</t>
   </si>
   <si>
@@ -1328,24 +1445,63 @@
     <t>1.23</t>
   </si>
   <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
     <t>12356</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>23/02/1951</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Metal Otro</t>
   </si>
   <si>
     <t>1.26</t>
   </si>
   <si>
+    <t>272</t>
+  </si>
+  <si>
     <t>1546</t>
   </si>
   <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
     <t>1.32</t>
   </si>
   <si>
+    <t>276</t>
+  </si>
+  <si>
     <t>Envase Hojalata</t>
   </si>
   <si>
@@ -1355,66 +1511,129 @@
     <t>1234</t>
   </si>
   <si>
+    <t>278</t>
+  </si>
+  <si>
     <t>08/04/2023</t>
   </si>
   <si>
+    <t>345</t>
+  </si>
+  <si>
     <t>09/04/2023</t>
   </si>
   <si>
+    <t>346</t>
+  </si>
+  <si>
     <t>10/04/2023</t>
   </si>
   <si>
+    <t>347</t>
+  </si>
+  <si>
     <t>Papel/Cartón Otro</t>
   </si>
   <si>
     <t>11/04/2023</t>
   </si>
   <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
     <t>29/04/2023</t>
   </si>
   <si>
+    <t>350</t>
+  </si>
+  <si>
     <t>30/04/2023</t>
   </si>
   <si>
+    <t>351</t>
+  </si>
+  <si>
     <t>31/04/2023</t>
   </si>
   <si>
+    <t>352</t>
+  </si>
+  <si>
     <t>01/05/2023</t>
   </si>
   <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
     <t>Plástico Film Embalaje</t>
   </si>
   <si>
     <t>15/04/2023</t>
   </si>
   <si>
+    <t>355</t>
+  </si>
+  <si>
     <t>Plástico Envases Rígidos (Incl. Tapas)</t>
   </si>
   <si>
     <t>16/04/2023</t>
   </si>
   <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
     <t>23/04/2023</t>
   </si>
   <si>
+    <t>358</t>
+  </si>
+  <si>
     <t>Establecimiento - Región de Los Lagos</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>15/01/2023</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>12/09/2012</t>
   </si>
   <si>
     <t>12.32</t>
   </si>
   <si>
+    <t>301</t>
+  </si>
+  <si>
     <t>123232234</t>
   </si>
   <si>
+    <t>302</t>
+  </si>
+  <si>
     <t>Plástico Sacos o Maxisacos</t>
   </si>
   <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
     <t>ejemplo - Región de Atacama</t>
   </si>
   <si>
@@ -1424,6 +1643,9 @@
     <t>203</t>
   </si>
   <si>
+    <t>388</t>
+  </si>
+  <si>
     <t>Ejemplo - Región de O’Higgins</t>
   </si>
   <si>
@@ -1433,13 +1655,16 @@
     <t>11.1</t>
   </si>
   <si>
+    <t>167</t>
+  </si>
+  <si>
     <t>establecimiento 1 - Región de Tarapacá</t>
   </si>
   <si>
     <t>02/07/2023</t>
   </si>
   <si>
-    <t>24</t>
+    <t>392</t>
   </si>
   <si>
     <t>16/07/2023</t>
@@ -1448,16 +1673,67 @@
     <t>26</t>
   </si>
   <si>
+    <t>393</t>
+  </si>
+  <si>
     <t>09/07/2023</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>394</t>
+  </si>
+  <si>
     <t>03/07/2023</t>
   </si>
   <si>
-    <t>44</t>
+    <t>539</t>
+  </si>
+  <si>
+    <t>05/08/2023</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>Plástico Zuncho</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>547</t>
   </si>
   <si>
     <t>Nombre - Región de Coquimbo</t>
@@ -1469,67 +1745,127 @@
     <t>3433</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
     <t>Juan - Región de Atacama</t>
   </si>
   <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
     <t>01/10/1900</t>
   </si>
   <si>
     <t>2.34</t>
   </si>
   <si>
+    <t>187</t>
+  </si>
+  <si>
     <t>Juan - Región de Arica y Parinacota</t>
   </si>
   <si>
     <t>20.1</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
     <t>juan - Región del Maule</t>
   </si>
   <si>
     <t>22/04/2023</t>
   </si>
   <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
     <t>24/04/2023</t>
   </si>
   <si>
-    <t>4</t>
+    <t>327</t>
   </si>
   <si>
     <t>25/04/2023</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Plástico EPS (Poliestireno Expandido)</t>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
   </si>
   <si>
     <t>13/04/2023</t>
   </si>
   <si>
-    <t>40</t>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
   </si>
   <si>
     <t>19/04/2023</t>
   </si>
   <si>
+    <t>333</t>
+  </si>
+  <si>
     <t>Estación Central - Región Metropolitana</t>
   </si>
   <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
     <t>17/07/2023</t>
   </si>
   <si>
+    <t>389</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
-    <t>Plástico Zuncho</t>
-  </si>
-  <si>
-    <t>33</t>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
   </si>
   <si>
     <t>EST REG MAGALLANES - Región de Magallanes</t>
@@ -1541,34 +1877,55 @@
     <t>33.33</t>
   </si>
   <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>02/05/2023</t>
   </si>
   <si>
     <t>44.44</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>VALPO-ETL - Región de Valparaíso</t>
   </si>
   <si>
     <t>5000000</t>
   </si>
   <si>
+    <t>383</t>
+  </si>
+  <si>
     <t>07/07/2023</t>
   </si>
   <si>
     <t>3000000</t>
   </si>
   <si>
+    <t>384</t>
+  </si>
+  <si>
     <t>08/07/2023</t>
   </si>
   <si>
     <t>400000</t>
   </si>
   <si>
+    <t>385</t>
+  </si>
+  <si>
     <t>1600000</t>
   </si>
   <si>
+    <t>386</t>
+  </si>
+  <si>
     <t>3400000</t>
+  </si>
+  <si>
+    <t>387</t>
   </si>
 </sst>
 </file>
@@ -5919,7 +6276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:N122"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
@@ -5934,6 +6291,7 @@
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5977,7 +6335,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -6017,8 +6375,11 @@
       <c r="M2" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -6053,13 +6414,16 @@
         <v>393</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -6094,13 +6458,16 @@
         <v>393</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -6117,31 +6484,34 @@
         <v>391</v>
       </c>
       <c r="F5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="M5" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -6176,13 +6546,16 @@
         <v>393</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -6199,7 +6572,7 @@
         <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>393</v>
@@ -6217,13 +6590,16 @@
         <v>393</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -6240,7 +6616,7 @@
         <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>393</v>
@@ -6258,13 +6634,16 @@
         <v>393</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -6281,7 +6660,7 @@
         <v>391</v>
       </c>
       <c r="F9" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>393</v>
@@ -6299,13 +6678,16 @@
         <v>393</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -6322,7 +6704,7 @@
         <v>391</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>393</v>
@@ -6340,13 +6722,16 @@
         <v>393</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -6363,7 +6748,7 @@
         <v>391</v>
       </c>
       <c r="F11" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>393</v>
@@ -6381,13 +6766,16 @@
         <v>393</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -6401,10 +6789,10 @@
         <v>390</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>393</v>
@@ -6422,13 +6810,16 @@
         <v>393</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -6442,10 +6833,10 @@
         <v>390</v>
       </c>
       <c r="E13" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>393</v>
@@ -6463,13 +6854,16 @@
         <v>393</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -6480,13 +6874,13 @@
         <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E14" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F14" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>393</v>
@@ -6504,13 +6898,16 @@
         <v>393</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -6527,7 +6924,7 @@
         <v>391</v>
       </c>
       <c r="F15" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>393</v>
@@ -6545,13 +6942,16 @@
         <v>393</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -6568,7 +6968,7 @@
         <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>393</v>
@@ -6586,13 +6986,16 @@
         <v>393</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -6609,7 +7012,7 @@
         <v>391</v>
       </c>
       <c r="F17" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>393</v>
@@ -6627,13 +7030,16 @@
         <v>393</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -6647,10 +7053,10 @@
         <v>390</v>
       </c>
       <c r="E18" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F18" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>393</v>
@@ -6668,13 +7074,16 @@
         <v>393</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -6691,7 +7100,7 @@
         <v>391</v>
       </c>
       <c r="F19" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>393</v>
@@ -6709,13 +7118,16 @@
         <v>393</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -6729,10 +7141,10 @@
         <v>390</v>
       </c>
       <c r="E20" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F20" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>393</v>
@@ -6750,13 +7162,16 @@
         <v>393</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -6764,7 +7179,7 @@
         <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D21" t="s">
         <v>390</v>
@@ -6791,13 +7206,16 @@
         <v>393</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -6805,16 +7223,16 @@
         <v>388</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D22" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E22" t="s">
         <v>391</v>
       </c>
       <c r="F22" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>393</v>
@@ -6832,13 +7250,16 @@
         <v>393</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -6849,13 +7270,13 @@
         <v>389</v>
       </c>
       <c r="D23" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E23" t="s">
         <v>391</v>
       </c>
       <c r="F23" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>393</v>
@@ -6873,13 +7294,16 @@
         <v>393</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -6890,13 +7314,13 @@
         <v>389</v>
       </c>
       <c r="D24" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E24" t="s">
         <v>391</v>
       </c>
       <c r="F24" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>393</v>
@@ -6914,13 +7338,16 @@
         <v>393</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -6931,13 +7358,13 @@
         <v>389</v>
       </c>
       <c r="D25" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E25" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>393</v>
@@ -6955,13 +7382,16 @@
         <v>393</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -6972,13 +7402,13 @@
         <v>389</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E26" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F26" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>393</v>
@@ -6996,13 +7426,16 @@
         <v>393</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -7013,13 +7446,13 @@
         <v>389</v>
       </c>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E27" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F27" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>393</v>
@@ -7037,13 +7470,16 @@
         <v>393</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -7051,16 +7487,16 @@
         <v>388</v>
       </c>
       <c r="C28" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D28" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="E28" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F28" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>393</v>
@@ -7078,13 +7514,16 @@
         <v>393</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -7101,7 +7540,7 @@
         <v>391</v>
       </c>
       <c r="F29" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>393</v>
@@ -7119,18 +7558,21 @@
         <v>393</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s">
         <v>389</v>
@@ -7142,7 +7584,7 @@
         <v>391</v>
       </c>
       <c r="F30" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>393</v>
@@ -7160,18 +7602,21 @@
         <v>393</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C31" t="s">
         <v>389</v>
@@ -7201,18 +7646,21 @@
         <v>393</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C32" t="s">
         <v>389</v>
@@ -7224,36 +7672,39 @@
         <v>391</v>
       </c>
       <c r="F32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="M32" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C33" t="s">
         <v>389</v>
@@ -7283,18 +7734,21 @@
         <v>393</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C34" t="s">
         <v>389</v>
@@ -7324,18 +7778,21 @@
         <v>393</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C35" t="s">
         <v>389</v>
@@ -7344,7 +7801,7 @@
         <v>390</v>
       </c>
       <c r="E35" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F35" t="s">
         <v>392</v>
@@ -7365,18 +7822,21 @@
         <v>393</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C36" t="s">
         <v>389</v>
@@ -7388,7 +7848,7 @@
         <v>391</v>
       </c>
       <c r="F36" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>393</v>
@@ -7406,18 +7866,21 @@
         <v>393</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C37" t="s">
         <v>389</v>
@@ -7429,7 +7892,7 @@
         <v>391</v>
       </c>
       <c r="F37" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>393</v>
@@ -7447,18 +7910,21 @@
         <v>393</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C38" t="s">
         <v>389</v>
@@ -7467,10 +7933,10 @@
         <v>390</v>
       </c>
       <c r="E38" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F38" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>393</v>
@@ -7488,30 +7954,33 @@
         <v>393</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C39" t="s">
         <v>389</v>
       </c>
       <c r="D39" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E39" t="s">
         <v>391</v>
       </c>
       <c r="F39" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>393</v>
@@ -7529,18 +7998,21 @@
         <v>393</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C40" t="s">
         <v>389</v>
@@ -7549,10 +8021,10 @@
         <v>390</v>
       </c>
       <c r="E40" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="F40" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>393</v>
@@ -7570,30 +8042,33 @@
         <v>393</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C41" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D41" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E41" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F41" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>393</v>
@@ -7611,30 +8086,33 @@
         <v>393</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C42" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D42" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E42" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F42" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>393</v>
@@ -7652,30 +8130,33 @@
         <v>393</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C43" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D43" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E43" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F43" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>393</v>
@@ -7693,30 +8174,33 @@
         <v>393</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C44" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D44" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E44" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F44" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>393</v>
@@ -7734,30 +8218,33 @@
         <v>393</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C45" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D45" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E45" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F45" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>393</v>
@@ -7775,30 +8262,33 @@
         <v>393</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C46" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E46" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F46" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>393</v>
@@ -7816,30 +8306,33 @@
         <v>393</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C47" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D47" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E47" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F47" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>393</v>
@@ -7857,30 +8350,33 @@
         <v>393</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C48" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D48" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E48" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F48" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>393</v>
@@ -7898,30 +8394,33 @@
         <v>393</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C49" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D49" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E49" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F49" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>393</v>
@@ -7939,30 +8438,33 @@
         <v>393</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C50" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D50" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="F50" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>393</v>
@@ -7980,30 +8482,33 @@
         <v>393</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D51" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="E51" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>393</v>
@@ -8021,30 +8526,33 @@
         <v>393</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C52" t="s">
         <v>389</v>
       </c>
       <c r="D52" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="E52" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F52" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>393</v>
@@ -8062,30 +8570,33 @@
         <v>393</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C53" t="s">
         <v>389</v>
       </c>
       <c r="D53" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E53" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>393</v>
@@ -8103,30 +8614,33 @@
         <v>393</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C54" t="s">
         <v>389</v>
       </c>
       <c r="D54" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E54" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="F54" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>393</v>
@@ -8144,18 +8658,21 @@
         <v>393</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C55" t="s">
         <v>389</v>
@@ -8167,7 +8684,7 @@
         <v>391</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>393</v>
@@ -8185,18 +8702,21 @@
         <v>393</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C56" t="s">
         <v>389</v>
@@ -8205,39 +8725,42 @@
         <v>390</v>
       </c>
       <c r="E56" t="s">
+        <v>417</v>
+      </c>
+      <c r="F56" t="s">
+        <v>502</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F56" t="s">
-        <v>448</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="M56" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C57" t="s">
         <v>389</v>
@@ -8246,10 +8769,10 @@
         <v>390</v>
       </c>
       <c r="E57" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>393</v>
@@ -8267,18 +8790,21 @@
         <v>393</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C58" t="s">
         <v>389</v>
@@ -8287,10 +8813,10 @@
         <v>390</v>
       </c>
       <c r="E58" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>393</v>
@@ -8308,21 +8834,24 @@
         <v>393</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C59" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D59" t="s">
         <v>390</v>
@@ -8331,7 +8860,7 @@
         <v>391</v>
       </c>
       <c r="F59" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>393</v>
@@ -8349,30 +8878,33 @@
         <v>393</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s">
         <v>389</v>
       </c>
       <c r="D60" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E60" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>393</v>
@@ -8390,30 +8922,33 @@
         <v>393</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C61" t="s">
         <v>389</v>
       </c>
       <c r="D61" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E61" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F61" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>393</v>
@@ -8431,30 +8966,33 @@
         <v>393</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C62" t="s">
         <v>389</v>
       </c>
       <c r="D62" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>393</v>
@@ -8472,30 +9010,33 @@
         <v>393</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C63" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D63" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E63" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F63" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>393</v>
@@ -8513,30 +9054,33 @@
         <v>393</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C64" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D64" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E64" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F64" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>393</v>
@@ -8554,30 +9098,33 @@
         <v>393</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C65" t="s">
         <v>389</v>
       </c>
       <c r="D65" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E65" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="F65" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>393</v>
@@ -8595,30 +9142,33 @@
         <v>393</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C66" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D66" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E66" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="F66" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>393</v>
@@ -8636,30 +9186,33 @@
         <v>393</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C67" t="s">
         <v>389</v>
       </c>
       <c r="D67" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="E67" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F67" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>393</v>
@@ -8677,30 +9230,33 @@
         <v>393</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C68" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D68" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="E68" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F68" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>393</v>
@@ -8718,18 +9274,21 @@
         <v>393</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="C69" t="s">
         <v>389</v>
@@ -8759,18 +9318,21 @@
         <v>393</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="C70" t="s">
         <v>389</v>
@@ -8782,7 +9344,7 @@
         <v>391</v>
       </c>
       <c r="F70" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>393</v>
@@ -8800,30 +9362,33 @@
         <v>393</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="C71" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D71" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E71" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F71" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>393</v>
@@ -8841,30 +9406,33 @@
         <v>393</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="C72" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D72" t="s">
         <v>390</v>
       </c>
       <c r="E72" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="F72" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>393</v>
@@ -8882,112 +9450,121 @@
         <v>393</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="C73" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D73" t="s">
+        <v>422</v>
+      </c>
+      <c r="E73" t="s">
+        <v>537</v>
+      </c>
+      <c r="F73" t="s">
+        <v>532</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E73" t="s">
-        <v>466</v>
-      </c>
-      <c r="F73" t="s">
-        <v>463</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="M73" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="C74" t="s">
         <v>389</v>
       </c>
       <c r="D74" t="s">
+        <v>422</v>
+      </c>
+      <c r="E74" t="s">
+        <v>537</v>
+      </c>
+      <c r="F74" t="s">
+        <v>532</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E74" t="s">
-        <v>466</v>
-      </c>
-      <c r="F74" t="s">
-        <v>463</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="M74" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="D75" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E75" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="F75" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>393</v>
@@ -9005,18 +9582,21 @@
         <v>393</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="C76" t="s">
         <v>389</v>
@@ -9025,10 +9605,10 @@
         <v>390</v>
       </c>
       <c r="E76" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F76" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>393</v>
@@ -9046,18 +9626,21 @@
         <v>393</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>315</v>
       </c>
       <c r="B77" t="s">
-        <v>473</v>
+        <v>548</v>
       </c>
       <c r="C77" t="s">
         <v>389</v>
@@ -9066,10 +9649,10 @@
         <v>390</v>
       </c>
       <c r="E77" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="F77" t="s">
-        <v>474</v>
+        <v>549</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>393</v>
@@ -9087,30 +9670,33 @@
         <v>393</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>473</v>
+        <v>548</v>
       </c>
       <c r="C78" t="s">
         <v>389</v>
       </c>
       <c r="D78" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E78" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="F78" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>393</v>
@@ -9128,30 +9714,33 @@
         <v>393</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>315</v>
       </c>
       <c r="B79" t="s">
+        <v>548</v>
+      </c>
+      <c r="C79" t="s">
         <v>473</v>
       </c>
-      <c r="C79" t="s">
-        <v>434</v>
-      </c>
       <c r="D79" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E79" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="F79" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>393</v>
@@ -9169,276 +9758,297 @@
         <v>393</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>479</v>
+        <v>555</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>315</v>
       </c>
       <c r="B80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C80" t="s">
         <v>473</v>
       </c>
-      <c r="C80" t="s">
-        <v>434</v>
-      </c>
       <c r="D80" t="s">
+        <v>435</v>
+      </c>
+      <c r="E80" t="s">
+        <v>488</v>
+      </c>
+      <c r="F80" t="s">
+        <v>557</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N80" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>315</v>
+      </c>
+      <c r="B81" t="s">
+        <v>548</v>
+      </c>
+      <c r="C81" t="s">
+        <v>433</v>
+      </c>
+      <c r="D81" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" t="s">
+        <v>471</v>
+      </c>
+      <c r="F81" t="s">
+        <v>559</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N81" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" t="s">
+        <v>548</v>
+      </c>
+      <c r="C82" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" t="s">
+        <v>435</v>
+      </c>
+      <c r="E82" t="s">
+        <v>488</v>
+      </c>
+      <c r="F82" t="s">
+        <v>559</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L82" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E80" t="s">
-        <v>440</v>
-      </c>
-      <c r="F80" t="s">
-        <v>480</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" t="s">
-        <v>482</v>
-      </c>
-      <c r="C81" t="s">
-        <v>414</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="M82" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N82" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B83" t="s">
+        <v>548</v>
+      </c>
+      <c r="C83" t="s">
+        <v>562</v>
+      </c>
+      <c r="D83" t="s">
+        <v>422</v>
+      </c>
+      <c r="E83" t="s">
+        <v>563</v>
+      </c>
+      <c r="F83" t="s">
+        <v>559</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N83" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" t="s">
+        <v>548</v>
+      </c>
+      <c r="C84" t="s">
+        <v>389</v>
+      </c>
+      <c r="D84" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84" t="s">
+        <v>562</v>
+      </c>
+      <c r="F84" t="s">
+        <v>559</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N84" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>315</v>
+      </c>
+      <c r="B85" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" t="s">
+        <v>433</v>
+      </c>
+      <c r="D85" t="s">
+        <v>390</v>
+      </c>
+      <c r="E85" t="s">
+        <v>417</v>
+      </c>
+      <c r="F85" t="s">
+        <v>567</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L85" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E81" t="s">
-        <v>444</v>
-      </c>
-      <c r="F81" t="s">
-        <v>483</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" t="s">
-        <v>482</v>
-      </c>
-      <c r="C82" t="s">
-        <v>414</v>
-      </c>
-      <c r="D82" t="s">
-        <v>415</v>
-      </c>
-      <c r="E82" t="s">
-        <v>444</v>
-      </c>
-      <c r="F82" t="s">
-        <v>483</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" t="s">
-        <v>482</v>
-      </c>
-      <c r="C83" t="s">
-        <v>414</v>
-      </c>
-      <c r="D83" t="s">
-        <v>415</v>
-      </c>
-      <c r="E83" t="s">
-        <v>444</v>
-      </c>
-      <c r="F83" t="s">
-        <v>483</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84" t="s">
-        <v>485</v>
-      </c>
-      <c r="C84" t="s">
-        <v>486</v>
-      </c>
-      <c r="D84" t="s">
-        <v>415</v>
-      </c>
-      <c r="E84" t="s">
-        <v>444</v>
-      </c>
-      <c r="F84" t="s">
-        <v>487</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>489</v>
-      </c>
-      <c r="C85" t="s">
-        <v>389</v>
-      </c>
-      <c r="D85" t="s">
-        <v>415</v>
-      </c>
-      <c r="E85" t="s">
-        <v>420</v>
-      </c>
-      <c r="F85" t="s">
-        <v>447</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>490</v>
-      </c>
       <c r="M85" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="C86" t="s">
-        <v>434</v>
+        <v>562</v>
       </c>
       <c r="D86" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E86" t="s">
-        <v>407</v>
+        <v>522</v>
       </c>
       <c r="F86" t="s">
-        <v>447</v>
+        <v>567</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>393</v>
@@ -9456,30 +10066,33 @@
         <v>393</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="C87" t="s">
-        <v>389</v>
+        <v>562</v>
       </c>
       <c r="D87" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E87" t="s">
-        <v>420</v>
+        <v>570</v>
       </c>
       <c r="F87" t="s">
-        <v>492</v>
+        <v>567</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>393</v>
@@ -9497,30 +10110,33 @@
         <v>393</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>406</v>
+        <v>565</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="C88" t="s">
-        <v>414</v>
+        <v>562</v>
       </c>
       <c r="D88" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="E88" t="s">
-        <v>435</v>
+        <v>562</v>
       </c>
       <c r="F88" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>393</v>
@@ -9538,30 +10154,33 @@
         <v>393</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>431</v>
+        <v>572</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="C89" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D89" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E89" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="F89" t="s">
-        <v>493</v>
+        <v>575</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>393</v>
@@ -9579,30 +10198,33 @@
         <v>393</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>494</v>
+        <v>576</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="C90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D90" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="E90" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="F90" t="s">
-        <v>495</v>
+        <v>575</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>393</v>
@@ -9620,30 +10242,33 @@
         <v>393</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D91" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="E91" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="F91" t="s">
-        <v>492</v>
+        <v>575</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>393</v>
@@ -9661,30 +10286,33 @@
         <v>393</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>406</v>
+        <v>576</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>491</v>
+        <v>580</v>
       </c>
       <c r="C92" t="s">
-        <v>414</v>
+        <v>562</v>
       </c>
       <c r="D92" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="E92" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="F92" t="s">
-        <v>460</v>
+        <v>581</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>393</v>
@@ -9702,30 +10330,33 @@
         <v>393</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>406</v>
+        <v>582</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="C93" t="s">
         <v>389</v>
       </c>
       <c r="D93" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="E93" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="F93" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>393</v>
@@ -9743,30 +10374,33 @@
         <v>393</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>499</v>
+        <v>585</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="C94" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="D94" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E94" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="F94" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>393</v>
@@ -9784,30 +10418,33 @@
         <v>393</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>409</v>
+        <v>546</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>491</v>
+        <v>588</v>
       </c>
       <c r="C95" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D95" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="E95" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F95" t="s">
-        <v>500</v>
+        <v>589</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>393</v>
@@ -9825,30 +10462,33 @@
         <v>393</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C96" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D96" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E96" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="F96" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>393</v>
@@ -9866,30 +10506,33 @@
         <v>393</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C97" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D97" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E97" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="F97" t="s">
-        <v>455</v>
+        <v>592</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>393</v>
@@ -9907,30 +10550,33 @@
         <v>393</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>431</v>
+        <v>565</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C98" t="s">
-        <v>389</v>
+        <v>473</v>
       </c>
       <c r="D98" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="E98" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F98" t="s">
-        <v>449</v>
+        <v>594</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>393</v>
@@ -9948,30 +10594,33 @@
         <v>393</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>406</v>
+        <v>572</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C99" t="s">
         <v>389</v>
       </c>
       <c r="D99" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="E99" t="s">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="F99" t="s">
-        <v>459</v>
+        <v>589</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>393</v>
@@ -9989,30 +10638,33 @@
         <v>393</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C100" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D100" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="E100" t="s">
-        <v>433</v>
+        <v>519</v>
       </c>
       <c r="F100" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>393</v>
@@ -10030,30 +10682,33 @@
         <v>393</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C101" t="s">
         <v>389</v>
       </c>
       <c r="D101" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="E101" t="s">
-        <v>407</v>
+        <v>563</v>
       </c>
       <c r="F101" t="s">
-        <v>457</v>
+        <v>598</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>393</v>
@@ -10071,30 +10726,33 @@
         <v>393</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C102" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D102" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="E102" t="s">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="F102" t="s">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>393</v>
@@ -10112,30 +10770,33 @@
         <v>393</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D103" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="E103" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
       <c r="F103" t="s">
-        <v>459</v>
+        <v>601</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>393</v>
@@ -10153,71 +10814,77 @@
         <v>393</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>501</v>
+        <v>603</v>
       </c>
       <c r="C104" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D104" t="s">
         <v>390</v>
       </c>
       <c r="E104" t="s">
+        <v>471</v>
+      </c>
+      <c r="F104" t="s">
+        <v>510</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N104" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>603</v>
+      </c>
+      <c r="C105" t="s">
         <v>433</v>
-      </c>
-      <c r="F104" t="s">
-        <v>419</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>315</v>
-      </c>
-      <c r="B105" t="s">
-        <v>485</v>
-      </c>
-      <c r="C105" t="s">
-        <v>389</v>
       </c>
       <c r="D105" t="s">
         <v>390</v>
       </c>
       <c r="E105" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="F105" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>393</v>
@@ -10235,71 +10902,77 @@
         <v>393</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>485</v>
+        <v>603</v>
       </c>
       <c r="C106" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D106" t="s">
+        <v>422</v>
+      </c>
+      <c r="E106" t="s">
+        <v>537</v>
+      </c>
+      <c r="F106" t="s">
+        <v>504</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L106" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E106" t="s">
-        <v>444</v>
-      </c>
-      <c r="F106" t="s">
-        <v>478</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="M106" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>485</v>
+        <v>603</v>
       </c>
       <c r="C107" t="s">
         <v>389</v>
       </c>
       <c r="D107" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E107" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="F107" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>393</v>
@@ -10317,30 +10990,33 @@
         <v>393</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>505</v>
+        <v>407</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
       <c r="C108" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="D108" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E108" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F108" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>393</v>
@@ -10358,30 +11034,33 @@
         <v>393</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B109" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
       <c r="C109" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="D109" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E109" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F109" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>393</v>
@@ -10399,18 +11078,21 @@
         <v>393</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>510</v>
+        <v>407</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B110" t="s">
-        <v>511</v>
+        <v>603</v>
       </c>
       <c r="C110" t="s">
         <v>389</v>
@@ -10419,10 +11101,10 @@
         <v>390</v>
       </c>
       <c r="E110" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="F110" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>393</v>
@@ -10440,30 +11122,33 @@
         <v>393</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B111" t="s">
-        <v>511</v>
+        <v>603</v>
       </c>
       <c r="C111" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="D111" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E111" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="F111" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>393</v>
@@ -10481,30 +11166,33 @@
         <v>393</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>514</v>
+        <v>407</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B112" t="s">
-        <v>511</v>
+        <v>603</v>
       </c>
       <c r="C112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D112" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E112" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="F112" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>393</v>
@@ -10522,18 +11210,21 @@
         <v>393</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>516</v>
+        <v>407</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="C113" t="s">
         <v>389</v>
@@ -10545,7 +11236,7 @@
         <v>391</v>
       </c>
       <c r="F113" t="s">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>393</v>
@@ -10563,60 +11254,418 @@
         <v>393</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>517</v>
+        <v>437</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114" t="s">
+        <v>433</v>
+      </c>
+      <c r="D114" t="s">
+        <v>435</v>
+      </c>
+      <c r="E114" t="s">
+        <v>496</v>
+      </c>
+      <c r="F114" t="s">
+        <v>554</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N114" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>315</v>
+      </c>
+      <c r="B115" t="s">
+        <v>580</v>
+      </c>
+      <c r="C115" t="s">
+        <v>389</v>
+      </c>
+      <c r="D115" t="s">
+        <v>422</v>
+      </c>
+      <c r="E115" t="s">
+        <v>570</v>
+      </c>
+      <c r="F115" t="s">
+        <v>551</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N115" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>359</v>
+      </c>
+      <c r="B116" t="s">
+        <v>618</v>
+      </c>
+      <c r="C116" t="s">
+        <v>473</v>
+      </c>
+      <c r="D116" t="s">
+        <v>422</v>
+      </c>
+      <c r="E116" t="s">
+        <v>537</v>
+      </c>
+      <c r="F116" t="s">
+        <v>619</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N116" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>359</v>
+      </c>
+      <c r="B117" t="s">
+        <v>618</v>
+      </c>
+      <c r="C117" t="s">
+        <v>473</v>
+      </c>
+      <c r="D117" t="s">
+        <v>448</v>
+      </c>
+      <c r="E117" t="s">
+        <v>449</v>
+      </c>
+      <c r="F117" t="s">
+        <v>622</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N117" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>372</v>
       </c>
-      <c r="B114" t="s">
-        <v>511</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B118" t="s">
+        <v>625</v>
+      </c>
+      <c r="C118" t="s">
         <v>389</v>
       </c>
-      <c r="D114" t="s">
-        <v>410</v>
-      </c>
-      <c r="E114" t="s">
-        <v>456</v>
-      </c>
-      <c r="F114" t="s">
-        <v>515</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>393</v>
+      <c r="D118" t="s">
+        <v>390</v>
+      </c>
+      <c r="E118" t="s">
+        <v>391</v>
+      </c>
+      <c r="F118" t="s">
+        <v>554</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N118" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>372</v>
+      </c>
+      <c r="B119" t="s">
+        <v>625</v>
+      </c>
+      <c r="C119" t="s">
+        <v>433</v>
+      </c>
+      <c r="D119" t="s">
+        <v>435</v>
+      </c>
+      <c r="E119" t="s">
+        <v>444</v>
+      </c>
+      <c r="F119" t="s">
+        <v>628</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N119" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>372</v>
+      </c>
+      <c r="B120" t="s">
+        <v>625</v>
+      </c>
+      <c r="C120" t="s">
+        <v>473</v>
+      </c>
+      <c r="D120" t="s">
+        <v>422</v>
+      </c>
+      <c r="E120" t="s">
+        <v>519</v>
+      </c>
+      <c r="F120" t="s">
+        <v>631</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N120" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>372</v>
+      </c>
+      <c r="B121" t="s">
+        <v>625</v>
+      </c>
+      <c r="C121" t="s">
+        <v>389</v>
+      </c>
+      <c r="D121" t="s">
+        <v>390</v>
+      </c>
+      <c r="E121" t="s">
+        <v>391</v>
+      </c>
+      <c r="F121" t="s">
+        <v>631</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N121" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B122" t="s">
+        <v>625</v>
+      </c>
+      <c r="C122" t="s">
+        <v>389</v>
+      </c>
+      <c r="D122" t="s">
+        <v>422</v>
+      </c>
+      <c r="E122" t="s">
+        <v>519</v>
+      </c>
+      <c r="F122" t="s">
+        <v>631</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N122" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
-  <dataValidations count="117">
-    <dataValidation type="list" sqref="H10:H114">
+  <dataValidations count="125">
+    <dataValidation type="list" sqref="H10:H122">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H114">
+    <dataValidation type="list" sqref="H2:H122">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I10">
@@ -10670,9 +11719,33 @@
     <dataValidation type="list" sqref="I114">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H114,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I115">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H115,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I116">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H116,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I117">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H117,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I118">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H118,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I119">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H119,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I12">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H12,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I120">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H120,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I121">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H121,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I122">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H122,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I13">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H13,"-","_"))</formula1>
     </dataValidation>
@@ -10958,11 +12031,11 @@
     <dataValidation type="list" sqref="I99">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H99,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J114">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J122">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J114">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J122">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="672">
   <si>
     <t>VAT</t>
   </si>
@@ -1379,6 +1379,153 @@
     <t>260</t>
   </si>
   <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>Disposición Final en RS</t>
+  </si>
+  <si>
+    <t>Caja Cartón</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>Papel/Cartón Otro</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>Envase Hojalata</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Metal Otro</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>Plástico Film Embalaje</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>Plástico Sacos o Maxisacos</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
+  </si>
+  <si>
+    <t>04/08/2023</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>Plástico Zuncho</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>Plástico Otro</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>06/08/2023</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
     <t>Los Aromos 2432 - Quinta Región</t>
   </si>
   <si>
@@ -1415,9 +1562,6 @@
     <t>07/02/2023</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
@@ -1427,18 +1571,9 @@
     <t>70</t>
   </si>
   <si>
-    <t>Caja Cartón</t>
-  </si>
-  <si>
     <t>169</t>
   </si>
   <si>
-    <t>Disposición Final en RS</t>
-  </si>
-  <si>
-    <t>Malla o Reja (IBC)</t>
-  </si>
-  <si>
     <t>23/02/1950</t>
   </si>
   <si>
@@ -1478,9 +1613,6 @@
     <t>236</t>
   </si>
   <si>
-    <t>Metal Otro</t>
-  </si>
-  <si>
     <t>1.26</t>
   </si>
   <si>
@@ -1502,9 +1634,6 @@
     <t>276</t>
   </si>
   <si>
-    <t>Envase Hojalata</t>
-  </si>
-  <si>
     <t>24/02/1951</t>
   </si>
   <si>
@@ -1532,9 +1661,6 @@
     <t>347</t>
   </si>
   <si>
-    <t>Papel/Cartón Otro</t>
-  </si>
-  <si>
     <t>11/04/2023</t>
   </si>
   <si>
@@ -1571,18 +1697,12 @@
     <t>354</t>
   </si>
   <si>
-    <t>Plástico Film Embalaje</t>
-  </si>
-  <si>
     <t>15/04/2023</t>
   </si>
   <si>
     <t>355</t>
   </si>
   <si>
-    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
-  </si>
-  <si>
     <t>16/04/2023</t>
   </si>
   <si>
@@ -1625,9 +1745,6 @@
     <t>302</t>
   </si>
   <si>
-    <t>Plástico Sacos o Maxisacos</t>
-  </si>
-  <si>
     <t>303</t>
   </si>
   <si>
@@ -1700,18 +1817,9 @@
     <t>541</t>
   </si>
   <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
-    <t>Plástico EPS (Poliestireno Expandido)</t>
-  </si>
-  <si>
     <t>542</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>543</t>
   </si>
   <si>
@@ -1724,13 +1832,7 @@
     <t>545</t>
   </si>
   <si>
-    <t>Plástico Zuncho</t>
-  </si>
-  <si>
     <t>546</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>547</t>
@@ -6276,7 +6378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N149"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
@@ -7572,7 +7674,7 @@
         <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
         <v>389</v>
@@ -7584,7 +7686,7 @@
         <v>391</v>
       </c>
       <c r="F30" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>393</v>
@@ -7602,7 +7704,7 @@
         <v>393</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>393</v>
@@ -7616,19 +7718,19 @@
         <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C31" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D31" t="s">
         <v>390</v>
       </c>
       <c r="E31" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="F31" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>393</v>
@@ -7646,7 +7748,7 @@
         <v>393</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>393</v>
@@ -7660,19 +7762,19 @@
         <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D32" t="s">
         <v>390</v>
       </c>
       <c r="E32" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="F32" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>393</v>
@@ -7690,13 +7792,13 @@
         <v>393</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N32" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -7704,19 +7806,19 @@
         <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D33" t="s">
         <v>390</v>
       </c>
       <c r="E33" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
       <c r="F33" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>393</v>
@@ -7734,13 +7836,13 @@
         <v>393</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N33" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -7748,19 +7850,19 @@
         <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D34" t="s">
         <v>390</v>
       </c>
       <c r="E34" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="F34" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>393</v>
@@ -7778,13 +7880,13 @@
         <v>393</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N34" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -7792,19 +7894,19 @@
         <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D35" t="s">
         <v>390</v>
       </c>
       <c r="E35" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="F35" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>393</v>
@@ -7822,13 +7924,13 @@
         <v>393</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N35" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -7836,10 +7938,10 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D36" t="s">
         <v>390</v>
@@ -7848,7 +7950,7 @@
         <v>391</v>
       </c>
       <c r="F36" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>393</v>
@@ -7866,13 +7968,13 @@
         <v>393</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N36" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -7880,19 +7982,19 @@
         <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
         <v>389</v>
       </c>
       <c r="D37" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E37" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="F37" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>393</v>
@@ -7910,13 +8012,13 @@
         <v>393</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N37" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -7924,19 +8026,19 @@
         <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D38" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E38" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="F38" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>393</v>
@@ -7954,13 +8056,13 @@
         <v>393</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N38" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -7968,19 +8070,19 @@
         <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D39" t="s">
         <v>435</v>
       </c>
       <c r="E39" t="s">
-        <v>391</v>
+        <v>478</v>
       </c>
       <c r="F39" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>393</v>
@@ -7998,13 +8100,13 @@
         <v>393</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N39" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8012,19 +8114,19 @@
         <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D40" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E40" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="F40" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>393</v>
@@ -8042,13 +8144,13 @@
         <v>393</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N40" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -8056,20 +8158,20 @@
         <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D41" t="s">
         <v>435</v>
       </c>
       <c r="E41" t="s">
+        <v>482</v>
+      </c>
+      <c r="F41" t="s">
         <v>474</v>
       </c>
-      <c r="F41" t="s">
-        <v>475</v>
-      </c>
       <c r="G41" s="1" t="s">
         <v>393</v>
       </c>
@@ -8086,13 +8188,13 @@
         <v>393</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N41" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -8100,20 +8202,20 @@
         <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D42" t="s">
         <v>435</v>
       </c>
       <c r="E42" t="s">
+        <v>473</v>
+      </c>
+      <c r="F42" t="s">
         <v>474</v>
       </c>
-      <c r="F42" t="s">
-        <v>475</v>
-      </c>
       <c r="G42" s="1" t="s">
         <v>393</v>
       </c>
@@ -8130,13 +8232,13 @@
         <v>393</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N42" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -8144,20 +8246,20 @@
         <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C43" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D43" t="s">
         <v>435</v>
       </c>
       <c r="E43" t="s">
+        <v>476</v>
+      </c>
+      <c r="F43" t="s">
         <v>474</v>
       </c>
-      <c r="F43" t="s">
-        <v>475</v>
-      </c>
       <c r="G43" s="1" t="s">
         <v>393</v>
       </c>
@@ -8174,13 +8276,13 @@
         <v>393</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N43" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -8188,19 +8290,19 @@
         <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D44" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E44" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F44" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>393</v>
@@ -8218,13 +8320,13 @@
         <v>393</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N44" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8232,19 +8334,19 @@
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E45" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="F45" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>393</v>
@@ -8262,13 +8364,13 @@
         <v>393</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N45" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -8276,19 +8378,19 @@
         <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C46" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D46" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E46" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="F46" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>393</v>
@@ -8306,13 +8408,13 @@
         <v>393</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N46" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8320,19 +8422,19 @@
         <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D47" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E47" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="F47" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>393</v>
@@ -8350,13 +8452,13 @@
         <v>393</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N47" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8364,19 +8466,19 @@
         <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E48" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="F48" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>393</v>
@@ -8394,13 +8496,13 @@
         <v>393</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N48" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -8408,19 +8510,19 @@
         <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D49" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E49" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F49" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>393</v>
@@ -8438,13 +8540,13 @@
         <v>393</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N49" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -8452,19 +8554,19 @@
         <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C50" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D50" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E50" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="F50" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>393</v>
@@ -8482,13 +8584,13 @@
         <v>393</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>489</v>
+        <v>410</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N50" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -8496,19 +8598,19 @@
         <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D51" t="s">
         <v>448</v>
       </c>
       <c r="E51" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F51" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>393</v>
@@ -8526,13 +8628,13 @@
         <v>393</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>491</v>
+        <v>415</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N51" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -8540,19 +8642,19 @@
         <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D52" t="s">
         <v>448</v>
       </c>
       <c r="E52" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="F52" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>393</v>
@@ -8570,13 +8672,13 @@
         <v>393</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N52" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -8584,19 +8686,19 @@
         <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D53" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E53" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="F53" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>393</v>
@@ -8614,13 +8716,13 @@
         <v>393</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N53" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -8628,20 +8730,20 @@
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D54" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E54" t="s">
+        <v>462</v>
+      </c>
+      <c r="F54" t="s">
         <v>496</v>
       </c>
-      <c r="F54" t="s">
-        <v>497</v>
-      </c>
       <c r="G54" s="1" t="s">
         <v>393</v>
       </c>
@@ -8658,13 +8760,13 @@
         <v>393</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N54" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -8672,19 +8774,19 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D55" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="F55" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>393</v>
@@ -8702,13 +8804,13 @@
         <v>393</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N55" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -8716,19 +8818,19 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C56" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D56" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="E56" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="F56" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>393</v>
@@ -8746,7 +8848,7 @@
         <v>393</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>393</v>
@@ -8760,7 +8862,7 @@
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C57" t="s">
         <v>389</v>
@@ -8769,10 +8871,10 @@
         <v>390</v>
       </c>
       <c r="E57" t="s">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="F57" t="s">
-        <v>504</v>
+        <v>406</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>393</v>
@@ -8790,7 +8892,7 @@
         <v>393</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>393</v>
@@ -8804,7 +8906,7 @@
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C58" t="s">
         <v>389</v>
@@ -8813,34 +8915,34 @@
         <v>390</v>
       </c>
       <c r="E58" t="s">
+        <v>391</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N58" t="s">
         <v>506</v>
-      </c>
-      <c r="F58" t="s">
-        <v>507</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N58" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -8848,10 +8950,10 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C59" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D59" t="s">
         <v>390</v>
@@ -8860,7 +8962,7 @@
         <v>391</v>
       </c>
       <c r="F59" t="s">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>393</v>
@@ -8878,13 +8980,13 @@
         <v>393</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N59" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -8892,19 +8994,19 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C60" t="s">
         <v>389</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E60" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="F60" t="s">
-        <v>510</v>
+        <v>392</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>393</v>
@@ -8922,13 +9024,13 @@
         <v>393</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N60" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -8936,19 +9038,19 @@
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C61" t="s">
         <v>389</v>
       </c>
       <c r="D61" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E61" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="F61" t="s">
-        <v>512</v>
+        <v>392</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>393</v>
@@ -8966,13 +9068,13 @@
         <v>393</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>407</v>
+        <v>509</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N61" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -8980,19 +9082,19 @@
         <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C62" t="s">
         <v>389</v>
       </c>
       <c r="D62" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E62" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="F62" t="s">
-        <v>514</v>
+        <v>392</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>393</v>
@@ -9010,13 +9112,13 @@
         <v>393</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N62" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -9024,19 +9126,19 @@
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C63" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D63" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E63" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="F63" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>393</v>
@@ -9054,13 +9156,13 @@
         <v>393</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N63" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -9068,19 +9170,19 @@
         <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C64" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="F64" t="s">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>393</v>
@@ -9098,13 +9200,13 @@
         <v>393</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N64" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -9112,19 +9214,19 @@
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C65" t="s">
         <v>389</v>
       </c>
       <c r="D65" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E65" t="s">
-        <v>519</v>
+        <v>417</v>
       </c>
       <c r="F65" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>393</v>
@@ -9142,13 +9244,13 @@
         <v>393</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N65" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -9156,19 +9258,19 @@
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C66" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D66" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E66" t="s">
-        <v>522</v>
+        <v>391</v>
       </c>
       <c r="F66" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>393</v>
@@ -9186,13 +9288,13 @@
         <v>393</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N66" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -9200,19 +9302,19 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C67" t="s">
         <v>389</v>
       </c>
       <c r="D67" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="E67" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F67" t="s">
-        <v>500</v>
+        <v>412</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>393</v>
@@ -9230,13 +9332,13 @@
         <v>393</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N67" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -9244,19 +9346,19 @@
         <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="C68" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D68" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="E68" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="F68" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>393</v>
@@ -9274,13 +9376,13 @@
         <v>393</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>407</v>
+        <v>521</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N68" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -9288,19 +9390,19 @@
         <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C69" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E69" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
       <c r="F69" t="s">
-        <v>392</v>
+        <v>520</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>393</v>
@@ -9318,13 +9420,13 @@
         <v>393</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>396</v>
+        <v>521</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N69" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -9332,19 +9434,19 @@
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D70" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E70" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
       <c r="F70" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>393</v>
@@ -9362,13 +9464,13 @@
         <v>393</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>401</v>
+        <v>524</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N70" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -9376,19 +9478,19 @@
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C71" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D71" t="s">
         <v>435</v>
       </c>
       <c r="E71" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F71" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>393</v>
@@ -9406,13 +9508,13 @@
         <v>393</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N71" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -9420,19 +9522,19 @@
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C72" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D72" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E72" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F72" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>393</v>
@@ -9450,13 +9552,13 @@
         <v>393</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N72" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -9464,43 +9566,43 @@
         <v>158</v>
       </c>
       <c r="B73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C73" t="s">
+        <v>458</v>
+      </c>
+      <c r="D73" t="s">
+        <v>435</v>
+      </c>
+      <c r="E73" t="s">
+        <v>468</v>
+      </c>
+      <c r="F73" t="s">
+        <v>520</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N73" t="s">
         <v>528</v>
-      </c>
-      <c r="C73" t="s">
-        <v>433</v>
-      </c>
-      <c r="D73" t="s">
-        <v>422</v>
-      </c>
-      <c r="E73" t="s">
-        <v>537</v>
-      </c>
-      <c r="F73" t="s">
-        <v>532</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N73" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -9508,19 +9610,19 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C74" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D74" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E74" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="F74" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>393</v>
@@ -9538,33 +9640,33 @@
         <v>393</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>410</v>
+        <v>524</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N74" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="C75" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D75" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E75" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="F75" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>393</v>
@@ -9582,13 +9684,13 @@
         <v>393</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N75" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -9596,19 +9698,19 @@
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="C76" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D76" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E76" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="F76" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>393</v>
@@ -9626,33 +9728,33 @@
         <v>393</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N76" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C77" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D77" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E77" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F77" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>393</v>
@@ -9670,33 +9772,33 @@
         <v>393</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>395</v>
+        <v>533</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N77" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C78" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D78" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E78" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="F78" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>393</v>
@@ -9714,33 +9816,33 @@
         <v>393</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N78" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C79" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D79" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="E79" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
       <c r="F79" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>393</v>
@@ -9758,33 +9860,33 @@
         <v>393</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N79" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C80" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D80" t="s">
         <v>435</v>
       </c>
       <c r="E80" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="F80" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>393</v>
@@ -9802,33 +9904,33 @@
         <v>393</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>462</v>
+        <v>538</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N80" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C81" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D81" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E81" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F81" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>393</v>
@@ -9846,33 +9948,33 @@
         <v>393</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>410</v>
+        <v>541</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N81" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C82" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D82" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E82" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="F82" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>393</v>
@@ -9890,33 +9992,33 @@
         <v>393</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N82" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C83" t="s">
-        <v>562</v>
+        <v>389</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E83" t="s">
-        <v>563</v>
+        <v>417</v>
       </c>
       <c r="F83" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>393</v>
@@ -9934,33 +10036,33 @@
         <v>393</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N83" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C84" t="s">
         <v>389</v>
       </c>
       <c r="D84" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="E84" t="s">
-        <v>562</v>
+        <v>459</v>
       </c>
       <c r="F84" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>393</v>
@@ -9978,33 +10080,33 @@
         <v>393</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>565</v>
+        <v>407</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N84" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C85" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D85" t="s">
         <v>390</v>
       </c>
       <c r="E85" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="F85" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>393</v>
@@ -10022,33 +10124,33 @@
         <v>393</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N85" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C86" t="s">
-        <v>562</v>
+        <v>433</v>
       </c>
       <c r="D86" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E86" t="s">
-        <v>522</v>
+        <v>391</v>
       </c>
       <c r="F86" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>393</v>
@@ -10066,33 +10168,33 @@
         <v>393</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N86" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C87" t="s">
-        <v>562</v>
+        <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E87" t="s">
-        <v>570</v>
+        <v>444</v>
       </c>
       <c r="F87" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>393</v>
@@ -10110,33 +10212,33 @@
         <v>393</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>565</v>
+        <v>407</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N87" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="C88" t="s">
-        <v>562</v>
+        <v>389</v>
       </c>
       <c r="D88" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="E88" t="s">
-        <v>562</v>
+        <v>468</v>
       </c>
       <c r="F88" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>393</v>
@@ -10154,13 +10256,13 @@
         <v>393</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>572</v>
+        <v>407</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N88" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -10168,19 +10270,19 @@
         <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="C89" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D89" t="s">
         <v>435</v>
       </c>
       <c r="E89" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="F89" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>393</v>
@@ -10198,13 +10300,13 @@
         <v>393</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>576</v>
+        <v>407</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N89" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -10212,7 +10314,7 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="C90" t="s">
         <v>433</v>
@@ -10221,10 +10323,10 @@
         <v>435</v>
       </c>
       <c r="E90" t="s">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="F90" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>393</v>
@@ -10242,13 +10344,13 @@
         <v>393</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>576</v>
+        <v>407</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N90" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -10256,19 +10358,19 @@
         <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="C91" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="D91" t="s">
         <v>435</v>
       </c>
       <c r="E91" t="s">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="F91" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>393</v>
@@ -10286,13 +10388,13 @@
         <v>393</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>576</v>
+        <v>407</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N91" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -10300,43 +10402,43 @@
         <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>580</v>
+        <v>504</v>
       </c>
       <c r="C92" t="s">
+        <v>389</v>
+      </c>
+      <c r="D92" t="s">
+        <v>422</v>
+      </c>
+      <c r="E92" t="s">
+        <v>478</v>
+      </c>
+      <c r="F92" t="s">
+        <v>561</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N92" t="s">
         <v>562</v>
-      </c>
-      <c r="D92" t="s">
-        <v>435</v>
-      </c>
-      <c r="E92" t="s">
-        <v>496</v>
-      </c>
-      <c r="F92" t="s">
-        <v>581</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N92" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -10344,19 +10446,19 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>584</v>
+        <v>504</v>
       </c>
       <c r="C93" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D93" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E93" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="F93" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>393</v>
@@ -10374,13 +10476,13 @@
         <v>393</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>585</v>
+        <v>407</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N93" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -10388,19 +10490,19 @@
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>584</v>
+        <v>504</v>
       </c>
       <c r="C94" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D94" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="E94" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="F94" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>393</v>
@@ -10418,13 +10520,13 @@
         <v>393</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>546</v>
+        <v>407</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N94" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -10432,19 +10534,19 @@
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>588</v>
+        <v>504</v>
       </c>
       <c r="C95" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D95" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E95" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F95" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>393</v>
@@ -10462,13 +10564,13 @@
         <v>393</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N95" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -10476,19 +10578,19 @@
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="C96" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D96" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E96" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="F96" t="s">
-        <v>526</v>
+        <v>392</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>393</v>
@@ -10506,13 +10608,13 @@
         <v>393</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>467</v>
+        <v>396</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N96" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -10520,19 +10622,19 @@
         <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="C97" t="s">
         <v>389</v>
       </c>
       <c r="D97" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E97" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="F97" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>393</v>
@@ -10550,13 +10652,13 @@
         <v>393</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>565</v>
+        <v>401</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N97" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -10564,19 +10666,19 @@
         <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="C98" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D98" t="s">
         <v>435</v>
       </c>
       <c r="E98" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F98" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>393</v>
@@ -10594,13 +10696,13 @@
         <v>393</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N98" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -10608,19 +10710,19 @@
         <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="C99" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D99" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E99" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="F99" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>393</v>
@@ -10638,13 +10740,13 @@
         <v>393</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>415</v>
+        <v>575</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N99" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -10652,7 +10754,7 @@
         <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="C100" t="s">
         <v>433</v>
@@ -10661,10 +10763,10 @@
         <v>422</v>
       </c>
       <c r="E100" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="F100" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>393</v>
@@ -10682,13 +10784,13 @@
         <v>393</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N100" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -10696,7 +10798,7 @@
         <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="C101" t="s">
         <v>389</v>
@@ -10705,10 +10807,10 @@
         <v>422</v>
       </c>
       <c r="E101" t="s">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="F101" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>393</v>
@@ -10726,21 +10828,21 @@
         <v>393</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N101" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C102" t="s">
         <v>433</v>
@@ -10749,10 +10851,10 @@
         <v>422</v>
       </c>
       <c r="E102" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="F102" t="s">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>393</v>
@@ -10770,13 +10872,13 @@
         <v>393</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>420</v>
+        <v>581</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N102" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -10784,19 +10886,19 @@
         <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C103" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D103" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E103" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F103" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>393</v>
@@ -10814,21 +10916,21 @@
         <v>393</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>407</v>
+        <v>585</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N103" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C104" t="s">
         <v>389</v>
@@ -10837,10 +10939,10 @@
         <v>390</v>
       </c>
       <c r="E104" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F104" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>393</v>
@@ -10858,33 +10960,33 @@
         <v>393</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N104" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C105" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D105" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E105" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="F105" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>393</v>
@@ -10902,33 +11004,33 @@
         <v>393</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>467</v>
+        <v>591</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N105" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C106" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D106" t="s">
         <v>422</v>
       </c>
       <c r="E106" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
       <c r="F106" t="s">
-        <v>504</v>
+        <v>593</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>393</v>
@@ -10946,33 +11048,33 @@
         <v>393</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N106" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B107" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C107" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D107" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E107" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="F107" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>393</v>
@@ -10990,33 +11092,33 @@
         <v>393</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>407</v>
+        <v>511</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N107" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B108" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C108" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
         <v>390</v>
       </c>
       <c r="E108" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F108" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>393</v>
@@ -11034,33 +11136,33 @@
         <v>393</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N108" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C109" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D109" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E109" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="F109" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>393</v>
@@ -11078,33 +11180,33 @@
         <v>393</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N109" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B110" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C110" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D110" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="E110" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="F110" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>393</v>
@@ -11122,33 +11224,33 @@
         <v>393</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N110" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B111" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C111" t="s">
         <v>389</v>
       </c>
       <c r="D111" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="E111" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F111" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>393</v>
@@ -11166,21 +11268,21 @@
         <v>393</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N111" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C112" t="s">
         <v>433</v>
@@ -11189,10 +11291,10 @@
         <v>390</v>
       </c>
       <c r="E112" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="F112" t="s">
-        <v>441</v>
+        <v>603</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>393</v>
@@ -11210,13 +11312,13 @@
         <v>393</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N112" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -11224,19 +11326,19 @@
         <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C113" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D113" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E113" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="F113" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>393</v>
@@ -11254,13 +11356,13 @@
         <v>393</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N113" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -11268,19 +11370,19 @@
         <v>315</v>
       </c>
       <c r="B114" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C114" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="D114" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E114" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F114" t="s">
-        <v>554</v>
+        <v>603</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>393</v>
@@ -11298,13 +11400,13 @@
         <v>393</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>615</v>
+        <v>464</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N114" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -11312,19 +11414,19 @@
         <v>315</v>
       </c>
       <c r="B115" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="D115" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="E115" t="s">
-        <v>570</v>
+        <v>462</v>
       </c>
       <c r="F115" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>393</v>
@@ -11342,33 +11444,33 @@
         <v>393</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>531</v>
+        <v>466</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N115" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C116" t="s">
+        <v>433</v>
+      </c>
+      <c r="D116" t="s">
+        <v>435</v>
+      </c>
+      <c r="E116" t="s">
         <v>473</v>
       </c>
-      <c r="D116" t="s">
-        <v>422</v>
-      </c>
-      <c r="E116" t="s">
-        <v>537</v>
-      </c>
       <c r="F116" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>393</v>
@@ -11386,33 +11488,33 @@
         <v>393</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N116" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C117" t="s">
+        <v>433</v>
+      </c>
+      <c r="D117" t="s">
+        <v>435</v>
+      </c>
+      <c r="E117" t="s">
         <v>473</v>
       </c>
-      <c r="D117" t="s">
-        <v>448</v>
-      </c>
-      <c r="E117" t="s">
-        <v>449</v>
-      </c>
       <c r="F117" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>393</v>
@@ -11430,33 +11532,33 @@
         <v>393</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N117" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="C118" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D118" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="E118" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="F118" t="s">
-        <v>554</v>
+        <v>609</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>393</v>
@@ -11474,33 +11576,33 @@
         <v>393</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N118" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B119" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C119" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="D119" t="s">
         <v>435</v>
       </c>
       <c r="E119" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="F119" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>393</v>
@@ -11518,33 +11620,33 @@
         <v>393</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N119" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B120" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C120" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
       <c r="D120" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E120" t="s">
-        <v>519</v>
+        <v>444</v>
       </c>
       <c r="F120" t="s">
-        <v>631</v>
+        <v>543</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>393</v>
@@ -11562,33 +11664,33 @@
         <v>393</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N120" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B121" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C121" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D121" t="s">
         <v>390</v>
       </c>
       <c r="E121" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="F121" t="s">
-        <v>631</v>
+        <v>543</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>393</v>
@@ -11606,66 +11708,1254 @@
         <v>393</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N121" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C122" t="s">
         <v>389</v>
       </c>
       <c r="D122" t="s">
+        <v>435</v>
+      </c>
+      <c r="E122" t="s">
+        <v>444</v>
+      </c>
+      <c r="F122" t="s">
+        <v>623</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N122" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>622</v>
+      </c>
+      <c r="C123" t="s">
+        <v>433</v>
+      </c>
+      <c r="D123" t="s">
+        <v>435</v>
+      </c>
+      <c r="E123" t="s">
+        <v>468</v>
+      </c>
+      <c r="F123" t="s">
+        <v>566</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N123" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" t="s">
+        <v>622</v>
+      </c>
+      <c r="C124" t="s">
+        <v>389</v>
+      </c>
+      <c r="D124" t="s">
+        <v>435</v>
+      </c>
+      <c r="E124" t="s">
+        <v>468</v>
+      </c>
+      <c r="F124" t="s">
+        <v>626</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N124" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="B125" t="s">
+        <v>622</v>
+      </c>
+      <c r="C125" t="s">
+        <v>458</v>
+      </c>
+      <c r="D125" t="s">
+        <v>435</v>
+      </c>
+      <c r="E125" t="s">
+        <v>468</v>
+      </c>
+      <c r="F125" t="s">
+        <v>628</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N125" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" t="s">
+        <v>622</v>
+      </c>
+      <c r="C126" t="s">
+        <v>389</v>
+      </c>
+      <c r="D126" t="s">
         <v>422</v>
       </c>
-      <c r="E122" t="s">
-        <v>519</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="E126" t="s">
+        <v>478</v>
+      </c>
+      <c r="F126" t="s">
+        <v>623</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N126" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" t="s">
+        <v>622</v>
+      </c>
+      <c r="C127" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" t="s">
+        <v>422</v>
+      </c>
+      <c r="E127" t="s">
+        <v>478</v>
+      </c>
+      <c r="F127" t="s">
+        <v>566</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N127" t="s">
         <v>631</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L122" s="3" t="s">
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" t="s">
+        <v>622</v>
+      </c>
+      <c r="C128" t="s">
+        <v>389</v>
+      </c>
+      <c r="D128" t="s">
+        <v>422</v>
+      </c>
+      <c r="E128" t="s">
+        <v>486</v>
+      </c>
+      <c r="F128" t="s">
+        <v>632</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N128" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" t="s">
+        <v>622</v>
+      </c>
+      <c r="C129" t="s">
+        <v>433</v>
+      </c>
+      <c r="D129" t="s">
+        <v>422</v>
+      </c>
+      <c r="E129" t="s">
+        <v>478</v>
+      </c>
+      <c r="F129" t="s">
+        <v>545</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N129" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" t="s">
+        <v>622</v>
+      </c>
+      <c r="C130" t="s">
+        <v>433</v>
+      </c>
+      <c r="D130" t="s">
+        <v>422</v>
+      </c>
+      <c r="E130" t="s">
+        <v>480</v>
+      </c>
+      <c r="F130" t="s">
+        <v>635</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N130" t="s">
         <v>636</v>
       </c>
-      <c r="M122" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N122" t="s">
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" t="s">
         <v>637</v>
+      </c>
+      <c r="C131" t="s">
+        <v>389</v>
+      </c>
+      <c r="D131" t="s">
+        <v>390</v>
+      </c>
+      <c r="E131" t="s">
+        <v>459</v>
+      </c>
+      <c r="F131" t="s">
+        <v>552</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N131" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" t="s">
+        <v>637</v>
+      </c>
+      <c r="C132" t="s">
+        <v>433</v>
+      </c>
+      <c r="D132" t="s">
+        <v>390</v>
+      </c>
+      <c r="E132" t="s">
+        <v>417</v>
+      </c>
+      <c r="F132" t="s">
+        <v>558</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N132" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" t="s">
+        <v>637</v>
+      </c>
+      <c r="C133" t="s">
+        <v>389</v>
+      </c>
+      <c r="D133" t="s">
+        <v>422</v>
+      </c>
+      <c r="E133" t="s">
+        <v>482</v>
+      </c>
+      <c r="F133" t="s">
+        <v>547</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N133" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" t="s">
+        <v>637</v>
+      </c>
+      <c r="C134" t="s">
+        <v>389</v>
+      </c>
+      <c r="D134" t="s">
+        <v>390</v>
+      </c>
+      <c r="E134" t="s">
+        <v>417</v>
+      </c>
+      <c r="F134" t="s">
+        <v>563</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N134" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" t="s">
+        <v>637</v>
+      </c>
+      <c r="C135" t="s">
+        <v>389</v>
+      </c>
+      <c r="D135" t="s">
+        <v>390</v>
+      </c>
+      <c r="E135" t="s">
+        <v>459</v>
+      </c>
+      <c r="F135" t="s">
+        <v>561</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N135" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" t="s">
+        <v>637</v>
+      </c>
+      <c r="C136" t="s">
+        <v>389</v>
+      </c>
+      <c r="D136" t="s">
+        <v>390</v>
+      </c>
+      <c r="E136" t="s">
+        <v>417</v>
+      </c>
+      <c r="F136" t="s">
+        <v>561</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N136" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" t="s">
+        <v>637</v>
+      </c>
+      <c r="C137" t="s">
+        <v>389</v>
+      </c>
+      <c r="D137" t="s">
+        <v>390</v>
+      </c>
+      <c r="E137" t="s">
+        <v>417</v>
+      </c>
+      <c r="F137" t="s">
+        <v>561</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N137" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" t="s">
+        <v>637</v>
+      </c>
+      <c r="C138" t="s">
+        <v>389</v>
+      </c>
+      <c r="D138" t="s">
+        <v>390</v>
+      </c>
+      <c r="E138" t="s">
+        <v>459</v>
+      </c>
+      <c r="F138" t="s">
+        <v>563</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N138" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" t="s">
+        <v>637</v>
+      </c>
+      <c r="C139" t="s">
+        <v>433</v>
+      </c>
+      <c r="D139" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139" t="s">
+        <v>459</v>
+      </c>
+      <c r="F139" t="s">
+        <v>441</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N139" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>315</v>
+      </c>
+      <c r="B140" t="s">
+        <v>614</v>
+      </c>
+      <c r="C140" t="s">
+        <v>389</v>
+      </c>
+      <c r="D140" t="s">
+        <v>390</v>
+      </c>
+      <c r="E140" t="s">
+        <v>391</v>
+      </c>
+      <c r="F140" t="s">
+        <v>647</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N140" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>315</v>
+      </c>
+      <c r="B141" t="s">
+        <v>614</v>
+      </c>
+      <c r="C141" t="s">
+        <v>433</v>
+      </c>
+      <c r="D141" t="s">
+        <v>435</v>
+      </c>
+      <c r="E141" t="s">
+        <v>473</v>
+      </c>
+      <c r="F141" t="s">
+        <v>593</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N141" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" t="s">
+        <v>614</v>
+      </c>
+      <c r="C142" t="s">
+        <v>389</v>
+      </c>
+      <c r="D142" t="s">
+        <v>422</v>
+      </c>
+      <c r="E142" t="s">
+        <v>489</v>
+      </c>
+      <c r="F142" t="s">
+        <v>590</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N142" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>359</v>
+      </c>
+      <c r="B143" t="s">
+        <v>652</v>
+      </c>
+      <c r="C143" t="s">
+        <v>458</v>
+      </c>
+      <c r="D143" t="s">
+        <v>422</v>
+      </c>
+      <c r="E143" t="s">
+        <v>482</v>
+      </c>
+      <c r="F143" t="s">
+        <v>653</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N143" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>359</v>
+      </c>
+      <c r="B144" t="s">
+        <v>652</v>
+      </c>
+      <c r="C144" t="s">
+        <v>458</v>
+      </c>
+      <c r="D144" t="s">
+        <v>448</v>
+      </c>
+      <c r="E144" t="s">
+        <v>449</v>
+      </c>
+      <c r="F144" t="s">
+        <v>656</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N144" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>372</v>
+      </c>
+      <c r="B145" t="s">
+        <v>659</v>
+      </c>
+      <c r="C145" t="s">
+        <v>389</v>
+      </c>
+      <c r="D145" t="s">
+        <v>390</v>
+      </c>
+      <c r="E145" t="s">
+        <v>391</v>
+      </c>
+      <c r="F145" t="s">
+        <v>593</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N145" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>372</v>
+      </c>
+      <c r="B146" t="s">
+        <v>659</v>
+      </c>
+      <c r="C146" t="s">
+        <v>433</v>
+      </c>
+      <c r="D146" t="s">
+        <v>435</v>
+      </c>
+      <c r="E146" t="s">
+        <v>444</v>
+      </c>
+      <c r="F146" t="s">
+        <v>662</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N146" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>372</v>
+      </c>
+      <c r="B147" t="s">
+        <v>659</v>
+      </c>
+      <c r="C147" t="s">
+        <v>458</v>
+      </c>
+      <c r="D147" t="s">
+        <v>422</v>
+      </c>
+      <c r="E147" t="s">
+        <v>478</v>
+      </c>
+      <c r="F147" t="s">
+        <v>665</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N147" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>372</v>
+      </c>
+      <c r="B148" t="s">
+        <v>659</v>
+      </c>
+      <c r="C148" t="s">
+        <v>389</v>
+      </c>
+      <c r="D148" t="s">
+        <v>390</v>
+      </c>
+      <c r="E148" t="s">
+        <v>391</v>
+      </c>
+      <c r="F148" t="s">
+        <v>665</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N148" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>372</v>
+      </c>
+      <c r="B149" t="s">
+        <v>659</v>
+      </c>
+      <c r="C149" t="s">
+        <v>389</v>
+      </c>
+      <c r="D149" t="s">
+        <v>422</v>
+      </c>
+      <c r="E149" t="s">
+        <v>478</v>
+      </c>
+      <c r="F149" t="s">
+        <v>665</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N149" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
-  <dataValidations count="125">
-    <dataValidation type="list" sqref="H10:H122">
+  <dataValidations count="152">
+    <dataValidation type="list" sqref="H10:H149">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H122">
+    <dataValidation type="list" sqref="H2:H149">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I10">
@@ -11746,12 +13036,93 @@
     <dataValidation type="list" sqref="I122">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H122,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I123">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H123,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I124">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H124,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I125">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H125,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I126">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H126,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I127">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H127,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I128">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H128,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I129">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H129,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I13">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H13,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I130">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H130,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I131">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H131,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I132">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H132,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I133">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H133,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I134">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H134,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I135">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H135,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I136">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H136,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I137">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H137,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I138">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H138,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I139">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H139,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I14">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H14,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I140">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H140,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I141">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H141,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I142">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H142,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I143">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H143,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I144">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H144,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I145">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H145,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I146">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H146,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I147">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H147,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I148">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H148,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I149">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H149,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I15">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H15,"-","_"))</formula1>
     </dataValidation>
@@ -12031,11 +13402,11 @@
     <dataValidation type="list" sqref="I99">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H99,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J122">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J149">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J122">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J149">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="686">
   <si>
     <t>VAT</t>
   </si>
@@ -1184,733 +1184,775 @@
     <t>Reciclaje Mecánico</t>
   </si>
   <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>Pallet de Madera</t>
+  </si>
+  <si>
+    <t>03/03/2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>Papel/Cartón</t>
   </si>
   <si>
     <t>Papel</t>
   </si>
   <si>
+    <t>02/02/2023</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>01/02/2023</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Papel Compuesto (cemento)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Valorización Energética</t>
+  </si>
+  <si>
     <t>24/01/2023</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.2</t>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>01/00/2022</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>25/03/2023</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>01/00/2023</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Envase Aluminio</t>
+  </si>
+  <si>
+    <t>01/04/2023</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Caja de Madera</t>
+  </si>
+  <si>
+    <t>03/04/2023</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>Disposición Final en RS</t>
+  </si>
+  <si>
+    <t>Caja Cartón</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>Papel/Cartón Otro</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>Envase Hojalata</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Metal Otro</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>Plástico Film Embalaje</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>Plástico Sacos o Maxisacos</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
+  </si>
+  <si>
+    <t>04/08/2023</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>Plástico Zuncho</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>Plástico Otro</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>06/08/2023</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>Los Aromos 2432 - Quinta Región</t>
+  </si>
+  <si>
+    <t>23/01/2023</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>17/01/2023</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>09/01/2023</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>07/02/2023</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>28/02/2023</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>23/02/1950</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>23/02/1951</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>24/02/1951</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>08/04/2023</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>09/04/2023</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>10/04/2023</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>11/04/2023</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>29/04/2023</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>30/04/2023</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>31/04/2023</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>16/04/2023</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>23/04/2023</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>10/08/2023</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>Establecimiento - Región de Los Lagos</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>15/01/2023</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12/09/2012</t>
+  </si>
+  <si>
+    <t>12.32</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>123232234</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>11/08/2023</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>ejemplo - Región de Atacama</t>
+  </si>
+  <si>
+    <t>12/04/2021</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>Ejemplo - Región de O’Higgins</t>
+  </si>
+  <si>
+    <t>18/00/2023</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>establecimiento 1 - Región de Tarapacá</t>
+  </si>
+  <si>
+    <t>02/07/2023</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>17/01/2023</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>10/01/2023</t>
-  </si>
-  <si>
-    <t>1.2</t>
+    <t>392</t>
+  </si>
+  <si>
+    <t>16/07/2023</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>09/07/2023</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>05/08/2023</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>Nombre - Región de Coquimbo</t>
+  </si>
+  <si>
+    <t>12/11/2000</t>
+  </si>
+  <si>
+    <t>3433</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Juan - Región de Atacama</t>
+  </si>
+  <si>
+    <t>01/10/1900</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Juan - Región de Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>juan - Región del Maule</t>
+  </si>
+  <si>
+    <t>22/04/2023</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>24/04/2023</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>25/04/2023</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>13/04/2023</t>
   </si>
   <si>
     <t>40</t>
-  </si>
-  <si>
-    <t>23/01/2023</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>14/01/2023</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>01/01/2023</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>01/02/2023</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Papel Compuesto (cemento)</t>
-  </si>
-  <si>
-    <t>02/02/2023</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
-    <t>Pallet de Madera</t>
-  </si>
-  <si>
-    <t>03/03/2023</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Valorización Energética</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>01/00/2022</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>25/03/2023</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>01/00/2023</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Envase Aluminio</t>
-  </si>
-  <si>
-    <t>01/04/2023</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Madera</t>
-  </si>
-  <si>
-    <t>Caja de Madera</t>
-  </si>
-  <si>
-    <t>03/04/2023</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>02/01/2021</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>02/08/2023</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Disposición Final en RS</t>
-  </si>
-  <si>
-    <t>Caja Cartón</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
-    <t>Papel/Cartón Otro</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>Malla o Reja (IBC)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>Envase Hojalata</t>
-  </si>
-  <si>
-    <t>03/08/2023</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>Metal Otro</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>Plástico Film Embalaje</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>Plástico Sacos o Maxisacos</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>Plástico EPS (Poliestireno Expandido)</t>
-  </si>
-  <si>
-    <t>04/08/2023</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>Plástico Zuncho</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>Plástico Otro</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>06/08/2023</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>Los Aromos 2432 - Quinta Región</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>09/01/2023</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>07/02/2023</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>28/02/2023</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>23/02/1950</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>12356</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>23/02/1951</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>1546</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>24/02/1951</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>08/04/2023</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>09/04/2023</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>10/04/2023</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>11/04/2023</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>29/04/2023</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>30/04/2023</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>31/04/2023</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>01/05/2023</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>16/04/2023</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>23/04/2023</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>Establecimiento - Región de Los Lagos</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>15/01/2023</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12/09/2012</t>
-  </si>
-  <si>
-    <t>12.32</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>123232234</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>ejemplo - Región de Atacama</t>
-  </si>
-  <si>
-    <t>12/04/2021</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>Ejemplo - Región de O’Higgins</t>
-  </si>
-  <si>
-    <t>18/00/2023</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>establecimiento 1 - Región de Tarapacá</t>
-  </si>
-  <si>
-    <t>02/07/2023</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>16/07/2023</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>09/07/2023</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>03/07/2023</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>05/08/2023</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>Nombre - Región de Coquimbo</t>
-  </si>
-  <si>
-    <t>12/11/2000</t>
-  </si>
-  <si>
-    <t>3433</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Juan - Región de Atacama</t>
-  </si>
-  <si>
-    <t>01/10/1900</t>
-  </si>
-  <si>
-    <t>2.34</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>Juan - Región de Arica y Parinacota</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>juan - Región del Maule</t>
-  </si>
-  <si>
-    <t>22/04/2023</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>24/04/2023</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>25/04/2023</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>13/04/2023</t>
   </si>
   <si>
     <t>331</t>
@@ -6378,7 +6420,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N156"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
@@ -6492,13 +6534,13 @@
         <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>393</v>
@@ -6516,13 +6558,13 @@
         <v>393</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6536,13 +6578,13 @@
         <v>389</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E4" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>393</v>
@@ -6560,13 +6602,13 @@
         <v>393</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6580,13 +6622,13 @@
         <v>389</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E5" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>393</v>
@@ -6604,13 +6646,13 @@
         <v>393</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6624,13 +6666,13 @@
         <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F6" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>393</v>
@@ -6648,13 +6690,13 @@
         <v>393</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N6" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6668,10 +6710,10 @@
         <v>389</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F7" t="s">
         <v>403</v>
@@ -6692,13 +6734,13 @@
         <v>393</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6712,37 +6754,37 @@
         <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="M8" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6753,16 +6795,16 @@
         <v>388</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E9" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>393</v>
@@ -6780,13 +6822,13 @@
         <v>393</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6797,16 +6839,16 @@
         <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E10" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>393</v>
@@ -6824,13 +6866,13 @@
         <v>393</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6844,13 +6886,13 @@
         <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F11" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>393</v>
@@ -6868,13 +6910,13 @@
         <v>393</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6888,13 +6930,13 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>393</v>
@@ -6912,13 +6954,13 @@
         <v>393</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N12" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6932,13 +6974,13 @@
         <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>393</v>
@@ -6956,13 +6998,13 @@
         <v>393</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6976,7 +7018,7 @@
         <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E14" t="s">
         <v>423</v>
@@ -7020,13 +7062,13 @@
         <v>389</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E15" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="F15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>393</v>
@@ -7044,7 +7086,7 @@
         <v>393</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>393</v>
@@ -7061,16 +7103,16 @@
         <v>388</v>
       </c>
       <c r="C16" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="E16" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="F16" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>393</v>
@@ -7088,13 +7130,13 @@
         <v>393</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N16" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7108,13 +7150,13 @@
         <v>389</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E17" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F17" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>393</v>
@@ -7132,13 +7174,13 @@
         <v>393</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N17" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7152,13 +7194,13 @@
         <v>389</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E18" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="F18" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>393</v>
@@ -7176,13 +7218,13 @@
         <v>393</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N18" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7193,16 +7235,16 @@
         <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D19" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>393</v>
@@ -7220,13 +7262,13 @@
         <v>393</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N19" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7237,16 +7279,16 @@
         <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E20" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="F20" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>393</v>
@@ -7264,13 +7306,13 @@
         <v>393</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N20" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7281,16 +7323,16 @@
         <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D21" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E21" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="F21" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>393</v>
@@ -7308,13 +7350,13 @@
         <v>393</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N21" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7325,17 +7367,17 @@
         <v>388</v>
       </c>
       <c r="C22" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F22" t="s">
         <v>435</v>
       </c>
-      <c r="E22" t="s">
-        <v>391</v>
-      </c>
-      <c r="F22" t="s">
-        <v>436</v>
-      </c>
       <c r="G22" s="1" t="s">
         <v>393</v>
       </c>
@@ -7352,13 +7394,13 @@
         <v>393</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N22" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7369,17 +7411,17 @@
         <v>388</v>
       </c>
       <c r="C23" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" t="s">
+        <v>448</v>
+      </c>
+      <c r="F23" t="s">
         <v>435</v>
       </c>
-      <c r="E23" t="s">
-        <v>391</v>
-      </c>
-      <c r="F23" t="s">
-        <v>439</v>
-      </c>
       <c r="G23" s="1" t="s">
         <v>393</v>
       </c>
@@ -7396,13 +7438,13 @@
         <v>393</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N23" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7413,17 +7455,17 @@
         <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F24" t="s">
         <v>435</v>
       </c>
-      <c r="E24" t="s">
-        <v>391</v>
-      </c>
-      <c r="F24" t="s">
-        <v>441</v>
-      </c>
       <c r="G24" s="1" t="s">
         <v>393</v>
       </c>
@@ -7440,13 +7482,13 @@
         <v>393</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N24" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7460,13 +7502,13 @@
         <v>389</v>
       </c>
       <c r="D25" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="F25" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>393</v>
@@ -7484,13 +7526,13 @@
         <v>393</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N25" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -7501,16 +7543,16 @@
         <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D26" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>393</v>
@@ -7528,13 +7570,13 @@
         <v>393</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N26" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -7545,16 +7587,16 @@
         <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D27" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E27" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>393</v>
@@ -7572,13 +7614,13 @@
         <v>393</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N27" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7589,16 +7631,16 @@
         <v>388</v>
       </c>
       <c r="C28" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="E28" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="F28" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>393</v>
@@ -7616,13 +7658,13 @@
         <v>393</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N28" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7633,16 +7675,16 @@
         <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E29" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="F29" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>393</v>
@@ -7660,13 +7702,13 @@
         <v>393</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N29" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -7677,16 +7719,16 @@
         <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="F30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>393</v>
@@ -7704,13 +7746,13 @@
         <v>393</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N30" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -7721,16 +7763,16 @@
         <v>388</v>
       </c>
       <c r="C31" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D31" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="F31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>393</v>
@@ -7748,13 +7790,13 @@
         <v>393</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N31" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7765,16 +7807,16 @@
         <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
         <v>390</v>
       </c>
       <c r="E32" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F32" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>393</v>
@@ -7792,13 +7834,13 @@
         <v>393</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N32" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -7809,16 +7851,16 @@
         <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="D33" t="s">
         <v>390</v>
       </c>
       <c r="E33" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F33" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>393</v>
@@ -7836,13 +7878,13 @@
         <v>393</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N33" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -7853,16 +7895,16 @@
         <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D34" t="s">
         <v>390</v>
       </c>
       <c r="E34" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="F34" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>393</v>
@@ -7880,13 +7922,13 @@
         <v>393</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N34" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -7897,16 +7939,16 @@
         <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D35" t="s">
         <v>390</v>
       </c>
       <c r="E35" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="F35" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>393</v>
@@ -7924,13 +7966,13 @@
         <v>393</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N35" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -7941,7 +7983,7 @@
         <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D36" t="s">
         <v>390</v>
@@ -7950,7 +7992,7 @@
         <v>391</v>
       </c>
       <c r="F36" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>393</v>
@@ -7968,13 +8010,13 @@
         <v>393</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N36" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -7985,16 +8027,16 @@
         <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D37" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E37" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F37" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>393</v>
@@ -8012,7 +8054,7 @@
         <v>393</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>393</v>
@@ -8029,17 +8071,17 @@
         <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D38" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E38" t="s">
+        <v>442</v>
+      </c>
+      <c r="F38" t="s">
         <v>476</v>
       </c>
-      <c r="F38" t="s">
-        <v>474</v>
-      </c>
       <c r="G38" s="1" t="s">
         <v>393</v>
       </c>
@@ -8056,7 +8098,7 @@
         <v>393</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>393</v>
@@ -8073,40 +8115,40 @@
         <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="D39" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E39" t="s">
+        <v>442</v>
+      </c>
+      <c r="F39" t="s">
+        <v>476</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N39" t="s">
         <v>478</v>
-      </c>
-      <c r="F39" t="s">
-        <v>474</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N39" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8117,16 +8159,16 @@
         <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D40" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E40" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="F40" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>393</v>
@@ -8144,13 +8186,13 @@
         <v>393</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N40" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -8161,16 +8203,16 @@
         <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D41" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E41" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>393</v>
@@ -8188,13 +8230,13 @@
         <v>393</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N41" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -8205,16 +8247,16 @@
         <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D42" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E42" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F42" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>393</v>
@@ -8232,13 +8274,13 @@
         <v>393</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N42" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -8249,17 +8291,17 @@
         <v>388</v>
       </c>
       <c r="C43" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D43" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E43" t="s">
+        <v>442</v>
+      </c>
+      <c r="F43" t="s">
         <v>476</v>
       </c>
-      <c r="F43" t="s">
-        <v>474</v>
-      </c>
       <c r="G43" s="1" t="s">
         <v>393</v>
       </c>
@@ -8276,13 +8318,13 @@
         <v>393</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N43" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -8293,16 +8335,16 @@
         <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D44" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E44" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="F44" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>393</v>
@@ -8320,13 +8362,13 @@
         <v>393</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N44" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8337,16 +8379,16 @@
         <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D45" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E45" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="F45" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>393</v>
@@ -8364,13 +8406,13 @@
         <v>393</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N45" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -8381,16 +8423,16 @@
         <v>388</v>
       </c>
       <c r="C46" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D46" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E46" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="F46" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>393</v>
@@ -8408,13 +8450,13 @@
         <v>393</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N46" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8425,40 +8467,40 @@
         <v>388</v>
       </c>
       <c r="C47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D47" t="s">
+        <v>414</v>
+      </c>
+      <c r="E47" t="s">
         <v>462</v>
       </c>
-      <c r="D47" t="s">
-        <v>422</v>
-      </c>
-      <c r="E47" t="s">
-        <v>449</v>
-      </c>
       <c r="F47" t="s">
+        <v>484</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N47" t="s">
         <v>487</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N47" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8469,16 +8511,16 @@
         <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D48" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E48" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F48" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>393</v>
@@ -8496,13 +8538,13 @@
         <v>393</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N48" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -8513,16 +8555,16 @@
         <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D49" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E49" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="F49" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>393</v>
@@ -8540,13 +8582,13 @@
         <v>393</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N49" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -8554,19 +8596,19 @@
         <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="C50" t="s">
         <v>389</v>
       </c>
       <c r="D50" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E50" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="F50" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>393</v>
@@ -8584,13 +8626,13 @@
         <v>393</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N50" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -8598,19 +8640,19 @@
         <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="C51" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E51" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="F51" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>393</v>
@@ -8628,13 +8670,13 @@
         <v>393</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N51" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -8642,43 +8684,43 @@
         <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D52" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E52" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="F52" t="s">
+        <v>495</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N52" t="s">
         <v>496</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N52" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -8686,19 +8728,19 @@
         <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="C53" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="D53" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E53" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="F53" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>393</v>
@@ -8716,13 +8758,13 @@
         <v>393</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N53" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -8730,19 +8772,19 @@
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="D54" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E54" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="F54" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>393</v>
@@ -8760,13 +8802,13 @@
         <v>393</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N54" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -8774,19 +8816,19 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="C55" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="D55" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E55" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="F55" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>393</v>
@@ -8804,13 +8846,13 @@
         <v>393</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N55" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -8818,19 +8860,19 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="C56" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="D56" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E56" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="F56" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>393</v>
@@ -8848,13 +8890,13 @@
         <v>393</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -8862,43 +8904,43 @@
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C57" t="s">
         <v>389</v>
       </c>
       <c r="D57" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E57" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F57" t="s">
+        <v>398</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="M57" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N57" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -8906,19 +8948,19 @@
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C58" t="s">
         <v>389</v>
       </c>
       <c r="D58" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E58" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>393</v>
@@ -8936,13 +8978,13 @@
         <v>393</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N58" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -8950,19 +8992,19 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C59" t="s">
         <v>389</v>
       </c>
       <c r="D59" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E59" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>506</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>393</v>
@@ -8980,7 +9022,7 @@
         <v>393</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>393</v>
@@ -8994,19 +9036,19 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C60" t="s">
         <v>389</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E60" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="F60" t="s">
-        <v>392</v>
+        <v>508</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>393</v>
@@ -9024,13 +9066,13 @@
         <v>393</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N60" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -9038,19 +9080,19 @@
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C61" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D61" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E61" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="F61" t="s">
-        <v>392</v>
+        <v>510</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>393</v>
@@ -9068,13 +9110,13 @@
         <v>393</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N61" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -9082,19 +9124,19 @@
         <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C62" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D62" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E62" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="F62" t="s">
-        <v>392</v>
+        <v>510</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>393</v>
@@ -9112,13 +9154,13 @@
         <v>393</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>401</v>
+        <v>511</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N62" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -9126,19 +9168,19 @@
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C63" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D63" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E63" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="F63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>393</v>
@@ -9156,13 +9198,13 @@
         <v>393</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>404</v>
+        <v>514</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N63" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -9170,19 +9212,19 @@
         <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D64" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E64" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="F64" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>393</v>
@@ -9200,13 +9242,13 @@
         <v>393</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>415</v>
+        <v>514</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N64" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -9214,19 +9256,19 @@
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D65" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E65" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="F65" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>393</v>
@@ -9244,13 +9286,13 @@
         <v>393</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N65" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -9258,19 +9300,19 @@
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C66" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D66" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E66" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="F66" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>393</v>
@@ -9288,7 +9330,7 @@
         <v>393</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>415</v>
+        <v>514</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>393</v>
@@ -9302,19 +9344,19 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C67" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D67" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E67" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F67" t="s">
-        <v>412</v>
+        <v>510</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>393</v>
@@ -9332,7 +9374,7 @@
         <v>393</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>393</v>
@@ -9346,43 +9388,43 @@
         <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C68" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D68" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E68" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="F68" t="s">
+        <v>510</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N68" t="s">
         <v>520</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N68" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -9390,19 +9432,19 @@
         <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C69" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D69" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E69" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="F69" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>393</v>
@@ -9420,13 +9462,13 @@
         <v>393</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N69" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -9434,19 +9476,19 @@
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C70" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D70" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E70" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F70" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>393</v>
@@ -9464,13 +9506,13 @@
         <v>393</v>
       </c>
       <c r="L70" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N70" t="s">
         <v>524</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N70" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -9478,19 +9520,19 @@
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C71" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D71" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E71" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="F71" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>393</v>
@@ -9508,7 +9550,7 @@
         <v>393</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>393</v>
@@ -9522,19 +9564,19 @@
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C72" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D72" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E72" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="F72" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>393</v>
@@ -9552,7 +9594,7 @@
         <v>393</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>393</v>
@@ -9566,19 +9608,19 @@
         <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C73" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E73" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="F73" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>393</v>
@@ -9596,13 +9638,13 @@
         <v>393</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N73" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -9610,19 +9652,19 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C74" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D74" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E74" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="F74" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>393</v>
@@ -9640,13 +9682,13 @@
         <v>393</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N74" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -9654,19 +9696,19 @@
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C75" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D75" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E75" t="s">
-        <v>468</v>
+        <v>397</v>
       </c>
       <c r="F75" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>393</v>
@@ -9684,13 +9726,13 @@
         <v>393</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N75" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -9698,19 +9740,19 @@
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C76" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D76" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E76" t="s">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="F76" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>393</v>
@@ -9728,13 +9770,13 @@
         <v>393</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N76" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -9742,19 +9784,19 @@
         <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C77" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D77" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E77" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="F77" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>393</v>
@@ -9772,13 +9814,13 @@
         <v>393</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N77" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -9786,19 +9828,19 @@
         <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C78" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D78" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E78" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F78" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>393</v>
@@ -9816,13 +9858,13 @@
         <v>393</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N78" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -9830,19 +9872,19 @@
         <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C79" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D79" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E79" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="F79" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>393</v>
@@ -9860,13 +9902,13 @@
         <v>393</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N79" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -9874,19 +9916,19 @@
         <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C80" t="s">
         <v>389</v>
       </c>
       <c r="D80" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E80" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="F80" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>393</v>
@@ -9904,13 +9946,13 @@
         <v>393</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N80" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -9918,19 +9960,19 @@
         <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C81" t="s">
         <v>389</v>
       </c>
       <c r="D81" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E81" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F81" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>393</v>
@@ -9948,13 +9990,13 @@
         <v>393</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N81" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -9962,19 +10004,19 @@
         <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C82" t="s">
         <v>389</v>
       </c>
       <c r="D82" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E82" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="F82" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>393</v>
@@ -9992,13 +10034,13 @@
         <v>393</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N82" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -10006,19 +10048,19 @@
         <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C83" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D83" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E83" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F83" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>393</v>
@@ -10036,13 +10078,13 @@
         <v>393</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N83" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -10050,19 +10092,19 @@
         <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C84" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D84" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E84" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="F84" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>393</v>
@@ -10080,13 +10122,13 @@
         <v>393</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N84" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -10094,7 +10136,7 @@
         <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C85" t="s">
         <v>389</v>
@@ -10103,10 +10145,10 @@
         <v>390</v>
       </c>
       <c r="E85" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F85" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>393</v>
@@ -10124,13 +10166,13 @@
         <v>393</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N85" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -10138,19 +10180,19 @@
         <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C86" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D86" t="s">
         <v>390</v>
       </c>
       <c r="E86" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="F86" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>393</v>
@@ -10168,13 +10210,13 @@
         <v>393</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N86" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -10182,19 +10224,19 @@
         <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C87" t="s">
         <v>389</v>
       </c>
       <c r="D87" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E87" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F87" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>393</v>
@@ -10212,13 +10254,13 @@
         <v>393</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N87" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -10226,19 +10268,19 @@
         <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D88" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E88" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="F88" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>393</v>
@@ -10256,13 +10298,13 @@
         <v>393</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N88" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -10270,19 +10312,19 @@
         <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C89" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D89" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E89" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="F89" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>393</v>
@@ -10300,13 +10342,13 @@
         <v>393</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N89" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -10314,19 +10356,19 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C90" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D90" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E90" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="F90" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>393</v>
@@ -10344,13 +10386,13 @@
         <v>393</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N90" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -10358,19 +10400,19 @@
         <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C91" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D91" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E91" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="F91" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>393</v>
@@ -10388,13 +10430,13 @@
         <v>393</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N91" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -10402,19 +10444,19 @@
         <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D92" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E92" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="F92" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>393</v>
@@ -10432,13 +10474,13 @@
         <v>393</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N92" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -10446,19 +10488,19 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="C93" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D93" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E93" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="F93" t="s">
-        <v>563</v>
+        <v>411</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>393</v>
@@ -10476,13 +10518,13 @@
         <v>393</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N93" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -10490,19 +10532,19 @@
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="C94" t="s">
         <v>389</v>
       </c>
       <c r="D94" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E94" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="F94" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>393</v>
@@ -10520,13 +10562,13 @@
         <v>393</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N94" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -10534,19 +10576,19 @@
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="C95" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D95" t="s">
+        <v>414</v>
+      </c>
+      <c r="E95" t="s">
         <v>448</v>
       </c>
-      <c r="E95" t="s">
-        <v>449</v>
-      </c>
       <c r="F95" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>393</v>
@@ -10564,13 +10606,13 @@
         <v>393</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>407</v>
+        <v>569</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N95" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -10578,20 +10620,20 @@
         <v>158</v>
       </c>
       <c r="B96" t="s">
+        <v>564</v>
+      </c>
+      <c r="C96" t="s">
+        <v>410</v>
+      </c>
+      <c r="D96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E96" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96" t="s">
         <v>568</v>
       </c>
-      <c r="C96" t="s">
-        <v>389</v>
-      </c>
-      <c r="D96" t="s">
-        <v>390</v>
-      </c>
-      <c r="E96" t="s">
-        <v>391</v>
-      </c>
-      <c r="F96" t="s">
-        <v>392</v>
-      </c>
       <c r="G96" s="1" t="s">
         <v>393</v>
       </c>
@@ -10608,13 +10650,13 @@
         <v>393</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>396</v>
+        <v>571</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N96" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -10622,19 +10664,19 @@
         <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D97" t="s">
         <v>390</v>
       </c>
       <c r="E97" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="F97" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>393</v>
@@ -10658,7 +10700,7 @@
         <v>393</v>
       </c>
       <c r="N97" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -10666,20 +10708,20 @@
         <v>158</v>
       </c>
       <c r="B98" t="s">
+        <v>564</v>
+      </c>
+      <c r="C98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" t="s">
+        <v>390</v>
+      </c>
+      <c r="E98" t="s">
+        <v>462</v>
+      </c>
+      <c r="F98" t="s">
         <v>568</v>
       </c>
-      <c r="C98" t="s">
-        <v>433</v>
-      </c>
-      <c r="D98" t="s">
-        <v>435</v>
-      </c>
-      <c r="E98" t="s">
-        <v>468</v>
-      </c>
-      <c r="F98" t="s">
-        <v>572</v>
-      </c>
       <c r="G98" s="1" t="s">
         <v>393</v>
       </c>
@@ -10696,7 +10738,7 @@
         <v>393</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>573</v>
+        <v>401</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>393</v>
@@ -10710,19 +10752,19 @@
         <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C99" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D99" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E99" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="F99" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>393</v>
@@ -10740,7 +10782,7 @@
         <v>393</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>575</v>
+        <v>401</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>393</v>
@@ -10754,19 +10796,19 @@
         <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C100" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D100" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E100" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="F100" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>393</v>
@@ -10784,7 +10826,7 @@
         <v>393</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>393</v>
@@ -10798,19 +10840,19 @@
         <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D101" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E101" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="F101" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>393</v>
@@ -10828,7 +10870,7 @@
         <v>393</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>393</v>
@@ -10839,66 +10881,66 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
+        <v>564</v>
+      </c>
+      <c r="C102" t="s">
+        <v>442</v>
+      </c>
+      <c r="D102" t="s">
+        <v>428</v>
+      </c>
+      <c r="E102" t="s">
+        <v>442</v>
+      </c>
+      <c r="F102" t="s">
+        <v>575</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N102" t="s">
         <v>579</v>
-      </c>
-      <c r="C102" t="s">
-        <v>433</v>
-      </c>
-      <c r="D102" t="s">
-        <v>422</v>
-      </c>
-      <c r="E102" t="s">
-        <v>480</v>
-      </c>
-      <c r="F102" t="s">
-        <v>580</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N102" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B103" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D103" t="s">
         <v>390</v>
       </c>
       <c r="E103" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="F103" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>393</v>
@@ -10916,33 +10958,33 @@
         <v>393</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N103" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C104" t="s">
         <v>389</v>
       </c>
       <c r="D104" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E104" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="F104" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>393</v>
@@ -10960,77 +11002,77 @@
         <v>393</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>395</v>
+        <v>586</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N104" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C105" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D105" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E105" t="s">
-        <v>468</v>
+        <v>397</v>
       </c>
       <c r="F105" t="s">
+        <v>588</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N105" t="s">
         <v>590</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N105" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C106" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D106" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E106" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="F106" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>393</v>
@@ -11048,33 +11090,33 @@
         <v>393</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N106" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C107" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D107" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="E107" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F107" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>393</v>
@@ -11092,33 +11134,33 @@
         <v>393</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N107" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C108" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D108" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="E108" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F108" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>393</v>
@@ -11136,13 +11178,13 @@
         <v>393</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>410</v>
+        <v>595</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N108" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -11150,16 +11192,16 @@
         <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C109" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D109" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E109" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="F109" t="s">
         <v>598</v>
@@ -11180,7 +11222,7 @@
         <v>393</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>415</v>
+        <v>599</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>393</v>
@@ -11194,19 +11236,19 @@
         <v>315</v>
       </c>
       <c r="B110" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C110" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E110" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="F110" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>393</v>
@@ -11224,13 +11266,13 @@
         <v>393</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>460</v>
+        <v>602</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N110" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -11238,19 +11280,19 @@
         <v>315</v>
       </c>
       <c r="B111" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C111" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D111" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="E111" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F111" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>393</v>
@@ -11268,13 +11310,13 @@
         <v>393</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>464</v>
+        <v>605</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N111" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -11282,19 +11324,19 @@
         <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C112" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D112" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E112" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="F112" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>393</v>
@@ -11312,13 +11354,13 @@
         <v>393</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N112" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -11326,19 +11368,19 @@
         <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C113" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E113" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="F113" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>393</v>
@@ -11356,13 +11398,13 @@
         <v>393</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N113" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -11370,19 +11412,19 @@
         <v>315</v>
       </c>
       <c r="B114" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C114" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D114" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E114" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="F114" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>393</v>
@@ -11400,13 +11442,13 @@
         <v>393</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N114" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -11414,19 +11456,19 @@
         <v>315</v>
       </c>
       <c r="B115" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C115" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D115" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="E115" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F115" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>393</v>
@@ -11444,30 +11486,30 @@
         <v>393</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N115" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C116" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D116" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E116" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F116" t="s">
         <v>609</v>
@@ -11488,33 +11530,33 @@
         <v>393</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>610</v>
+        <v>444</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N116" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B117" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C117" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D117" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E117" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="F117" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>393</v>
@@ -11532,33 +11574,33 @@
         <v>393</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>610</v>
+        <v>406</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N117" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B118" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C118" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D118" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E118" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F118" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>393</v>
@@ -11576,34 +11618,34 @@
         <v>393</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>610</v>
+        <v>440</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N118" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B119" t="s">
+        <v>597</v>
+      </c>
+      <c r="C119" t="s">
+        <v>442</v>
+      </c>
+      <c r="D119" t="s">
+        <v>390</v>
+      </c>
+      <c r="E119" t="s">
+        <v>469</v>
+      </c>
+      <c r="F119" t="s">
         <v>614</v>
       </c>
-      <c r="C119" t="s">
-        <v>462</v>
-      </c>
-      <c r="D119" t="s">
-        <v>435</v>
-      </c>
-      <c r="E119" t="s">
-        <v>473</v>
-      </c>
-      <c r="F119" t="s">
-        <v>615</v>
-      </c>
       <c r="G119" s="1" t="s">
         <v>393</v>
       </c>
@@ -11620,7 +11662,7 @@
         <v>393</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>616</v>
+        <v>444</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>393</v>
@@ -11631,66 +11673,66 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B120" t="s">
+        <v>597</v>
+      </c>
+      <c r="C120" t="s">
+        <v>442</v>
+      </c>
+      <c r="D120" t="s">
+        <v>428</v>
+      </c>
+      <c r="E120" t="s">
+        <v>442</v>
+      </c>
+      <c r="F120" t="s">
+        <v>614</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N120" t="s">
         <v>618</v>
-      </c>
-      <c r="C120" t="s">
-        <v>389</v>
-      </c>
-      <c r="D120" t="s">
-        <v>435</v>
-      </c>
-      <c r="E120" t="s">
-        <v>444</v>
-      </c>
-      <c r="F120" t="s">
-        <v>543</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N120" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B121" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="C121" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D121" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E121" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="F121" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>393</v>
@@ -11708,33 +11750,33 @@
         <v>393</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>585</v>
+        <v>416</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N121" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B122" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D122" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="F122" t="s">
-        <v>623</v>
+        <v>559</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>393</v>
@@ -11752,13 +11794,13 @@
         <v>393</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N122" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -11766,20 +11808,20 @@
         <v>158</v>
       </c>
       <c r="B123" t="s">
+        <v>621</v>
+      </c>
+      <c r="C123" t="s">
+        <v>410</v>
+      </c>
+      <c r="D123" t="s">
+        <v>414</v>
+      </c>
+      <c r="E123" t="s">
+        <v>453</v>
+      </c>
+      <c r="F123" t="s">
         <v>622</v>
       </c>
-      <c r="C123" t="s">
-        <v>433</v>
-      </c>
-      <c r="D123" t="s">
-        <v>435</v>
-      </c>
-      <c r="E123" t="s">
-        <v>468</v>
-      </c>
-      <c r="F123" t="s">
-        <v>566</v>
-      </c>
       <c r="G123" s="1" t="s">
         <v>393</v>
       </c>
@@ -11796,13 +11838,13 @@
         <v>393</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>460</v>
+        <v>623</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N123" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -11810,20 +11852,20 @@
         <v>158</v>
       </c>
       <c r="B124" t="s">
+        <v>621</v>
+      </c>
+      <c r="C124" t="s">
+        <v>410</v>
+      </c>
+      <c r="D124" t="s">
+        <v>414</v>
+      </c>
+      <c r="E124" t="s">
+        <v>453</v>
+      </c>
+      <c r="F124" t="s">
         <v>622</v>
       </c>
-      <c r="C124" t="s">
-        <v>389</v>
-      </c>
-      <c r="D124" t="s">
-        <v>435</v>
-      </c>
-      <c r="E124" t="s">
-        <v>468</v>
-      </c>
-      <c r="F124" t="s">
-        <v>626</v>
-      </c>
       <c r="G124" s="1" t="s">
         <v>393</v>
       </c>
@@ -11840,13 +11882,13 @@
         <v>393</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>464</v>
+        <v>623</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N124" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -11854,20 +11896,20 @@
         <v>158</v>
       </c>
       <c r="B125" t="s">
+        <v>621</v>
+      </c>
+      <c r="C125" t="s">
+        <v>410</v>
+      </c>
+      <c r="D125" t="s">
+        <v>414</v>
+      </c>
+      <c r="E125" t="s">
+        <v>453</v>
+      </c>
+      <c r="F125" t="s">
         <v>622</v>
       </c>
-      <c r="C125" t="s">
-        <v>458</v>
-      </c>
-      <c r="D125" t="s">
-        <v>435</v>
-      </c>
-      <c r="E125" t="s">
-        <v>468</v>
-      </c>
-      <c r="F125" t="s">
-        <v>628</v>
-      </c>
       <c r="G125" s="1" t="s">
         <v>393</v>
       </c>
@@ -11884,13 +11926,13 @@
         <v>393</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>466</v>
+        <v>623</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N125" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -11898,19 +11940,19 @@
         <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="C126" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D126" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E126" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="F126" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>393</v>
@@ -11928,7 +11970,7 @@
         <v>393</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>415</v>
+        <v>629</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>393</v>
@@ -11942,19 +11984,19 @@
         <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C127" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D127" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E127" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="F127" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>393</v>
@@ -11972,13 +12014,13 @@
         <v>393</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>415</v>
+        <v>632</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N127" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -11986,19 +12028,19 @@
         <v>158</v>
       </c>
       <c r="B128" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C128" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="D128" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E128" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
       <c r="F128" t="s">
-        <v>632</v>
+        <v>533</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>393</v>
@@ -12016,13 +12058,13 @@
         <v>393</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>405</v>
+        <v>586</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N128" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -12030,19 +12072,19 @@
         <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C129" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D129" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E129" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="F129" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>393</v>
@@ -12060,13 +12102,13 @@
         <v>393</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N129" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -12074,19 +12116,19 @@
         <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C130" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D130" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E130" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="F130" t="s">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>393</v>
@@ -12104,13 +12146,13 @@
         <v>393</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N130" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -12118,19 +12160,19 @@
         <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C131" t="s">
         <v>389</v>
       </c>
       <c r="D131" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E131" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F131" t="s">
-        <v>552</v>
+        <v>639</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>393</v>
@@ -12148,13 +12190,13 @@
         <v>393</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N131" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -12162,19 +12204,19 @@
         <v>158</v>
       </c>
       <c r="B132" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C132" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D132" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E132" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="F132" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>393</v>
@@ -12192,13 +12234,13 @@
         <v>393</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N132" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -12206,19 +12248,19 @@
         <v>158</v>
       </c>
       <c r="B133" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C133" t="s">
         <v>389</v>
       </c>
       <c r="D133" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E133" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="F133" t="s">
-        <v>547</v>
+        <v>636</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>393</v>
@@ -12236,13 +12278,13 @@
         <v>393</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N133" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -12250,19 +12292,19 @@
         <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C134" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D134" t="s">
         <v>390</v>
       </c>
       <c r="E134" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="F134" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>393</v>
@@ -12280,13 +12322,13 @@
         <v>393</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N134" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -12294,7 +12336,7 @@
         <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C135" t="s">
         <v>389</v>
@@ -12303,10 +12345,10 @@
         <v>390</v>
       </c>
       <c r="E135" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F135" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>393</v>
@@ -12324,13 +12366,13 @@
         <v>393</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>407</v>
+        <v>646</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N135" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -12338,19 +12380,19 @@
         <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C136" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D136" t="s">
         <v>390</v>
       </c>
       <c r="E136" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="F136" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>393</v>
@@ -12368,13 +12410,13 @@
         <v>393</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N136" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -12382,19 +12424,19 @@
         <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C137" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D137" t="s">
         <v>390</v>
       </c>
       <c r="E137" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="F137" t="s">
-        <v>561</v>
+        <v>649</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>393</v>
@@ -12412,13 +12454,13 @@
         <v>393</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N137" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -12426,19 +12468,19 @@
         <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C138" t="s">
         <v>389</v>
       </c>
       <c r="D138" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E138" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="F138" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>393</v>
@@ -12456,13 +12498,13 @@
         <v>393</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N138" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -12470,19 +12512,19 @@
         <v>158</v>
       </c>
       <c r="B139" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C139" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D139" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E139" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="F139" t="s">
-        <v>441</v>
+        <v>549</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>393</v>
@@ -12500,21 +12542,21 @@
         <v>393</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N139" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="C140" t="s">
         <v>389</v>
@@ -12523,10 +12565,10 @@
         <v>390</v>
       </c>
       <c r="E140" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="F140" t="s">
-        <v>647</v>
+        <v>538</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>393</v>
@@ -12544,33 +12586,33 @@
         <v>393</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N140" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="C141" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D141" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E141" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="F141" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>393</v>
@@ -12588,33 +12630,33 @@
         <v>393</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>649</v>
+        <v>534</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N141" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B142" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="C142" t="s">
         <v>389</v>
       </c>
       <c r="D142" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E142" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="F142" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>393</v>
@@ -12632,33 +12674,33 @@
         <v>393</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N142" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C143" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D143" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E143" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="F143" t="s">
-        <v>653</v>
+        <v>552</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>393</v>
@@ -12676,33 +12718,33 @@
         <v>393</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>654</v>
+        <v>534</v>
       </c>
       <c r="M143" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N143" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C144" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D144" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="E144" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="F144" t="s">
-        <v>656</v>
+        <v>552</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>393</v>
@@ -12720,7 +12762,7 @@
         <v>393</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>657</v>
+        <v>534</v>
       </c>
       <c r="M144" s="2" t="s">
         <v>393</v>
@@ -12731,22 +12773,22 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B145" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C145" t="s">
         <v>389</v>
       </c>
       <c r="D145" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E145" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="F145" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>393</v>
@@ -12764,33 +12806,33 @@
         <v>393</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>660</v>
+        <v>534</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N145" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="B146" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C146" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="D146" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E146" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F146" t="s">
-        <v>662</v>
+        <v>420</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>393</v>
@@ -12808,33 +12850,33 @@
         <v>393</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>663</v>
+        <v>534</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N146" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B147" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="C147" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="D147" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E147" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="F147" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>393</v>
@@ -12852,33 +12894,33 @@
         <v>393</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>666</v>
+        <v>416</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N147" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B148" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="C148" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D148" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="E148" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="F148" t="s">
-        <v>665</v>
+        <v>604</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>393</v>
@@ -12896,66 +12938,374 @@
         <v>393</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>393</v>
       </c>
       <c r="N148" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B149" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="C149" t="s">
         <v>389</v>
       </c>
       <c r="D149" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="E149" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F149" t="s">
+        <v>601</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N149" t="s">
         <v>665</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L149" s="3" t="s">
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>359</v>
+      </c>
+      <c r="B150" t="s">
+        <v>666</v>
+      </c>
+      <c r="C150" t="s">
+        <v>438</v>
+      </c>
+      <c r="D150" t="s">
+        <v>390</v>
+      </c>
+      <c r="E150" t="s">
+        <v>462</v>
+      </c>
+      <c r="F150" t="s">
+        <v>667</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N150" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>359</v>
+      </c>
+      <c r="B151" t="s">
+        <v>666</v>
+      </c>
+      <c r="C151" t="s">
+        <v>438</v>
+      </c>
+      <c r="D151" t="s">
+        <v>428</v>
+      </c>
+      <c r="E151" t="s">
+        <v>429</v>
+      </c>
+      <c r="F151" t="s">
         <v>670</v>
       </c>
-      <c r="M149" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="N149" t="s">
+      <c r="G151" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L151" s="3" t="s">
         <v>671</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N151" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>372</v>
+      </c>
+      <c r="B152" t="s">
+        <v>673</v>
+      </c>
+      <c r="C152" t="s">
+        <v>389</v>
+      </c>
+      <c r="D152" t="s">
+        <v>396</v>
+      </c>
+      <c r="E152" t="s">
+        <v>397</v>
+      </c>
+      <c r="F152" t="s">
+        <v>604</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N152" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>372</v>
+      </c>
+      <c r="B153" t="s">
+        <v>673</v>
+      </c>
+      <c r="C153" t="s">
+        <v>410</v>
+      </c>
+      <c r="D153" t="s">
+        <v>414</v>
+      </c>
+      <c r="E153" t="s">
+        <v>423</v>
+      </c>
+      <c r="F153" t="s">
+        <v>676</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N153" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>372</v>
+      </c>
+      <c r="B154" t="s">
+        <v>673</v>
+      </c>
+      <c r="C154" t="s">
+        <v>438</v>
+      </c>
+      <c r="D154" t="s">
+        <v>390</v>
+      </c>
+      <c r="E154" t="s">
+        <v>458</v>
+      </c>
+      <c r="F154" t="s">
+        <v>679</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N154" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>372</v>
+      </c>
+      <c r="B155" t="s">
+        <v>673</v>
+      </c>
+      <c r="C155" t="s">
+        <v>389</v>
+      </c>
+      <c r="D155" t="s">
+        <v>396</v>
+      </c>
+      <c r="E155" t="s">
+        <v>397</v>
+      </c>
+      <c r="F155" t="s">
+        <v>679</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N155" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>372</v>
+      </c>
+      <c r="B156" t="s">
+        <v>673</v>
+      </c>
+      <c r="C156" t="s">
+        <v>389</v>
+      </c>
+      <c r="D156" t="s">
+        <v>390</v>
+      </c>
+      <c r="E156" t="s">
+        <v>458</v>
+      </c>
+      <c r="F156" t="s">
+        <v>679</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N156" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
-  <dataValidations count="152">
-    <dataValidation type="list" sqref="H10:H149">
+  <dataValidations count="159">
+    <dataValidation type="list" sqref="H10:H156">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H149">
+    <dataValidation type="list" sqref="H2:H156">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I10">
@@ -13126,6 +13476,27 @@
     <dataValidation type="list" sqref="I15">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H15,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I150">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H150,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I151">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H151,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I152">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H152,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I153">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H153,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I154">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H154,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I155">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H155,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I156">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H156,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I16">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H16,"-","_"))</formula1>
     </dataValidation>
@@ -13402,11 +13773,11 @@
     <dataValidation type="list" sqref="I99">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H99,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J149">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J156">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J149">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J156">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="697">
   <si>
     <t>VAT</t>
   </si>
@@ -1190,769 +1190,811 @@
     <t>Papel</t>
   </si>
   <si>
-    <t>02/02/2023</t>
+    <t>01/03/2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Papel Compuesto (cemento)</t>
+  </si>
+  <si>
+    <t>02/03/2023</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Valorización Energética</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>25/04/2023</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Envase Aluminio</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Caja de Madera</t>
+  </si>
+  <si>
+    <t>03/05/2023</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>Disposición Final en RS</t>
+  </si>
+  <si>
+    <t>Caja Cartón</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>Papel/Cartón Otro</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>Envase Hojalata</t>
+  </si>
+  <si>
+    <t>03/09/2023</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Metal Otro</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>Plástico Film Embalaje</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>Plástico Sacos o Maxisacos</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>Plástico Zuncho</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>Plástico Otro</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>Pallet de Madera</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>06/09/2023</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>09/09/2023</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>Los Aromos 2432 - Quinta Región</t>
+  </si>
+  <si>
+    <t>23/02/2023</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>17/02/2023</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>09/02/2023</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>07/03/2023</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>28/03/2023</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>01/02/2023</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>23/03/1950</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>23/03/1951</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>24/03/1951</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>08/05/2023</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>09/05/2023</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>10/05/2023</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>29/05/2023</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>01/06/2023</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>16/05/2023</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>23/05/2023</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>10/09/2023</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>Establecimiento - Región de Los Lagos</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>15/02/2023</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>12.32</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>123232234</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>11/09/2023</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>ejemplo - Región de Atacama</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>Ejemplo - Región de O’Higgins</t>
+  </si>
+  <si>
+    <t>18/01/2023</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>establecimiento 1 - Región de Tarapacá</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>16/08/2023</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>28/08/2023</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>15/09/2023</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>Nombre - Región de Coquimbo</t>
+  </si>
+  <si>
+    <t>12/12/2000</t>
+  </si>
+  <si>
+    <t>3433</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Juan - Región de Atacama</t>
+  </si>
+  <si>
+    <t>01/11/1900</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Juan - Región de Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>juan - Región del Maule</t>
+  </si>
+  <si>
+    <t>22/05/2023</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>01/02/2023</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Papel Compuesto (cemento)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Valorización Energética</t>
-  </si>
-  <si>
-    <t>24/01/2023</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>01/00/2022</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>25/03/2023</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>01/00/2023</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Envase Aluminio</t>
-  </si>
-  <si>
-    <t>01/04/2023</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Madera</t>
-  </si>
-  <si>
-    <t>Caja de Madera</t>
-  </si>
-  <si>
-    <t>03/04/2023</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>02/01/2021</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>02/08/2023</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Disposición Final en RS</t>
-  </si>
-  <si>
-    <t>Caja Cartón</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
-    <t>Papel/Cartón Otro</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>Malla o Reja (IBC)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>Envase Hojalata</t>
-  </si>
-  <si>
-    <t>03/08/2023</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>Metal Otro</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>Plástico Film Embalaje</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>Plástico Sacos o Maxisacos</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
-    <t>Plástico EPS (Poliestireno Expandido)</t>
-  </si>
-  <si>
-    <t>04/08/2023</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>Plástico Zuncho</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>Plástico Otro</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>Pallet de Madera</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>06/08/2023</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>09/08/2023</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>Los Aromos 2432 - Quinta Región</t>
-  </si>
-  <si>
-    <t>23/01/2023</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>17/01/2023</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>09/01/2023</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>07/02/2023</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>28/02/2023</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>01/01/2023</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>23/02/1950</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>12356</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>23/02/1951</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>1546</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>24/02/1951</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>08/04/2023</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>09/04/2023</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>10/04/2023</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>11/04/2023</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>29/04/2023</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>30/04/2023</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>31/04/2023</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>01/05/2023</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>16/04/2023</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>23/04/2023</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>10/08/2023</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>Establecimiento - Región de Los Lagos</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>15/01/2023</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12/09/2012</t>
-  </si>
-  <si>
-    <t>12.32</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>123232234</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>11/08/2023</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>ejemplo - Región de Atacama</t>
-  </si>
-  <si>
-    <t>12/04/2021</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>Ejemplo - Región de O’Higgins</t>
-  </si>
-  <si>
-    <t>18/00/2023</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>12/08/2023</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>establecimiento 1 - Región de Tarapacá</t>
-  </si>
-  <si>
-    <t>02/07/2023</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>16/07/2023</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>09/07/2023</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>03/07/2023</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>05/08/2023</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>Nombre - Región de Coquimbo</t>
-  </si>
-  <si>
-    <t>12/11/2000</t>
-  </si>
-  <si>
-    <t>3433</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Juan - Región de Atacama</t>
-  </si>
-  <si>
-    <t>01/10/1900</t>
-  </si>
-  <si>
-    <t>2.34</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>Juan - Región de Arica y Parinacota</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>juan - Región del Maule</t>
-  </si>
-  <si>
-    <t>22/04/2023</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>24/04/2023</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>25/04/2023</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>13/04/2023</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>332</t>
   </si>
   <si>
-    <t>19/04/2023</t>
+    <t>19/05/2023</t>
   </si>
   <si>
     <t>333</t>
@@ -1988,7 +2030,7 @@
     <t>365</t>
   </si>
   <si>
-    <t>17/07/2023</t>
+    <t>17/08/2023</t>
   </si>
   <si>
     <t>389</t>
@@ -2006,7 +2048,7 @@
     <t>EST REG MAGALLANES - Región de Magallanes</t>
   </si>
   <si>
-    <t>03/05/2023</t>
+    <t>03/06/2023</t>
   </si>
   <si>
     <t>33.33</t>
@@ -2015,7 +2057,7 @@
     <t>131</t>
   </si>
   <si>
-    <t>02/05/2023</t>
+    <t>02/06/2023</t>
   </si>
   <si>
     <t>44.44</t>
@@ -2033,7 +2075,7 @@
     <t>383</t>
   </si>
   <si>
-    <t>07/07/2023</t>
+    <t>07/08/2023</t>
   </si>
   <si>
     <t>3000000</t>
@@ -2042,7 +2084,7 @@
     <t>384</t>
   </si>
   <si>
-    <t>08/07/2023</t>
+    <t>08/08/2023</t>
   </si>
   <si>
     <t>400000</t>
@@ -6405,7 +6447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:N160"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
@@ -6522,10 +6564,10 @@
         <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G3" t="s">
         <v>393</v>
@@ -6543,13 +6585,13 @@
         <v>393</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6560,7 +6602,7 @@
         <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>390</v>
@@ -6569,7 +6611,7 @@
         <v>391</v>
       </c>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
         <v>393</v>
@@ -6587,13 +6629,13 @@
         <v>393</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6604,16 +6646,16 @@
         <v>388</v>
       </c>
       <c r="C5" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
         <v>393</v>
@@ -6631,13 +6673,13 @@
         <v>393</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N5" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6651,13 +6693,13 @@
         <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E6" t="s">
         <v>391</v>
       </c>
       <c r="F6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G6" t="s">
         <v>393</v>
@@ -6675,13 +6717,13 @@
         <v>393</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6695,13 +6737,13 @@
         <v>389</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="G7" t="s">
         <v>393</v>
@@ -6719,13 +6761,13 @@
         <v>393</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6736,16 +6778,16 @@
         <v>388</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G8" t="s">
         <v>393</v>
@@ -6763,13 +6805,13 @@
         <v>393</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6780,16 +6822,16 @@
         <v>388</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G9" t="s">
         <v>393</v>
@@ -6807,13 +6849,13 @@
         <v>393</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N9" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6827,13 +6869,13 @@
         <v>389</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E10" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="F10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G10" t="s">
         <v>393</v>
@@ -6851,13 +6893,13 @@
         <v>393</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6868,16 +6910,16 @@
         <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="F11" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G11" t="s">
         <v>393</v>
@@ -6895,13 +6937,13 @@
         <v>393</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6915,13 +6957,13 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F12" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="G12" t="s">
         <v>393</v>
@@ -6939,13 +6981,13 @@
         <v>393</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N12" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6959,13 +7001,13 @@
         <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G13" t="s">
         <v>393</v>
@@ -6983,13 +7025,13 @@
         <v>393</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N13" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7000,16 +7042,16 @@
         <v>388</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G14" t="s">
         <v>393</v>
@@ -7027,13 +7069,13 @@
         <v>393</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N14" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7044,13 +7086,13 @@
         <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D15" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F15" t="s">
         <v>425</v>
@@ -7071,13 +7113,13 @@
         <v>393</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N15" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7088,16 +7130,16 @@
         <v>388</v>
       </c>
       <c r="C16" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D16" t="s">
         <v>390</v>
       </c>
       <c r="E16" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="F16" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G16" t="s">
         <v>393</v>
@@ -7115,13 +7157,13 @@
         <v>393</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7132,16 +7174,16 @@
         <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D17" t="s">
         <v>390</v>
       </c>
       <c r="E17" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="F17" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G17" t="s">
         <v>393</v>
@@ -7159,13 +7201,13 @@
         <v>393</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N17" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7176,16 +7218,16 @@
         <v>388</v>
       </c>
       <c r="C18" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
         <v>390</v>
       </c>
       <c r="E18" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="F18" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G18" t="s">
         <v>393</v>
@@ -7203,13 +7245,13 @@
         <v>393</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N18" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7220,16 +7262,16 @@
         <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D19" t="s">
         <v>390</v>
       </c>
       <c r="E19" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G19" t="s">
         <v>393</v>
@@ -7247,13 +7289,13 @@
         <v>393</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N19" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7264,16 +7306,16 @@
         <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D20" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E20" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F20" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="G20" t="s">
         <v>393</v>
@@ -7291,13 +7333,13 @@
         <v>393</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N20" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7308,16 +7350,16 @@
         <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D21" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E21" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="F21" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="G21" t="s">
         <v>393</v>
@@ -7335,13 +7377,13 @@
         <v>393</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N21" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7352,40 +7394,40 @@
         <v>388</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D22" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E22" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F22" t="s">
+        <v>444</v>
+      </c>
+      <c r="G22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H22" t="s">
+        <v>393</v>
+      </c>
+      <c r="I22" t="s">
+        <v>393</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G22" t="s">
-        <v>393</v>
-      </c>
-      <c r="H22" t="s">
-        <v>393</v>
-      </c>
-      <c r="I22" t="s">
-        <v>393</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="M22" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N22" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7396,16 +7438,16 @@
         <v>388</v>
       </c>
       <c r="C23" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D23" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E23" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="F23" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="G23" t="s">
         <v>393</v>
@@ -7423,13 +7465,13 @@
         <v>393</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N23" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7440,16 +7482,16 @@
         <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D24" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F24" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G24" t="s">
         <v>393</v>
@@ -7467,13 +7509,13 @@
         <v>393</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N24" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7484,16 +7526,16 @@
         <v>388</v>
       </c>
       <c r="C25" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D25" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E25" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F25" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G25" t="s">
         <v>393</v>
@@ -7511,13 +7553,13 @@
         <v>393</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N25" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -7528,16 +7570,16 @@
         <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E26" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F26" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G26" t="s">
         <v>393</v>
@@ -7555,13 +7597,13 @@
         <v>393</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -7572,16 +7614,16 @@
         <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D27" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="E27" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F27" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G27" t="s">
         <v>393</v>
@@ -7599,13 +7641,13 @@
         <v>393</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N27" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7616,16 +7658,16 @@
         <v>388</v>
       </c>
       <c r="C28" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D28" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="E28" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F28" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G28" t="s">
         <v>393</v>
@@ -7643,13 +7685,13 @@
         <v>393</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N28" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7660,16 +7702,16 @@
         <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D29" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="E29" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F29" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G29" t="s">
         <v>393</v>
@@ -7687,13 +7729,13 @@
         <v>393</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N29" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -7704,16 +7746,16 @@
         <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D30" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="E30" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="F30" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G30" t="s">
         <v>393</v>
@@ -7731,13 +7773,13 @@
         <v>393</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N30" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -7748,16 +7790,16 @@
         <v>388</v>
       </c>
       <c r="C31" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D31" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E31" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F31" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G31" t="s">
         <v>393</v>
@@ -7775,13 +7817,13 @@
         <v>393</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N31" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7792,16 +7834,16 @@
         <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D32" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E32" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="F32" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G32" t="s">
         <v>393</v>
@@ -7819,13 +7861,13 @@
         <v>393</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N32" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -7836,16 +7878,16 @@
         <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="E33" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="F33" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G33" t="s">
         <v>393</v>
@@ -7863,13 +7905,13 @@
         <v>393</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N33" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -7880,16 +7922,16 @@
         <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D34" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="E34" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F34" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G34" t="s">
         <v>393</v>
@@ -7907,13 +7949,13 @@
         <v>393</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N34" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -7924,16 +7966,16 @@
         <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="E35" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="F35" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G35" t="s">
         <v>393</v>
@@ -7951,7 +7993,7 @@
         <v>393</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>393</v>
@@ -7968,16 +8010,16 @@
         <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D36" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="E36" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F36" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G36" t="s">
         <v>393</v>
@@ -7995,7 +8037,7 @@
         <v>393</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>393</v>
@@ -8012,40 +8054,40 @@
         <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D37" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E37" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F37" t="s">
+        <v>468</v>
+      </c>
+      <c r="G37" t="s">
+        <v>393</v>
+      </c>
+      <c r="H37" t="s">
+        <v>393</v>
+      </c>
+      <c r="I37" t="s">
+        <v>393</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N37" t="s">
         <v>473</v>
-      </c>
-      <c r="G37" t="s">
-        <v>393</v>
-      </c>
-      <c r="H37" t="s">
-        <v>393</v>
-      </c>
-      <c r="I37" t="s">
-        <v>393</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N37" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -8056,16 +8098,16 @@
         <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D38" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E38" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F38" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G38" t="s">
         <v>393</v>
@@ -8083,13 +8125,13 @@
         <v>393</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8100,16 +8142,16 @@
         <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D39" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E39" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F39" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G39" t="s">
         <v>393</v>
@@ -8127,13 +8169,13 @@
         <v>393</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8144,16 +8186,16 @@
         <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D40" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="E40" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="F40" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G40" t="s">
         <v>393</v>
@@ -8171,7 +8213,7 @@
         <v>393</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>393</v>
@@ -8188,16 +8230,16 @@
         <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D41" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="E41" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F41" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G41" t="s">
         <v>393</v>
@@ -8215,7 +8257,7 @@
         <v>393</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>393</v>
@@ -8232,16 +8274,16 @@
         <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D42" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E42" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="F42" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G42" t="s">
         <v>393</v>
@@ -8259,7 +8301,7 @@
         <v>393</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>393</v>
@@ -8276,16 +8318,16 @@
         <v>388</v>
       </c>
       <c r="C43" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D43" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="E43" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F43" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G43" t="s">
         <v>393</v>
@@ -8303,7 +8345,7 @@
         <v>393</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>393</v>
@@ -8320,40 +8362,40 @@
         <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D44" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="E44" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F44" t="s">
+        <v>476</v>
+      </c>
+      <c r="G44" t="s">
+        <v>393</v>
+      </c>
+      <c r="H44" t="s">
+        <v>393</v>
+      </c>
+      <c r="I44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N44" t="s">
         <v>481</v>
-      </c>
-      <c r="G44" t="s">
-        <v>393</v>
-      </c>
-      <c r="H44" t="s">
-        <v>393</v>
-      </c>
-      <c r="I44" t="s">
-        <v>393</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N44" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8361,19 +8403,19 @@
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="C45" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D45" t="s">
         <v>390</v>
       </c>
       <c r="E45" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="F45" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G45" t="s">
         <v>393</v>
@@ -8391,13 +8433,13 @@
         <v>393</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>401</v>
+        <v>484</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N45" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -8405,19 +8447,19 @@
         <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="C46" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D46" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E46" t="s">
-        <v>457</v>
+        <v>391</v>
       </c>
       <c r="F46" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
         <v>393</v>
@@ -8435,13 +8477,13 @@
         <v>393</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N46" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8449,19 +8491,19 @@
         <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="C47" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D47" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="E47" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="F47" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G47" t="s">
         <v>393</v>
@@ -8479,13 +8521,13 @@
         <v>393</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N47" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8493,19 +8535,19 @@
         <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="C48" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D48" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="E48" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="F48" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="G48" t="s">
         <v>393</v>
@@ -8523,13 +8565,13 @@
         <v>393</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N48" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -8537,7 +8579,7 @@
         <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C49" t="s">
         <v>389</v>
@@ -8549,7 +8591,7 @@
         <v>391</v>
       </c>
       <c r="F49" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="G49" t="s">
         <v>393</v>
@@ -8567,13 +8609,13 @@
         <v>393</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N49" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -8581,7 +8623,7 @@
         <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C50" t="s">
         <v>389</v>
@@ -8590,10 +8632,10 @@
         <v>390</v>
       </c>
       <c r="E50" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G50" t="s">
         <v>393</v>
@@ -8611,13 +8653,13 @@
         <v>393</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N50" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -8625,7 +8667,7 @@
         <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C51" t="s">
         <v>389</v>
@@ -8637,7 +8679,7 @@
         <v>391</v>
       </c>
       <c r="F51" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G51" t="s">
         <v>393</v>
@@ -8655,13 +8697,13 @@
         <v>393</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N51" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -8669,7 +8711,7 @@
         <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C52" t="s">
         <v>389</v>
@@ -8681,7 +8723,7 @@
         <v>391</v>
       </c>
       <c r="F52" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G52" t="s">
         <v>393</v>
@@ -8699,13 +8741,13 @@
         <v>393</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N52" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -8713,7 +8755,7 @@
         <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C53" t="s">
         <v>389</v>
@@ -8722,10 +8764,10 @@
         <v>390</v>
       </c>
       <c r="E53" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F53" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="G53" t="s">
         <v>393</v>
@@ -8743,13 +8785,13 @@
         <v>393</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N53" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -8757,19 +8799,19 @@
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C54" t="s">
         <v>389</v>
       </c>
       <c r="D54" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E54" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
       <c r="G54" t="s">
         <v>393</v>
@@ -8787,13 +8829,13 @@
         <v>393</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N54" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -8801,7 +8843,7 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C55" t="s">
         <v>389</v>
@@ -8810,10 +8852,10 @@
         <v>390</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="F55" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
         <v>393</v>
@@ -8831,13 +8873,13 @@
         <v>393</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>489</v>
+        <v>394</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N55" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -8845,19 +8887,19 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D56" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E56" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="F56" t="s">
-        <v>392</v>
+        <v>502</v>
       </c>
       <c r="G56" t="s">
         <v>393</v>
@@ -8875,13 +8917,13 @@
         <v>393</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>401</v>
+        <v>503</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N56" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -8889,19 +8931,19 @@
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C57" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D57" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E57" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="F57" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G57" t="s">
         <v>393</v>
@@ -8919,13 +8961,13 @@
         <v>393</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N57" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -8933,19 +8975,19 @@
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C58" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D58" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E58" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="F58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G58" t="s">
         <v>393</v>
@@ -8963,13 +9005,13 @@
         <v>393</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>401</v>
+        <v>506</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N58" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -8977,19 +9019,19 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D59" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E59" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F59" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G59" t="s">
         <v>393</v>
@@ -9007,13 +9049,13 @@
         <v>393</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>396</v>
+        <v>506</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N59" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -9021,19 +9063,19 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C60" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D60" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E60" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F60" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G60" t="s">
         <v>393</v>
@@ -9051,7 +9093,7 @@
         <v>393</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>393</v>
@@ -9065,19 +9107,19 @@
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C61" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D61" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E61" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F61" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G61" t="s">
         <v>393</v>
@@ -9095,7 +9137,7 @@
         <v>393</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>393</v>
@@ -9109,19 +9151,19 @@
         <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D62" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E62" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F62" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G62" t="s">
         <v>393</v>
@@ -9139,13 +9181,13 @@
         <v>393</v>
       </c>
       <c r="L62" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N62" t="s">
         <v>511</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N62" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -9153,19 +9195,19 @@
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C63" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D63" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E63" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F63" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G63" t="s">
         <v>393</v>
@@ -9183,13 +9225,13 @@
         <v>393</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N63" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -9197,19 +9239,19 @@
         <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C64" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D64" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E64" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F64" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G64" t="s">
         <v>393</v>
@@ -9227,7 +9269,7 @@
         <v>393</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>393</v>
@@ -9241,19 +9283,19 @@
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C65" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D65" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E65" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F65" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G65" t="s">
         <v>393</v>
@@ -9271,13 +9313,13 @@
         <v>393</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N65" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -9285,19 +9327,19 @@
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C66" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D66" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E66" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="F66" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G66" t="s">
         <v>393</v>
@@ -9315,13 +9357,13 @@
         <v>393</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N66" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -9329,19 +9371,19 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C67" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D67" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E67" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G67" t="s">
         <v>393</v>
@@ -9359,13 +9401,13 @@
         <v>393</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N67" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -9373,19 +9415,19 @@
         <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C68" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D68" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E68" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="F68" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G68" t="s">
         <v>393</v>
@@ -9403,13 +9445,13 @@
         <v>393</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N68" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -9417,19 +9459,19 @@
         <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C69" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D69" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E69" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F69" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
         <v>393</v>
@@ -9447,13 +9489,13 @@
         <v>393</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N69" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -9461,19 +9503,19 @@
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C70" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D70" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="E70" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="F70" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G70" t="s">
         <v>393</v>
@@ -9491,13 +9533,13 @@
         <v>393</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N70" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -9505,19 +9547,19 @@
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C71" t="s">
         <v>389</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="E71" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="F71" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G71" t="s">
         <v>393</v>
@@ -9535,13 +9577,13 @@
         <v>393</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N71" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -9549,19 +9591,19 @@
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C72" t="s">
         <v>389</v>
       </c>
       <c r="D72" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E72" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="F72" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="G72" t="s">
         <v>393</v>
@@ -9579,13 +9621,13 @@
         <v>393</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N72" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -9593,19 +9635,19 @@
         <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C73" t="s">
         <v>389</v>
       </c>
       <c r="D73" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E73" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="F73" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G73" t="s">
         <v>393</v>
@@ -9623,13 +9665,13 @@
         <v>393</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N73" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -9637,10 +9679,10 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C74" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D74" t="s">
         <v>390</v>
@@ -9649,7 +9691,7 @@
         <v>391</v>
       </c>
       <c r="F74" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G74" t="s">
         <v>393</v>
@@ -9667,13 +9709,13 @@
         <v>393</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N74" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -9681,19 +9723,19 @@
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C75" t="s">
         <v>389</v>
       </c>
       <c r="D75" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E75" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="F75" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G75" t="s">
         <v>393</v>
@@ -9711,13 +9753,13 @@
         <v>393</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N75" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -9725,19 +9767,19 @@
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C76" t="s">
         <v>389</v>
       </c>
       <c r="D76" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E76" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F76" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G76" t="s">
         <v>393</v>
@@ -9755,13 +9797,13 @@
         <v>393</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N76" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -9769,19 +9811,19 @@
         <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C77" t="s">
         <v>389</v>
       </c>
       <c r="D77" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F77" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G77" t="s">
         <v>393</v>
@@ -9799,13 +9841,13 @@
         <v>393</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N77" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -9813,19 +9855,19 @@
         <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C78" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D78" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E78" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="F78" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="G78" t="s">
         <v>393</v>
@@ -9843,13 +9885,13 @@
         <v>393</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N78" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -9857,19 +9899,19 @@
         <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C79" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D79" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E79" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F79" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G79" t="s">
         <v>393</v>
@@ -9887,13 +9929,13 @@
         <v>393</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N79" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -9901,19 +9943,19 @@
         <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C80" t="s">
         <v>389</v>
       </c>
       <c r="D80" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="E80" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F80" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G80" t="s">
         <v>393</v>
@@ -9931,13 +9973,13 @@
         <v>393</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N80" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -9945,19 +9987,19 @@
         <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C81" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D81" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="E81" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F81" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G81" t="s">
         <v>393</v>
@@ -9975,13 +10017,13 @@
         <v>393</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N81" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -9989,19 +10031,19 @@
         <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C82" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D82" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E82" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F82" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="G82" t="s">
         <v>393</v>
@@ -10019,13 +10061,13 @@
         <v>393</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N82" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -10033,19 +10075,19 @@
         <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C83" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="D83" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E83" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F83" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G83" t="s">
         <v>393</v>
@@ -10063,13 +10105,13 @@
         <v>393</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N83" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -10077,19 +10119,19 @@
         <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C84" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D84" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="E84" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="F84" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G84" t="s">
         <v>393</v>
@@ -10107,13 +10149,13 @@
         <v>393</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>531</v>
+        <v>394</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N84" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -10121,16 +10163,16 @@
         <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D85" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E85" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F85" t="s">
         <v>551</v>
@@ -10151,13 +10193,13 @@
         <v>393</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>531</v>
+        <v>398</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N85" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -10165,19 +10207,19 @@
         <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C86" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D86" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="E86" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="F86" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="G86" t="s">
         <v>393</v>
@@ -10195,13 +10237,13 @@
         <v>393</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>531</v>
+        <v>430</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N86" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -10209,19 +10251,19 @@
         <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C87" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D87" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E87" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F87" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G87" t="s">
         <v>393</v>
@@ -10239,7 +10281,7 @@
         <v>393</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>531</v>
+        <v>434</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>393</v>
@@ -10253,10 +10295,10 @@
         <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="C88" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D88" t="s">
         <v>390</v>
@@ -10265,7 +10307,7 @@
         <v>391</v>
       </c>
       <c r="F88" t="s">
-        <v>556</v>
+        <v>401</v>
       </c>
       <c r="G88" t="s">
         <v>393</v>
@@ -10283,7 +10325,7 @@
         <v>393</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>393</v>
@@ -10297,19 +10339,19 @@
         <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="C89" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D89" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E89" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="F89" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G89" t="s">
         <v>393</v>
@@ -10327,13 +10369,13 @@
         <v>393</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N89" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -10341,19 +10383,19 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="C90" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E90" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="F90" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G90" t="s">
         <v>393</v>
@@ -10371,13 +10413,13 @@
         <v>393</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>435</v>
+        <v>561</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N90" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -10385,19 +10427,19 @@
         <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="C91" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D91" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="E91" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F91" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G91" t="s">
         <v>393</v>
@@ -10415,13 +10457,13 @@
         <v>393</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>439</v>
+        <v>563</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N91" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -10429,19 +10471,19 @@
         <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D92" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E92" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="F92" t="s">
-        <v>406</v>
+        <v>560</v>
       </c>
       <c r="G92" t="s">
         <v>393</v>
@@ -10459,13 +10501,13 @@
         <v>393</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N92" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -10473,19 +10515,19 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C93" t="s">
         <v>389</v>
       </c>
       <c r="D93" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E93" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="F93" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G93" t="s">
         <v>393</v>
@@ -10503,13 +10545,13 @@
         <v>393</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N93" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -10517,19 +10559,19 @@
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E94" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F94" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G94" t="s">
         <v>393</v>
@@ -10547,13 +10589,13 @@
         <v>393</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>566</v>
+        <v>394</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N94" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -10561,19 +10603,19 @@
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C95" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D95" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E95" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="F95" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G95" t="s">
         <v>393</v>
@@ -10591,7 +10633,7 @@
         <v>393</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>568</v>
+        <v>398</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>393</v>
@@ -10605,19 +10647,19 @@
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C96" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D96" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E96" t="s">
         <v>457</v>
       </c>
       <c r="F96" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G96" t="s">
         <v>393</v>
@@ -10635,7 +10677,7 @@
         <v>393</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>393</v>
@@ -10649,19 +10691,19 @@
         <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D97" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="E97" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="F97" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G97" t="s">
         <v>393</v>
@@ -10679,7 +10721,7 @@
         <v>393</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>393</v>
@@ -10693,16 +10735,16 @@
         <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C98" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D98" t="s">
         <v>390</v>
       </c>
       <c r="E98" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="F98" t="s">
         <v>572</v>
@@ -10723,13 +10765,13 @@
         <v>393</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>396</v>
+        <v>573</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N98" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -10737,16 +10779,16 @@
         <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C99" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D99" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E99" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F99" t="s">
         <v>572</v>
@@ -10767,13 +10809,13 @@
         <v>393</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N99" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -10781,16 +10823,16 @@
         <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C100" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D100" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E100" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F100" t="s">
         <v>572</v>
@@ -10811,13 +10853,13 @@
         <v>393</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>435</v>
+        <v>577</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N100" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -10825,16 +10867,16 @@
         <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C101" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D101" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="E101" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="F101" t="s">
         <v>572</v>
@@ -10855,33 +10897,33 @@
         <v>393</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>439</v>
+        <v>579</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N101" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C102" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="D102" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="E102" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="F102" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G102" t="s">
         <v>393</v>
@@ -10899,33 +10941,33 @@
         <v>393</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N102" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B103" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D103" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E103" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F103" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G103" t="s">
         <v>393</v>
@@ -10943,13 +10985,13 @@
         <v>393</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N103" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -10957,19 +10999,19 @@
         <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C104" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D104" t="s">
         <v>390</v>
       </c>
       <c r="E104" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F104" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="G104" t="s">
         <v>393</v>
@@ -10987,13 +11029,13 @@
         <v>393</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N104" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -11001,19 +11043,19 @@
         <v>158</v>
       </c>
       <c r="B105" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C105" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D105" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E105" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="F105" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G105" t="s">
         <v>393</v>
@@ -11031,13 +11073,13 @@
         <v>393</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N105" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -11045,19 +11087,19 @@
         <v>158</v>
       </c>
       <c r="B106" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C106" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D106" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E106" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F106" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G106" t="s">
         <v>393</v>
@@ -11075,13 +11117,13 @@
         <v>393</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N106" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -11089,19 +11131,19 @@
         <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C107" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D107" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="E107" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="F107" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G107" t="s">
         <v>393</v>
@@ -11119,33 +11161,33 @@
         <v>393</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N107" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B108" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C108" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D108" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="E108" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F108" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G108" t="s">
         <v>393</v>
@@ -11163,13 +11205,13 @@
         <v>393</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N108" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -11177,19 +11219,19 @@
         <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C109" t="s">
         <v>389</v>
       </c>
       <c r="D109" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E109" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F109" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G109" t="s">
         <v>393</v>
@@ -11207,13 +11249,13 @@
         <v>393</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N109" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -11221,19 +11263,19 @@
         <v>315</v>
       </c>
       <c r="B110" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C110" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E110" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F110" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G110" t="s">
         <v>393</v>
@@ -11251,13 +11293,13 @@
         <v>393</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N110" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -11265,19 +11307,19 @@
         <v>315</v>
       </c>
       <c r="B111" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C111" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D111" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="E111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F111" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G111" t="s">
         <v>393</v>
@@ -11295,13 +11337,13 @@
         <v>393</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>497</v>
+        <v>608</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N111" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -11309,19 +11351,19 @@
         <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C112" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D112" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F112" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G112" t="s">
         <v>393</v>
@@ -11339,13 +11381,13 @@
         <v>393</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N112" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -11353,19 +11395,19 @@
         <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C113" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E113" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="F113" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G113" t="s">
         <v>393</v>
@@ -11383,13 +11425,13 @@
         <v>393</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N113" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -11397,19 +11439,19 @@
         <v>315</v>
       </c>
       <c r="B114" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C114" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D114" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E114" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="F114" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G114" t="s">
         <v>393</v>
@@ -11427,13 +11469,13 @@
         <v>393</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N114" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -11441,19 +11483,19 @@
         <v>315</v>
       </c>
       <c r="B115" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D115" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="E115" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="F115" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G115" t="s">
         <v>393</v>
@@ -11471,13 +11513,13 @@
         <v>393</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N115" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -11485,19 +11527,19 @@
         <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C116" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D116" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="E116" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="F116" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G116" t="s">
         <v>393</v>
@@ -11515,13 +11557,13 @@
         <v>393</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N116" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -11529,19 +11571,19 @@
         <v>315</v>
       </c>
       <c r="B117" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C117" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="D117" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E117" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="F117" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G117" t="s">
         <v>393</v>
@@ -11559,13 +11601,13 @@
         <v>393</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N117" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -11573,19 +11615,19 @@
         <v>315</v>
       </c>
       <c r="B118" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C118" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D118" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E118" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F118" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G118" t="s">
         <v>393</v>
@@ -11603,13 +11645,13 @@
         <v>393</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N118" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -11617,19 +11659,19 @@
         <v>315</v>
       </c>
       <c r="B119" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C119" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D119" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="E119" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="F119" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G119" t="s">
         <v>393</v>
@@ -11647,13 +11689,13 @@
         <v>393</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N119" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -11661,19 +11703,19 @@
         <v>315</v>
       </c>
       <c r="B120" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C120" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D120" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="E120" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="F120" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
       <c r="G120" t="s">
         <v>393</v>
@@ -11691,13 +11733,13 @@
         <v>393</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N120" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -11705,10 +11747,10 @@
         <v>315</v>
       </c>
       <c r="B121" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C121" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D121" t="s">
         <v>390</v>
@@ -11717,7 +11759,7 @@
         <v>391</v>
       </c>
       <c r="F121" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G121" t="s">
         <v>393</v>
@@ -11735,33 +11777,33 @@
         <v>393</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N121" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B122" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="C122" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D122" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E122" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="F122" t="s">
-        <v>619</v>
+        <v>551</v>
       </c>
       <c r="G122" t="s">
         <v>393</v>
@@ -11779,33 +11821,33 @@
         <v>393</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>620</v>
+        <v>406</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N122" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B123" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="C123" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D123" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E123" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="F123" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G123" t="s">
         <v>393</v>
@@ -11823,33 +11865,33 @@
         <v>393</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N123" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B124" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="C124" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D124" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E124" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F124" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G124" t="s">
         <v>393</v>
@@ -11867,34 +11909,34 @@
         <v>393</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N124" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B125" t="s">
+        <v>600</v>
+      </c>
+      <c r="C125" t="s">
+        <v>400</v>
+      </c>
+      <c r="D125" t="s">
+        <v>456</v>
+      </c>
+      <c r="E125" t="s">
+        <v>419</v>
+      </c>
+      <c r="F125" t="s">
         <v>624</v>
       </c>
-      <c r="C125" t="s">
-        <v>437</v>
-      </c>
-      <c r="D125" t="s">
-        <v>409</v>
-      </c>
-      <c r="E125" t="s">
-        <v>448</v>
-      </c>
-      <c r="F125" t="s">
-        <v>625</v>
-      </c>
       <c r="G125" t="s">
         <v>393</v>
       </c>
@@ -11911,33 +11953,33 @@
         <v>393</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N125" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="B126" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="C126" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D126" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E126" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="F126" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="G126" t="s">
         <v>393</v>
@@ -11955,7 +11997,7 @@
         <v>393</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>629</v>
+        <v>394</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>393</v>
@@ -11969,19 +12011,19 @@
         <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C127" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="D127" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="E127" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="F127" t="s">
-        <v>530</v>
+        <v>632</v>
       </c>
       <c r="G127" t="s">
         <v>393</v>
@@ -11999,13 +12041,13 @@
         <v>393</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N127" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -12013,43 +12055,43 @@
         <v>158</v>
       </c>
       <c r="B128" t="s">
+        <v>631</v>
+      </c>
+      <c r="C128" t="s">
+        <v>400</v>
+      </c>
+      <c r="D128" t="s">
+        <v>404</v>
+      </c>
+      <c r="E128" t="s">
+        <v>443</v>
+      </c>
+      <c r="F128" t="s">
         <v>632</v>
       </c>
-      <c r="C128" t="s">
-        <v>389</v>
-      </c>
-      <c r="D128" t="s">
-        <v>409</v>
-      </c>
-      <c r="E128" t="s">
-        <v>418</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
+        <v>393</v>
+      </c>
+      <c r="H128" t="s">
+        <v>393</v>
+      </c>
+      <c r="I128" t="s">
+        <v>393</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L128" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="G128" t="s">
-        <v>393</v>
-      </c>
-      <c r="H128" t="s">
-        <v>393</v>
-      </c>
-      <c r="I128" t="s">
-        <v>393</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="M128" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N128" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -12057,19 +12099,19 @@
         <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C129" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D129" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E129" t="s">
         <v>443</v>
       </c>
       <c r="F129" t="s">
-        <v>554</v>
+        <v>632</v>
       </c>
       <c r="G129" t="s">
         <v>393</v>
@@ -12087,13 +12129,13 @@
         <v>393</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>435</v>
+        <v>633</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N129" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -12101,19 +12143,19 @@
         <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C130" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="D130" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E130" t="s">
         <v>443</v>
       </c>
       <c r="F130" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G130" t="s">
         <v>393</v>
@@ -12131,13 +12173,13 @@
         <v>393</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>439</v>
+        <v>639</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N130" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -12145,19 +12187,19 @@
         <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="C131" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D131" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E131" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="F131" t="s">
-        <v>638</v>
+        <v>525</v>
       </c>
       <c r="G131" t="s">
         <v>393</v>
@@ -12175,13 +12217,13 @@
         <v>393</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>441</v>
+        <v>642</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N131" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -12189,19 +12231,19 @@
         <v>158</v>
       </c>
       <c r="B132" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="C132" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D132" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="E132" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="F132" t="s">
-        <v>633</v>
+        <v>525</v>
       </c>
       <c r="G132" t="s">
         <v>393</v>
@@ -12219,13 +12261,13 @@
         <v>393</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>401</v>
+        <v>589</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N132" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -12233,19 +12275,19 @@
         <v>158</v>
       </c>
       <c r="B133" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D133" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E133" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="F133" t="s">
-        <v>554</v>
+        <v>646</v>
       </c>
       <c r="G133" t="s">
         <v>393</v>
@@ -12263,13 +12305,13 @@
         <v>393</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N133" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -12277,19 +12319,19 @@
         <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="C134" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D134" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E134" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="F134" t="s">
-        <v>642</v>
+        <v>549</v>
       </c>
       <c r="G134" t="s">
         <v>393</v>
@@ -12307,13 +12349,13 @@
         <v>393</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>643</v>
+        <v>430</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N134" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -12321,19 +12363,19 @@
         <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="C135" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D135" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E135" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F135" t="s">
-        <v>533</v>
+        <v>649</v>
       </c>
       <c r="G135" t="s">
         <v>393</v>
@@ -12351,13 +12393,13 @@
         <v>393</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N135" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -12365,19 +12407,19 @@
         <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="C136" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D136" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="E136" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F136" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G136" t="s">
         <v>393</v>
@@ -12395,13 +12437,13 @@
         <v>393</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>531</v>
+        <v>436</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N136" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -12409,19 +12451,19 @@
         <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C137" t="s">
         <v>389</v>
       </c>
       <c r="D137" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E137" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F137" t="s">
-        <v>540</v>
+        <v>646</v>
       </c>
       <c r="G137" t="s">
         <v>393</v>
@@ -12439,13 +12481,13 @@
         <v>393</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N137" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -12453,19 +12495,19 @@
         <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D138" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E138" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="F138" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G138" t="s">
         <v>393</v>
@@ -12483,13 +12525,13 @@
         <v>393</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N138" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -12497,19 +12539,19 @@
         <v>158</v>
       </c>
       <c r="B139" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C139" t="s">
         <v>389</v>
       </c>
       <c r="D139" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E139" t="s">
         <v>457</v>
       </c>
       <c r="F139" t="s">
-        <v>535</v>
+        <v>655</v>
       </c>
       <c r="G139" t="s">
         <v>393</v>
@@ -12527,13 +12569,13 @@
         <v>393</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>401</v>
+        <v>656</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N139" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -12541,19 +12583,19 @@
         <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C140" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D140" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E140" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="F140" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="G140" t="s">
         <v>393</v>
@@ -12571,13 +12613,13 @@
         <v>393</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>531</v>
+        <v>658</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N140" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -12585,19 +12627,19 @@
         <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C141" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D141" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E141" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="F141" t="s">
-        <v>549</v>
+        <v>660</v>
       </c>
       <c r="G141" t="s">
         <v>393</v>
@@ -12615,13 +12657,13 @@
         <v>393</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N141" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -12629,7 +12671,7 @@
         <v>158</v>
       </c>
       <c r="B142" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="C142" t="s">
         <v>389</v>
@@ -12638,10 +12680,10 @@
         <v>390</v>
       </c>
       <c r="E142" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="F142" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G142" t="s">
         <v>393</v>
@@ -12659,13 +12701,13 @@
         <v>393</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N142" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -12673,19 +12715,19 @@
         <v>158</v>
       </c>
       <c r="B143" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="C143" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D143" t="s">
         <v>390</v>
       </c>
       <c r="E143" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F143" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="G143" t="s">
         <v>393</v>
@@ -12703,13 +12745,13 @@
         <v>393</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>531</v>
+        <v>430</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N143" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -12717,19 +12759,19 @@
         <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="C144" t="s">
         <v>389</v>
       </c>
       <c r="D144" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E144" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="F144" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="G144" t="s">
         <v>393</v>
@@ -12747,13 +12789,13 @@
         <v>393</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>531</v>
+        <v>398</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N144" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -12761,19 +12803,19 @@
         <v>158</v>
       </c>
       <c r="B145" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="C145" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D145" t="s">
         <v>390</v>
       </c>
       <c r="E145" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="F145" t="s">
-        <v>415</v>
+        <v>546</v>
       </c>
       <c r="G145" t="s">
         <v>393</v>
@@ -12791,21 +12833,21 @@
         <v>393</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N145" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B146" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="C146" t="s">
         <v>389</v>
@@ -12814,10 +12856,10 @@
         <v>390</v>
       </c>
       <c r="E146" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="F146" t="s">
-        <v>658</v>
+        <v>544</v>
       </c>
       <c r="G146" t="s">
         <v>393</v>
@@ -12835,33 +12877,33 @@
         <v>393</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>411</v>
+        <v>526</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N146" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="C147" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D147" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E147" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="F147" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="G147" t="s">
         <v>393</v>
@@ -12879,33 +12921,33 @@
         <v>393</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>660</v>
+        <v>526</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N147" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="C148" t="s">
         <v>389</v>
       </c>
       <c r="D148" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="E148" t="s">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="F148" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
       <c r="G148" t="s">
         <v>393</v>
@@ -12923,33 +12965,33 @@
         <v>393</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N148" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C149" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D149" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="E149" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="F149" t="s">
-        <v>664</v>
+        <v>546</v>
       </c>
       <c r="G149" t="s">
         <v>393</v>
@@ -12967,33 +13009,33 @@
         <v>393</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>665</v>
+        <v>526</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N149" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C150" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="D150" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="E150" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F150" t="s">
-        <v>667</v>
+        <v>410</v>
       </c>
       <c r="G150" t="s">
         <v>393</v>
@@ -13011,21 +13053,21 @@
         <v>393</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N150" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B151" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="C151" t="s">
         <v>389</v>
@@ -13037,7 +13079,7 @@
         <v>391</v>
       </c>
       <c r="F151" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="G151" t="s">
         <v>393</v>
@@ -13055,33 +13097,33 @@
         <v>393</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>671</v>
+        <v>406</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>393</v>
       </c>
       <c r="N151" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B152" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="C152" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D152" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E152" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="F152" t="s">
-        <v>673</v>
+        <v>607</v>
       </c>
       <c r="G152" t="s">
         <v>393</v>
@@ -13110,66 +13152,66 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="B153" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="C153" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D153" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E153" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F153" t="s">
+        <v>604</v>
+      </c>
+      <c r="G153" t="s">
+        <v>393</v>
+      </c>
+      <c r="H153" t="s">
+        <v>393</v>
+      </c>
+      <c r="I153" t="s">
+        <v>393</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N153" t="s">
         <v>676</v>
-      </c>
-      <c r="G153" t="s">
-        <v>393</v>
-      </c>
-      <c r="H153" t="s">
-        <v>393</v>
-      </c>
-      <c r="I153" t="s">
-        <v>393</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N153" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B154" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="C154" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="D154" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="E154" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="F154" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G154" t="s">
         <v>393</v>
@@ -13198,54 +13240,274 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>359</v>
+      </c>
+      <c r="B155" t="s">
+        <v>677</v>
+      </c>
+      <c r="C155" t="s">
+        <v>428</v>
+      </c>
+      <c r="D155" t="s">
+        <v>418</v>
+      </c>
+      <c r="E155" t="s">
+        <v>419</v>
+      </c>
+      <c r="F155" t="s">
+        <v>681</v>
+      </c>
+      <c r="G155" t="s">
+        <v>393</v>
+      </c>
+      <c r="H155" t="s">
+        <v>393</v>
+      </c>
+      <c r="I155" t="s">
+        <v>393</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N155" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>372</v>
       </c>
-      <c r="B155" t="s">
-        <v>670</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
+        <v>684</v>
+      </c>
+      <c r="C156" t="s">
         <v>389</v>
       </c>
-      <c r="D155" t="s">
-        <v>461</v>
-      </c>
-      <c r="E155" t="s">
-        <v>453</v>
-      </c>
-      <c r="F155" t="s">
-        <v>676</v>
-      </c>
-      <c r="G155" t="s">
-        <v>393</v>
-      </c>
-      <c r="H155" t="s">
-        <v>393</v>
-      </c>
-      <c r="I155" t="s">
-        <v>393</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M155" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N155" t="s">
-        <v>682</v>
+      <c r="D156" t="s">
+        <v>390</v>
+      </c>
+      <c r="E156" t="s">
+        <v>391</v>
+      </c>
+      <c r="F156" t="s">
+        <v>607</v>
+      </c>
+      <c r="G156" t="s">
+        <v>393</v>
+      </c>
+      <c r="H156" t="s">
+        <v>393</v>
+      </c>
+      <c r="I156" t="s">
+        <v>393</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N156" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>372</v>
+      </c>
+      <c r="B157" t="s">
+        <v>684</v>
+      </c>
+      <c r="C157" t="s">
+        <v>400</v>
+      </c>
+      <c r="D157" t="s">
+        <v>404</v>
+      </c>
+      <c r="E157" t="s">
+        <v>413</v>
+      </c>
+      <c r="F157" t="s">
+        <v>687</v>
+      </c>
+      <c r="G157" t="s">
+        <v>393</v>
+      </c>
+      <c r="H157" t="s">
+        <v>393</v>
+      </c>
+      <c r="I157" t="s">
+        <v>393</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N157" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>372</v>
+      </c>
+      <c r="B158" t="s">
+        <v>684</v>
+      </c>
+      <c r="C158" t="s">
+        <v>428</v>
+      </c>
+      <c r="D158" t="s">
+        <v>456</v>
+      </c>
+      <c r="E158" t="s">
+        <v>448</v>
+      </c>
+      <c r="F158" t="s">
+        <v>690</v>
+      </c>
+      <c r="G158" t="s">
+        <v>393</v>
+      </c>
+      <c r="H158" t="s">
+        <v>393</v>
+      </c>
+      <c r="I158" t="s">
+        <v>393</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N158" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>372</v>
+      </c>
+      <c r="B159" t="s">
+        <v>684</v>
+      </c>
+      <c r="C159" t="s">
+        <v>389</v>
+      </c>
+      <c r="D159" t="s">
+        <v>390</v>
+      </c>
+      <c r="E159" t="s">
+        <v>391</v>
+      </c>
+      <c r="F159" t="s">
+        <v>690</v>
+      </c>
+      <c r="G159" t="s">
+        <v>393</v>
+      </c>
+      <c r="H159" t="s">
+        <v>393</v>
+      </c>
+      <c r="I159" t="s">
+        <v>393</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N159" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>372</v>
+      </c>
+      <c r="B160" t="s">
+        <v>684</v>
+      </c>
+      <c r="C160" t="s">
+        <v>389</v>
+      </c>
+      <c r="D160" t="s">
+        <v>456</v>
+      </c>
+      <c r="E160" t="s">
+        <v>448</v>
+      </c>
+      <c r="F160" t="s">
+        <v>690</v>
+      </c>
+      <c r="G160" t="s">
+        <v>393</v>
+      </c>
+      <c r="H160" t="s">
+        <v>393</v>
+      </c>
+      <c r="I160" t="s">
+        <v>393</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N160" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="158">
-    <dataValidation type="list" sqref="H10:H155">
+  <dataValidations count="163">
+    <dataValidation type="list" sqref="H10:H160">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H155">
+    <dataValidation type="list" sqref="H2:H160">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I10">
@@ -13434,9 +13696,24 @@
     <dataValidation type="list" sqref="I155">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H155,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I156">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H156,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I157">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H157,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I158">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H158,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I159">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H159,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I16">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H16,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I160">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H160,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I17">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H17,"-","_"))</formula1>
     </dataValidation>
@@ -13710,11 +13987,11 @@
     <dataValidation type="list" sqref="I99">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H99,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J155">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J160">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J155">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J160">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="707">
   <si>
     <t>VAT</t>
   </si>
@@ -2055,6 +2055,45 @@
   </si>
   <si>
     <t>391</t>
+  </si>
+  <si>
+    <t>EST ARICA ZOR-21 - Región de Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>21/09/2023</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>20/09/2023</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>19/09/2023</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>31/08/2023</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>623</t>
   </si>
   <si>
     <t>VALPO-ETL - Región de Valparaíso</t>
@@ -6441,7 +6480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:N160"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
@@ -13058,7 +13097,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B151" t="s">
         <v>681</v>
@@ -13073,7 +13112,7 @@
         <v>392</v>
       </c>
       <c r="F151" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="G151" t="s">
         <v>394</v>
@@ -13091,7 +13130,7 @@
         <v>394</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>394</v>
@@ -13102,19 +13141,19 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B152" t="s">
         <v>681</v>
       </c>
       <c r="C152" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D152" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E152" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F152" t="s">
         <v>684</v>
@@ -13146,19 +13185,19 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B153" t="s">
         <v>681</v>
       </c>
       <c r="C153" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D153" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="E153" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="F153" t="s">
         <v>687</v>
@@ -13190,7 +13229,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B154" t="s">
         <v>681</v>
@@ -13199,13 +13238,13 @@
         <v>397</v>
       </c>
       <c r="D154" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="E154" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="F154" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="G154" t="s">
         <v>394</v>
@@ -13223,7 +13262,7 @@
         <v>394</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>690</v>
+        <v>395</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>394</v>
@@ -13234,7 +13273,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="B155" t="s">
         <v>681</v>
@@ -13243,13 +13282,13 @@
         <v>397</v>
       </c>
       <c r="D155" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="E155" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="F155" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="G155" t="s">
         <v>394</v>
@@ -13276,12 +13315,232 @@
         <v>693</v>
       </c>
     </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>373</v>
+      </c>
+      <c r="B156" t="s">
+        <v>694</v>
+      </c>
+      <c r="C156" t="s">
+        <v>397</v>
+      </c>
+      <c r="D156" t="s">
+        <v>415</v>
+      </c>
+      <c r="E156" t="s">
+        <v>392</v>
+      </c>
+      <c r="F156" t="s">
+        <v>610</v>
+      </c>
+      <c r="G156" t="s">
+        <v>394</v>
+      </c>
+      <c r="H156" t="s">
+        <v>394</v>
+      </c>
+      <c r="I156" t="s">
+        <v>394</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N156" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>373</v>
+      </c>
+      <c r="B157" t="s">
+        <v>694</v>
+      </c>
+      <c r="C157" t="s">
+        <v>390</v>
+      </c>
+      <c r="D157" t="s">
+        <v>391</v>
+      </c>
+      <c r="E157" t="s">
+        <v>405</v>
+      </c>
+      <c r="F157" t="s">
+        <v>697</v>
+      </c>
+      <c r="G157" t="s">
+        <v>394</v>
+      </c>
+      <c r="H157" t="s">
+        <v>394</v>
+      </c>
+      <c r="I157" t="s">
+        <v>394</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N157" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>373</v>
+      </c>
+      <c r="B158" t="s">
+        <v>694</v>
+      </c>
+      <c r="C158" t="s">
+        <v>422</v>
+      </c>
+      <c r="D158" t="s">
+        <v>453</v>
+      </c>
+      <c r="E158" t="s">
+        <v>445</v>
+      </c>
+      <c r="F158" t="s">
+        <v>700</v>
+      </c>
+      <c r="G158" t="s">
+        <v>394</v>
+      </c>
+      <c r="H158" t="s">
+        <v>394</v>
+      </c>
+      <c r="I158" t="s">
+        <v>394</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N158" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>373</v>
+      </c>
+      <c r="B159" t="s">
+        <v>694</v>
+      </c>
+      <c r="C159" t="s">
+        <v>397</v>
+      </c>
+      <c r="D159" t="s">
+        <v>415</v>
+      </c>
+      <c r="E159" t="s">
+        <v>392</v>
+      </c>
+      <c r="F159" t="s">
+        <v>700</v>
+      </c>
+      <c r="G159" t="s">
+        <v>394</v>
+      </c>
+      <c r="H159" t="s">
+        <v>394</v>
+      </c>
+      <c r="I159" t="s">
+        <v>394</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N159" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>373</v>
+      </c>
+      <c r="B160" t="s">
+        <v>694</v>
+      </c>
+      <c r="C160" t="s">
+        <v>397</v>
+      </c>
+      <c r="D160" t="s">
+        <v>453</v>
+      </c>
+      <c r="E160" t="s">
+        <v>445</v>
+      </c>
+      <c r="F160" t="s">
+        <v>700</v>
+      </c>
+      <c r="G160" t="s">
+        <v>394</v>
+      </c>
+      <c r="H160" t="s">
+        <v>394</v>
+      </c>
+      <c r="I160" t="s">
+        <v>394</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N160" t="s">
+        <v>706</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="158">
-    <dataValidation type="list" sqref="H10:H155">
+  <dataValidations count="163">
+    <dataValidation type="list" sqref="H10:H160">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H155">
+    <dataValidation type="list" sqref="H2:H160">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I10">
@@ -13470,9 +13729,24 @@
     <dataValidation type="list" sqref="I155">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H155,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I156">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H156,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I157">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H157,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I158">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H158,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I159">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H159,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I16">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H16,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="I160">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H160,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="I17">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H17,"-","_"))</formula1>
     </dataValidation>
@@ -13746,11 +14020,11 @@
     <dataValidation type="list" sqref="I99">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H99,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J155">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J160">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J155">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J160">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="848">
   <si>
     <t>VAT</t>
   </si>
@@ -1652,859 +1652,814 @@
     <t>Estación Central - Metropolitana</t>
   </si>
   <si>
+    <t>Reciclaje Mecánico</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Esquineros Conos</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>Valorización Energética</t>
   </si>
   <si>
-    <t>Metal</t>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
+  </si>
+  <si>
+    <t>03/05/2023</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Papel/Cartón</t>
   </si>
   <si>
     <t>Papel</t>
   </si>
   <si>
-    <t>01/01/2022</t>
-  </si>
-  <si>
-    <t/>
+    <t>02/02/2021</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Reciclaje Mecánico</t>
-  </si>
-  <si>
-    <t>25/04/2023</t>
-  </si>
-  <si>
-    <t>93</t>
+    <t>260</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>Papel Compuesto (cemento)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>Disposición Final en RS</t>
+  </si>
+  <si>
+    <t>Caja Cartón</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>Reciclaje Interno</t>
+  </si>
+  <si>
+    <t>Papel/Cartón Otro</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>Preparación Reutilización</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF en Relleno Sanitario </t>
+  </si>
+  <si>
+    <t>Cartón RH</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>DF en Relleno Seguridad</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>Envase Aluminio</t>
+  </si>
+  <si>
+    <t>03/09/2023</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>Envase Hojalata</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>Metal Otro</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>Esquineros Metal</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>Plástico Film Embalaje</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>Plástico Sacos o Maxisacos</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>Plástico Zuncho</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>Plástico Otro</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>Caja de Madera</t>
+  </si>
+  <si>
+    <t>06/09/2023</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>Pallet de Madera</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>09/09/2023</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>Los Aromos 2432 - Quinta Región</t>
+  </si>
+  <si>
+    <t>09/02/2023</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>02/03/2023</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>07/03/2023</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>28/03/2023</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>01/02/2023</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>23/03/1950</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>23/03/1951</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>24/03/1951</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>08/05/2023</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>09/05/2023</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>10/05/2023</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>29/05/2023</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>01/06/2023</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>16/05/2023</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>23/05/2023</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>10/09/2023</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>Establecimiento - Región de Los Lagos</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>15/02/2023</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>12.32</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>123232234</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>11/09/2023</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>4.44</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>ejemplo - Región de Atacama</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>Ejemplo - Región de O’Higgins</t>
+  </si>
+  <si>
+    <t>18/01/2023</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>establecimiento 1 - Región de Tarapacá</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>16/08/2023</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>28/08/2023</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>15/09/2023</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>Nombre - Región de Coquimbo</t>
+  </si>
+  <si>
+    <t>12/12/2000</t>
+  </si>
+  <si>
+    <t>3433</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Juan - Región de Atacama</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>01/11/1900</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Juan - Región de Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>juan - Región del Maule</t>
+  </si>
+  <si>
+    <t>22/05/2023</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Estación Central - Región Metropolitana</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
   </si>
   <si>
     <t>01/01/2023</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Papel Compuesto (cemento)</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Esquineros Conos</t>
-  </si>
-  <si>
-    <t>01/05/2023</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Madera</t>
-  </si>
-  <si>
-    <t>Plástico EPS (Poliestireno Expandido)</t>
-  </si>
-  <si>
-    <t>03/05/2023</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Papel/Cartón</t>
-  </si>
-  <si>
-    <t>02/02/2021</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Disposición Final en RS</t>
-  </si>
-  <si>
-    <t>Caja Cartón</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>Reciclaje Interno</t>
-  </si>
-  <si>
-    <t>Papel/Cartón Otro</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>Preparación Reutilización</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF en Relleno Sanitario </t>
-  </si>
-  <si>
-    <t>Cartón RH</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>DF en Relleno Seguridad</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>Envase Aluminio</t>
-  </si>
-  <si>
-    <t>03/09/2023</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>Malla o Reja (IBC)</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>Envase Hojalata</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>Metal Otro</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>Esquineros Metal</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
-    <t>Plástico Film Embalaje</t>
-  </si>
-  <si>
-    <t>04/09/2023</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>Plástico Sacos o Maxisacos</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>Plástico Zuncho</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>Plástico Otro</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>Caja de Madera</t>
-  </si>
-  <si>
-    <t>06/09/2023</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>Pallet de Madera</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>09/09/2023</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>Los Aromos 2432 - Quinta Región</t>
-  </si>
-  <si>
-    <t>23/02/2023</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24/02/2023</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>17/02/2023</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>09/02/2023</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>02/03/2023</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>07/03/2023</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>28/03/2023</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>01/02/2023</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>23/03/1950</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>12356</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>23/03/1951</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>1546</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>24/03/1951</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>08/05/2023</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>09/05/2023</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>10/05/2023</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>11/05/2023</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>29/05/2023</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>30/05/2023</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>31/05/2023</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>01/06/2023</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>15/05/2023</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>16/05/2023</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>23/05/2023</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>10/09/2023</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>Establecimiento - Región de Los Lagos</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>15/02/2023</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12/10/2012</t>
-  </si>
-  <si>
-    <t>12.32</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>123232234</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>11/09/2023</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>13/09/2023</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>5.55</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>ejemplo - Región de Atacama</t>
-  </si>
-  <si>
-    <t>12/05/2021</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>Ejemplo - Región de O’Higgins</t>
-  </si>
-  <si>
-    <t>18/01/2023</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>12/09/2023</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>establecimiento 1 - Región de Tarapacá</t>
-  </si>
-  <si>
-    <t>02/08/2023</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>16/08/2023</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>09/08/2023</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>03/08/2023</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>05/09/2023</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>28/08/2023</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>15/09/2023</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>597</t>
-  </si>
-  <si>
-    <t>Nombre - Región de Coquimbo</t>
-  </si>
-  <si>
-    <t>12/12/2000</t>
-  </si>
-  <si>
-    <t>3433</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Juan - Región de Atacama</t>
-  </si>
-  <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
-    <t>01/11/1900</t>
-  </si>
-  <si>
-    <t>2.34</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>Juan - Región de Arica y Parinacota</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>juan - Región del Maule</t>
-  </si>
-  <si>
-    <t>22/05/2023</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>24/05/2023</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>25/05/2023</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>13/05/2023</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>19/05/2023</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>Estación Central - Región Metropolitana</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>364</t>
   </si>
   <si>
     <t>365</t>
@@ -6948,7 +6903,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N149"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
@@ -7062,13 +7017,13 @@
         <v>553</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E3" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G3" t="s">
         <v>550</v>
@@ -7086,13 +7041,13 @@
         <v>550</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N3" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7103,16 +7058,16 @@
         <v>545</v>
       </c>
       <c r="C4" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D4" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E4" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="F4" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="G4" t="s">
         <v>550</v>
@@ -7130,13 +7085,13 @@
         <v>550</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N4" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7147,16 +7102,16 @@
         <v>545</v>
       </c>
       <c r="C5" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F5" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="G5" t="s">
         <v>550</v>
@@ -7174,13 +7129,13 @@
         <v>550</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7194,13 +7149,13 @@
         <v>553</v>
       </c>
       <c r="D6" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E6" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F6" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G6" t="s">
         <v>550</v>
@@ -7218,13 +7173,13 @@
         <v>550</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N6" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7235,16 +7190,16 @@
         <v>545</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G7" t="s">
         <v>550</v>
@@ -7262,13 +7217,13 @@
         <v>550</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7279,16 +7234,16 @@
         <v>545</v>
       </c>
       <c r="C8" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E8" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G8" t="s">
         <v>550</v>
@@ -7306,13 +7261,13 @@
         <v>550</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N8" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7323,16 +7278,16 @@
         <v>545</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="D9" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E9" t="s">
         <v>548</v>
       </c>
       <c r="F9" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G9" t="s">
         <v>550</v>
@@ -7350,13 +7305,13 @@
         <v>550</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N9" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -7367,16 +7322,16 @@
         <v>545</v>
       </c>
       <c r="C10" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D10" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E10" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F10" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G10" t="s">
         <v>550</v>
@@ -7394,13 +7349,13 @@
         <v>550</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N10" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -7411,16 +7366,16 @@
         <v>545</v>
       </c>
       <c r="C11" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D11" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F11" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G11" t="s">
         <v>550</v>
@@ -7438,13 +7393,13 @@
         <v>550</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N11" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7455,16 +7410,16 @@
         <v>545</v>
       </c>
       <c r="C12" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D12" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E12" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="F12" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="G12" t="s">
         <v>550</v>
@@ -7482,13 +7437,13 @@
         <v>550</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N12" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7499,16 +7454,16 @@
         <v>545</v>
       </c>
       <c r="C13" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="D13" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E13" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="F13" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="G13" t="s">
         <v>550</v>
@@ -7526,13 +7481,13 @@
         <v>550</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N13" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7543,16 +7498,16 @@
         <v>545</v>
       </c>
       <c r="C14" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="D14" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E14" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="F14" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="G14" t="s">
         <v>550</v>
@@ -7570,13 +7525,13 @@
         <v>550</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N14" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7587,17 +7542,17 @@
         <v>545</v>
       </c>
       <c r="C15" t="s">
+        <v>574</v>
+      </c>
+      <c r="D15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" t="s">
+        <v>595</v>
+      </c>
+      <c r="F15" t="s">
         <v>589</v>
       </c>
-      <c r="D15" t="s">
-        <v>571</v>
-      </c>
-      <c r="E15" t="s">
-        <v>590</v>
-      </c>
-      <c r="F15" t="s">
-        <v>574</v>
-      </c>
       <c r="G15" t="s">
         <v>550</v>
       </c>
@@ -7614,13 +7569,13 @@
         <v>550</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N15" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7631,16 +7586,16 @@
         <v>545</v>
       </c>
       <c r="C16" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D16" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E16" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="F16" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="G16" t="s">
         <v>550</v>
@@ -7658,13 +7613,13 @@
         <v>550</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N16" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7675,16 +7630,16 @@
         <v>545</v>
       </c>
       <c r="C17" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D17" t="s">
         <v>547</v>
       </c>
       <c r="E17" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F17" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G17" t="s">
         <v>550</v>
@@ -7702,13 +7657,13 @@
         <v>550</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7719,16 +7674,16 @@
         <v>545</v>
       </c>
       <c r="C18" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D18" t="s">
         <v>547</v>
       </c>
       <c r="E18" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F18" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G18" t="s">
         <v>550</v>
@@ -7746,7 +7701,7 @@
         <v>550</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>550</v>
@@ -7763,16 +7718,16 @@
         <v>545</v>
       </c>
       <c r="C19" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D19" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F19" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G19" t="s">
         <v>550</v>
@@ -7790,13 +7745,13 @@
         <v>550</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N19" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7807,17 +7762,17 @@
         <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="D20" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E20" t="s">
+        <v>605</v>
+      </c>
+      <c r="F20" t="s">
         <v>603</v>
       </c>
-      <c r="F20" t="s">
-        <v>597</v>
-      </c>
       <c r="G20" t="s">
         <v>550</v>
       </c>
@@ -7834,13 +7789,13 @@
         <v>550</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N20" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7851,16 +7806,16 @@
         <v>545</v>
       </c>
       <c r="C21" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="D21" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E21" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F21" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G21" t="s">
         <v>550</v>
@@ -7878,13 +7833,13 @@
         <v>550</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N21" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7895,16 +7850,16 @@
         <v>545</v>
       </c>
       <c r="C22" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D22" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E22" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="F22" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G22" t="s">
         <v>550</v>
@@ -7922,13 +7877,13 @@
         <v>550</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7939,16 +7894,16 @@
         <v>545</v>
       </c>
       <c r="C23" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D23" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E23" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="F23" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G23" t="s">
         <v>550</v>
@@ -7966,13 +7921,13 @@
         <v>550</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N23" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7983,16 +7938,16 @@
         <v>545</v>
       </c>
       <c r="C24" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="D24" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E24" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F24" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G24" t="s">
         <v>550</v>
@@ -8010,13 +7965,13 @@
         <v>550</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -8030,13 +7985,13 @@
         <v>546</v>
       </c>
       <c r="D25" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="E25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F25" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G25" t="s">
         <v>550</v>
@@ -8054,13 +8009,13 @@
         <v>550</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N25" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -8071,17 +8026,17 @@
         <v>545</v>
       </c>
       <c r="C26" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D26" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="E26" t="s">
+        <v>617</v>
+      </c>
+      <c r="F26" t="s">
         <v>615</v>
       </c>
-      <c r="F26" t="s">
-        <v>611</v>
-      </c>
       <c r="G26" t="s">
         <v>550</v>
       </c>
@@ -8098,13 +8053,13 @@
         <v>550</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N26" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -8115,16 +8070,16 @@
         <v>545</v>
       </c>
       <c r="C27" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D27" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="E27" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
       <c r="F27" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G27" t="s">
         <v>550</v>
@@ -8142,13 +8097,13 @@
         <v>550</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N27" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -8159,16 +8114,16 @@
         <v>545</v>
       </c>
       <c r="C28" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D28" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="E28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F28" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G28" t="s">
         <v>550</v>
@@ -8186,13 +8141,13 @@
         <v>550</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N28" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -8203,16 +8158,16 @@
         <v>545</v>
       </c>
       <c r="C29" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D29" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="E29" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F29" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G29" t="s">
         <v>550</v>
@@ -8230,7 +8185,7 @@
         <v>550</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>550</v>
@@ -8247,40 +8202,40 @@
         <v>545</v>
       </c>
       <c r="C30" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D30" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E30" t="s">
+        <v>617</v>
+      </c>
+      <c r="F30" t="s">
+        <v>615</v>
+      </c>
+      <c r="G30" t="s">
+        <v>550</v>
+      </c>
+      <c r="H30" t="s">
+        <v>550</v>
+      </c>
+      <c r="I30" t="s">
+        <v>550</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N30" t="s">
         <v>622</v>
-      </c>
-      <c r="F30" t="s">
-        <v>623</v>
-      </c>
-      <c r="G30" t="s">
-        <v>550</v>
-      </c>
-      <c r="H30" t="s">
-        <v>550</v>
-      </c>
-      <c r="I30" t="s">
-        <v>550</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N30" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8291,40 +8246,40 @@
         <v>545</v>
       </c>
       <c r="C31" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D31" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E31" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F31" t="s">
+        <v>615</v>
+      </c>
+      <c r="G31" t="s">
+        <v>550</v>
+      </c>
+      <c r="H31" t="s">
+        <v>550</v>
+      </c>
+      <c r="I31" t="s">
+        <v>550</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N31" t="s">
         <v>623</v>
-      </c>
-      <c r="G31" t="s">
-        <v>550</v>
-      </c>
-      <c r="H31" t="s">
-        <v>550</v>
-      </c>
-      <c r="I31" t="s">
-        <v>550</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N31" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -8335,16 +8290,16 @@
         <v>545</v>
       </c>
       <c r="C32" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D32" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E32" t="s">
-        <v>622</v>
+        <v>548</v>
       </c>
       <c r="F32" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G32" t="s">
         <v>550</v>
@@ -8362,13 +8317,13 @@
         <v>550</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N32" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -8379,16 +8334,16 @@
         <v>545</v>
       </c>
       <c r="C33" t="s">
+        <v>578</v>
+      </c>
+      <c r="D33" t="s">
+        <v>559</v>
+      </c>
+      <c r="E33" t="s">
         <v>582</v>
       </c>
-      <c r="D33" t="s">
-        <v>566</v>
-      </c>
-      <c r="E33" t="s">
-        <v>625</v>
-      </c>
       <c r="F33" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G33" t="s">
         <v>550</v>
@@ -8406,13 +8361,13 @@
         <v>550</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -8423,16 +8378,16 @@
         <v>545</v>
       </c>
       <c r="C34" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D34" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E34" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="F34" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G34" t="s">
         <v>550</v>
@@ -8450,13 +8405,13 @@
         <v>550</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N34" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -8467,16 +8422,16 @@
         <v>545</v>
       </c>
       <c r="C35" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D35" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="E35" t="s">
-        <v>625</v>
+        <v>555</v>
       </c>
       <c r="F35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G35" t="s">
         <v>550</v>
@@ -8494,13 +8449,13 @@
         <v>550</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N35" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8511,16 +8466,16 @@
         <v>545</v>
       </c>
       <c r="C36" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D36" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E36" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F36" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G36" t="s">
         <v>550</v>
@@ -8538,13 +8493,13 @@
         <v>550</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N36" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -8552,37 +8507,37 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="C37" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="D37" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F37" t="s">
+        <v>631</v>
+      </c>
+      <c r="G37" t="s">
+        <v>550</v>
+      </c>
+      <c r="H37" t="s">
+        <v>550</v>
+      </c>
+      <c r="I37" t="s">
+        <v>550</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="G37" t="s">
-        <v>550</v>
-      </c>
-      <c r="H37" t="s">
-        <v>550</v>
-      </c>
-      <c r="I37" t="s">
-        <v>550</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>550</v>
@@ -8596,19 +8551,19 @@
         <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="C38" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="D38" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E38" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F38" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G38" t="s">
         <v>550</v>
@@ -8626,13 +8581,13 @@
         <v>550</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N38" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -8640,19 +8595,19 @@
         <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="C39" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="D39" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E39" t="s">
-        <v>605</v>
+        <v>567</v>
       </c>
       <c r="F39" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="G39" t="s">
         <v>550</v>
@@ -8670,13 +8625,13 @@
         <v>550</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N39" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -8684,19 +8639,19 @@
         <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="C40" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="D40" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="E40" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F40" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="G40" t="s">
         <v>550</v>
@@ -8714,13 +8669,13 @@
         <v>550</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N40" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -8728,19 +8683,19 @@
         <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="C41" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="D41" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E41" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="F41" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G41" t="s">
         <v>550</v>
@@ -8758,13 +8713,13 @@
         <v>550</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N41" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -8772,19 +8727,19 @@
         <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C42" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D42" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E42" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F42" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G42" t="s">
         <v>550</v>
@@ -8802,13 +8757,13 @@
         <v>550</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N42" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -8816,16 +8771,16 @@
         <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C43" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D43" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E43" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F43" t="s">
         <v>642</v>
@@ -8846,13 +8801,13 @@
         <v>550</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>557</v>
+        <v>643</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N43" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -8860,19 +8815,19 @@
         <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C44" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D44" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E44" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F44" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G44" t="s">
         <v>550</v>
@@ -8890,13 +8845,13 @@
         <v>550</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N44" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -8904,16 +8859,16 @@
         <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C45" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D45" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E45" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F45" t="s">
         <v>642</v>
@@ -8934,13 +8889,13 @@
         <v>550</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N45" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -8948,16 +8903,16 @@
         <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C46" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D46" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E46" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F46" t="s">
         <v>642</v>
@@ -8978,13 +8933,13 @@
         <v>550</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N46" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8992,16 +8947,16 @@
         <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C47" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D47" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E47" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="F47" t="s">
         <v>642</v>
@@ -9022,7 +8977,7 @@
         <v>550</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>550</v>
@@ -9036,43 +8991,43 @@
         <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C48" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D48" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E48" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F48" t="s">
+        <v>642</v>
+      </c>
+      <c r="G48" t="s">
+        <v>550</v>
+      </c>
+      <c r="H48" t="s">
+        <v>550</v>
+      </c>
+      <c r="I48" t="s">
+        <v>550</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N48" t="s">
         <v>651</v>
-      </c>
-      <c r="G48" t="s">
-        <v>550</v>
-      </c>
-      <c r="H48" t="s">
-        <v>550</v>
-      </c>
-      <c r="I48" t="s">
-        <v>550</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N48" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -9080,19 +9035,19 @@
         <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C49" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D49" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E49" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F49" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="G49" t="s">
         <v>550</v>
@@ -9110,13 +9065,13 @@
         <v>550</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N49" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -9124,19 +9079,19 @@
         <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C50" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D50" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E50" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="F50" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G50" t="s">
         <v>550</v>
@@ -9154,13 +9109,13 @@
         <v>550</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N50" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -9168,19 +9123,19 @@
         <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C51" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D51" t="s">
         <v>547</v>
       </c>
       <c r="E51" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="F51" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G51" t="s">
         <v>550</v>
@@ -9198,13 +9153,13 @@
         <v>550</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>576</v>
+        <v>655</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N51" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -9212,19 +9167,19 @@
         <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C52" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D52" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E52" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F52" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G52" t="s">
         <v>550</v>
@@ -9242,13 +9197,13 @@
         <v>550</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>557</v>
+        <v>657</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N52" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -9256,19 +9211,19 @@
         <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C53" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D53" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E53" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="F53" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="G53" t="s">
         <v>550</v>
@@ -9286,13 +9241,13 @@
         <v>550</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N53" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -9300,43 +9255,43 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C54" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D54" t="s">
         <v>547</v>
       </c>
       <c r="E54" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="F54" t="s">
+        <v>653</v>
+      </c>
+      <c r="G54" t="s">
+        <v>550</v>
+      </c>
+      <c r="H54" t="s">
+        <v>550</v>
+      </c>
+      <c r="I54" t="s">
+        <v>550</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N54" t="s">
         <v>661</v>
-      </c>
-      <c r="G54" t="s">
-        <v>550</v>
-      </c>
-      <c r="H54" t="s">
-        <v>550</v>
-      </c>
-      <c r="I54" t="s">
-        <v>550</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N54" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -9344,19 +9299,19 @@
         <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C55" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D55" t="s">
         <v>547</v>
       </c>
       <c r="E55" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F55" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G55" t="s">
         <v>550</v>
@@ -9374,13 +9329,13 @@
         <v>550</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N55" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -9388,19 +9343,19 @@
         <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C56" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D56" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E56" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F56" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="G56" t="s">
         <v>550</v>
@@ -9418,7 +9373,7 @@
         <v>550</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>550</v>
@@ -9432,19 +9387,19 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C57" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D57" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E57" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="F57" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="G57" t="s">
         <v>550</v>
@@ -9462,13 +9417,13 @@
         <v>550</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N57" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -9476,19 +9431,19 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C58" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D58" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E58" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="F58" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="G58" t="s">
         <v>550</v>
@@ -9506,13 +9461,13 @@
         <v>550</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N58" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -9520,19 +9475,19 @@
         <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C59" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D59" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E59" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="F59" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="G59" t="s">
         <v>550</v>
@@ -9550,13 +9505,13 @@
         <v>550</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N59" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -9564,19 +9519,19 @@
         <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C60" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D60" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E60" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F60" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="G60" t="s">
         <v>550</v>
@@ -9594,13 +9549,13 @@
         <v>550</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N60" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -9608,19 +9563,19 @@
         <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C61" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D61" t="s">
         <v>547</v>
       </c>
       <c r="E61" t="s">
-        <v>590</v>
+        <v>548</v>
       </c>
       <c r="F61" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G61" t="s">
         <v>550</v>
@@ -9638,13 +9593,13 @@
         <v>550</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N61" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -9652,19 +9607,19 @@
         <v>159</v>
       </c>
       <c r="B62" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C62" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D62" t="s">
         <v>547</v>
       </c>
       <c r="E62" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="F62" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G62" t="s">
         <v>550</v>
@@ -9682,13 +9637,13 @@
         <v>550</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N62" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -9696,19 +9651,19 @@
         <v>159</v>
       </c>
       <c r="B63" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C63" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D63" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E63" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="F63" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="G63" t="s">
         <v>550</v>
@@ -9726,13 +9681,13 @@
         <v>550</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N63" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -9740,19 +9695,19 @@
         <v>159</v>
       </c>
       <c r="B64" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C64" t="s">
         <v>553</v>
       </c>
       <c r="D64" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E64" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="F64" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G64" t="s">
         <v>550</v>
@@ -9770,13 +9725,13 @@
         <v>550</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N64" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -9784,19 +9739,19 @@
         <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C65" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D65" t="s">
         <v>547</v>
       </c>
       <c r="E65" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="F65" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G65" t="s">
         <v>550</v>
@@ -9814,13 +9769,13 @@
         <v>550</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N65" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -9828,19 +9783,19 @@
         <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C66" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D66" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E66" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F66" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="G66" t="s">
         <v>550</v>
@@ -9858,13 +9813,13 @@
         <v>550</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N66" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -9872,19 +9827,19 @@
         <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C67" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D67" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E67" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="F67" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G67" t="s">
         <v>550</v>
@@ -9902,13 +9857,13 @@
         <v>550</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N67" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -9916,19 +9871,19 @@
         <v>159</v>
       </c>
       <c r="B68" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C68" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D68" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E68" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F68" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="G68" t="s">
         <v>550</v>
@@ -9946,7 +9901,7 @@
         <v>550</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>550</v>
@@ -9960,16 +9915,16 @@
         <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C69" t="s">
         <v>553</v>
       </c>
       <c r="D69" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E69" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F69" t="s">
         <v>689</v>
@@ -9990,7 +9945,7 @@
         <v>550</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>550</v>
@@ -10004,16 +9959,16 @@
         <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C70" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="D70" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E70" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="F70" t="s">
         <v>691</v>
@@ -10034,7 +9989,7 @@
         <v>550</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>685</v>
+        <v>565</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>550</v>
@@ -10048,19 +10003,19 @@
         <v>159</v>
       </c>
       <c r="B71" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C71" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="D71" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E71" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="F71" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="G71" t="s">
         <v>550</v>
@@ -10078,7 +10033,7 @@
         <v>550</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>685</v>
+        <v>568</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>550</v>
@@ -10092,43 +10047,43 @@
         <v>159</v>
       </c>
       <c r="B72" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C72" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D72" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E72" t="s">
-        <v>561</v>
+        <v>602</v>
       </c>
       <c r="F72" t="s">
+        <v>691</v>
+      </c>
+      <c r="G72" t="s">
+        <v>550</v>
+      </c>
+      <c r="H72" t="s">
+        <v>550</v>
+      </c>
+      <c r="I72" t="s">
+        <v>550</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N72" t="s">
         <v>694</v>
-      </c>
-      <c r="G72" t="s">
-        <v>550</v>
-      </c>
-      <c r="H72" t="s">
-        <v>550</v>
-      </c>
-      <c r="I72" t="s">
-        <v>550</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N72" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -10136,19 +10091,19 @@
         <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C73" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="D73" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E73" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="F73" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G73" t="s">
         <v>550</v>
@@ -10166,13 +10121,13 @@
         <v>550</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>685</v>
+        <v>576</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N73" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -10180,43 +10135,43 @@
         <v>159</v>
       </c>
       <c r="B74" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C74" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D74" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E74" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="F74" t="s">
+        <v>697</v>
+      </c>
+      <c r="G74" t="s">
+        <v>550</v>
+      </c>
+      <c r="H74" t="s">
+        <v>550</v>
+      </c>
+      <c r="I74" t="s">
+        <v>550</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N74" t="s">
         <v>698</v>
-      </c>
-      <c r="G74" t="s">
-        <v>550</v>
-      </c>
-      <c r="H74" t="s">
-        <v>550</v>
-      </c>
-      <c r="I74" t="s">
-        <v>550</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N74" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -10224,37 +10179,37 @@
         <v>159</v>
       </c>
       <c r="B75" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C75" t="s">
         <v>546</v>
       </c>
       <c r="D75" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E75" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F75" t="s">
+        <v>699</v>
+      </c>
+      <c r="G75" t="s">
+        <v>550</v>
+      </c>
+      <c r="H75" t="s">
+        <v>550</v>
+      </c>
+      <c r="I75" t="s">
+        <v>550</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="G75" t="s">
-        <v>550</v>
-      </c>
-      <c r="H75" t="s">
-        <v>550</v>
-      </c>
-      <c r="I75" t="s">
-        <v>550</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>550</v>
@@ -10268,19 +10223,19 @@
         <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C76" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D76" t="s">
         <v>547</v>
       </c>
       <c r="E76" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="F76" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G76" t="s">
         <v>550</v>
@@ -10298,13 +10253,13 @@
         <v>550</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N76" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -10312,19 +10267,19 @@
         <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C77" t="s">
         <v>553</v>
       </c>
       <c r="D77" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E77" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="F77" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G77" t="s">
         <v>550</v>
@@ -10342,13 +10297,13 @@
         <v>550</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N77" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -10356,19 +10311,19 @@
         <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C78" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D78" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E78" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F78" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G78" t="s">
         <v>550</v>
@@ -10386,13 +10341,13 @@
         <v>550</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>685</v>
+        <v>565</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N78" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -10400,19 +10355,19 @@
         <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C79" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D79" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="E79" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="F79" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="G79" t="s">
         <v>550</v>
@@ -10430,13 +10385,13 @@
         <v>550</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>685</v>
+        <v>565</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N79" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -10444,19 +10399,19 @@
         <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C80" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="D80" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E80" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F80" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G80" t="s">
         <v>550</v>
@@ -10474,13 +10429,13 @@
         <v>550</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>685</v>
+        <v>565</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N80" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -10488,19 +10443,19 @@
         <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C81" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D81" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E81" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="F81" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G81" t="s">
         <v>550</v>
@@ -10518,7 +10473,7 @@
         <v>550</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>550</v>
@@ -10532,19 +10487,19 @@
         <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C82" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D82" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E82" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F82" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G82" t="s">
         <v>550</v>
@@ -10562,7 +10517,7 @@
         <v>550</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>550</v>
@@ -10576,19 +10531,19 @@
         <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C83" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D83" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="E83" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F83" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G83" t="s">
         <v>550</v>
@@ -10606,7 +10561,7 @@
         <v>550</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>550</v>
@@ -10620,19 +10575,19 @@
         <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
       <c r="C84" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="D84" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E84" t="s">
-        <v>622</v>
+        <v>548</v>
       </c>
       <c r="F84" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="G84" t="s">
         <v>550</v>
@@ -10650,13 +10605,13 @@
         <v>550</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>584</v>
+        <v>715</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N84" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -10664,19 +10619,19 @@
         <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C85" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="D85" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E85" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="F85" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
       <c r="G85" t="s">
         <v>550</v>
@@ -10694,13 +10649,13 @@
         <v>550</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>563</v>
+        <v>717</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N85" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -10708,19 +10663,19 @@
         <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C86" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D86" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E86" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="F86" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G86" t="s">
         <v>550</v>
@@ -10738,13 +10693,13 @@
         <v>550</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N86" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -10752,19 +10707,19 @@
         <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C87" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D87" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E87" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="F87" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G87" t="s">
         <v>550</v>
@@ -10782,13 +10737,13 @@
         <v>550</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N87" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -10796,19 +10751,19 @@
         <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C88" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="D88" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E88" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="F88" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G88" t="s">
         <v>550</v>
@@ -10826,33 +10781,33 @@
         <v>550</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N88" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="C89" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D89" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E89" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F89" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="G89" t="s">
         <v>550</v>
@@ -10870,13 +10825,13 @@
         <v>550</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>557</v>
+        <v>727</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N89" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -10884,19 +10839,19 @@
         <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="C90" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D90" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E90" t="s">
-        <v>605</v>
+        <v>567</v>
       </c>
       <c r="F90" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="G90" t="s">
         <v>550</v>
@@ -10914,13 +10869,13 @@
         <v>550</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>557</v>
+        <v>731</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N90" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -10928,19 +10883,19 @@
         <v>159</v>
       </c>
       <c r="B91" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="C91" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D91" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E91" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="F91" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="G91" t="s">
         <v>550</v>
@@ -10958,13 +10913,13 @@
         <v>550</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>557</v>
+        <v>734</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N91" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -10972,19 +10927,19 @@
         <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="C92" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D92" t="s">
         <v>547</v>
       </c>
       <c r="E92" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F92" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="G92" t="s">
         <v>550</v>
@@ -11002,13 +10957,13 @@
         <v>550</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>576</v>
+        <v>736</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N92" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -11016,19 +10971,19 @@
         <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="C93" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D93" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E93" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F93" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="G93" t="s">
         <v>550</v>
@@ -11046,13 +11001,13 @@
         <v>550</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>580</v>
+        <v>738</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N93" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -11060,19 +11015,19 @@
         <v>159</v>
       </c>
       <c r="B94" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="C94" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D94" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="E94" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F94" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="G94" t="s">
         <v>550</v>
@@ -11090,33 +11045,33 @@
         <v>550</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>584</v>
+        <v>740</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N94" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B95" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="C95" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="D95" t="s">
+        <v>559</v>
+      </c>
+      <c r="E95" t="s">
         <v>571</v>
       </c>
-      <c r="E95" t="s">
-        <v>561</v>
-      </c>
       <c r="F95" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="G95" t="s">
         <v>550</v>
@@ -11134,33 +11089,33 @@
         <v>550</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N95" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="C96" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="D96" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E96" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F96" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="G96" t="s">
         <v>550</v>
@@ -11178,33 +11133,33 @@
         <v>550</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N96" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="C97" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="D97" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E97" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F97" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="G97" t="s">
         <v>550</v>
@@ -11222,33 +11177,33 @@
         <v>550</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N97" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B98" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="C98" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="D98" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="E98" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="F98" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="G98" t="s">
         <v>550</v>
@@ -11266,33 +11221,33 @@
         <v>550</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N98" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B99" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="C99" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="D99" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E99" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="F99" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="G99" t="s">
         <v>550</v>
@@ -11310,33 +11265,33 @@
         <v>550</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>740</v>
+        <v>565</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N99" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
         <v>742</v>
       </c>
       <c r="C100" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="D100" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="E100" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F100" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="G100" t="s">
         <v>550</v>
@@ -11354,33 +11309,33 @@
         <v>550</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>744</v>
+        <v>568</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N100" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C101" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="D101" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E101" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="F101" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="G101" t="s">
         <v>550</v>
@@ -11398,33 +11353,33 @@
         <v>550</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>748</v>
+        <v>572</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N101" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C102" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="D102" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E102" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="F102" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G102" t="s">
         <v>550</v>
@@ -11442,33 +11397,33 @@
         <v>550</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>751</v>
+        <v>576</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N102" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C103" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="D103" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E103" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="F103" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="G103" t="s">
         <v>550</v>
@@ -11486,33 +11441,33 @@
         <v>550</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>753</v>
+        <v>568</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N103" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B104" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C104" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D104" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="E104" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="F104" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="G104" t="s">
         <v>550</v>
@@ -11530,33 +11485,33 @@
         <v>550</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>755</v>
+        <v>572</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N104" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C105" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D105" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="E105" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="F105" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="G105" t="s">
         <v>550</v>
@@ -11574,13 +11529,13 @@
         <v>550</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>757</v>
+        <v>576</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N105" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -11588,16 +11543,16 @@
         <v>317</v>
       </c>
       <c r="B106" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="C106" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="D106" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E106" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="F106" t="s">
         <v>760</v>
@@ -11618,13 +11573,13 @@
         <v>550</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>761</v>
+        <v>579</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N106" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -11632,19 +11587,19 @@
         <v>317</v>
       </c>
       <c r="B107" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="C107" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D107" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E107" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F107" t="s">
-        <v>763</v>
+        <v>691</v>
       </c>
       <c r="G107" t="s">
         <v>550</v>
@@ -11662,7 +11617,7 @@
         <v>550</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>764</v>
+        <v>562</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>550</v>
@@ -11676,43 +11631,43 @@
         <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="C108" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D108" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E108" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="F108" t="s">
+        <v>691</v>
+      </c>
+      <c r="G108" t="s">
+        <v>550</v>
+      </c>
+      <c r="H108" t="s">
+        <v>550</v>
+      </c>
+      <c r="I108" t="s">
+        <v>550</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N108" t="s">
         <v>766</v>
-      </c>
-      <c r="G108" t="s">
-        <v>550</v>
-      </c>
-      <c r="H108" t="s">
-        <v>550</v>
-      </c>
-      <c r="I108" t="s">
-        <v>550</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N108" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -11720,43 +11675,43 @@
         <v>317</v>
       </c>
       <c r="B109" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="C109" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D109" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E109" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="F109" t="s">
+        <v>767</v>
+      </c>
+      <c r="G109" t="s">
+        <v>550</v>
+      </c>
+      <c r="H109" t="s">
+        <v>550</v>
+      </c>
+      <c r="I109" t="s">
+        <v>550</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N109" t="s">
         <v>769</v>
-      </c>
-      <c r="G109" t="s">
-        <v>550</v>
-      </c>
-      <c r="H109" t="s">
-        <v>550</v>
-      </c>
-      <c r="I109" t="s">
-        <v>550</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N109" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -11764,19 +11719,19 @@
         <v>317</v>
       </c>
       <c r="B110" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="C110" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D110" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E110" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="F110" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G110" t="s">
         <v>550</v>
@@ -11794,13 +11749,13 @@
         <v>550</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N110" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -11808,43 +11763,43 @@
         <v>317</v>
       </c>
       <c r="B111" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="C111" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D111" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E111" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="F111" t="s">
+        <v>767</v>
+      </c>
+      <c r="G111" t="s">
+        <v>550</v>
+      </c>
+      <c r="H111" t="s">
+        <v>550</v>
+      </c>
+      <c r="I111" t="s">
+        <v>550</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="G111" t="s">
-        <v>550</v>
-      </c>
-      <c r="H111" t="s">
-        <v>550</v>
-      </c>
-      <c r="I111" t="s">
-        <v>550</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="M111" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N111" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -11852,19 +11807,19 @@
         <v>317</v>
       </c>
       <c r="B112" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="C112" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="D112" t="s">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="E112" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F112" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G112" t="s">
         <v>550</v>
@@ -11882,33 +11837,33 @@
         <v>550</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N112" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="C113" t="s">
         <v>553</v>
       </c>
       <c r="D113" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E113" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="F113" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G113" t="s">
         <v>550</v>
@@ -11926,121 +11881,121 @@
         <v>550</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>584</v>
+        <v>776</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N113" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="C114" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D114" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E114" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="F114" t="s">
+        <v>775</v>
+      </c>
+      <c r="G114" t="s">
+        <v>550</v>
+      </c>
+      <c r="H114" t="s">
+        <v>550</v>
+      </c>
+      <c r="I114" t="s">
+        <v>550</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G114" t="s">
-        <v>550</v>
-      </c>
-      <c r="H114" t="s">
-        <v>550</v>
-      </c>
-      <c r="I114" t="s">
-        <v>550</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="M114" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N114" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="C115" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="D115" t="s">
         <v>547</v>
       </c>
       <c r="E115" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F115" t="s">
+        <v>775</v>
+      </c>
+      <c r="G115" t="s">
+        <v>550</v>
+      </c>
+      <c r="H115" t="s">
+        <v>550</v>
+      </c>
+      <c r="I115" t="s">
+        <v>550</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G115" t="s">
-        <v>550</v>
-      </c>
-      <c r="H115" t="s">
-        <v>550</v>
-      </c>
-      <c r="I115" t="s">
-        <v>550</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="M115" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N115" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="C116" t="s">
-        <v>589</v>
+        <v>781</v>
       </c>
       <c r="D116" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="E116" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="F116" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="G116" t="s">
         <v>550</v>
@@ -12058,33 +12013,33 @@
         <v>550</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>584</v>
+        <v>783</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N116" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="C117" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="D117" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E117" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
       <c r="F117" t="s">
-        <v>776</v>
+        <v>665</v>
       </c>
       <c r="G117" t="s">
         <v>550</v>
@@ -12102,33 +12057,33 @@
         <v>550</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>587</v>
+        <v>786</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N117" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B118" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="C118" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D118" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E118" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="F118" t="s">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="G118" t="s">
         <v>550</v>
@@ -12146,33 +12101,33 @@
         <v>550</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>551</v>
+        <v>731</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N118" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="C119" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D119" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E119" t="s">
         <v>548</v>
       </c>
       <c r="F119" t="s">
-        <v>710</v>
+        <v>790</v>
       </c>
       <c r="G119" t="s">
         <v>550</v>
@@ -12190,33 +12145,33 @@
         <v>550</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N119" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B120" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="C120" t="s">
         <v>553</v>
       </c>
       <c r="D120" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E120" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F120" t="s">
-        <v>783</v>
+        <v>689</v>
       </c>
       <c r="G120" t="s">
         <v>550</v>
@@ -12234,21 +12189,21 @@
         <v>550</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>784</v>
+        <v>572</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N120" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B121" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="C121" t="s">
         <v>546</v>
@@ -12257,10 +12212,10 @@
         <v>547</v>
       </c>
       <c r="E121" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="F121" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="G121" t="s">
         <v>550</v>
@@ -12278,33 +12233,33 @@
         <v>550</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N121" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B122" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="C122" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="D122" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="E122" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="F122" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="G122" t="s">
         <v>550</v>
@@ -12322,33 +12277,33 @@
         <v>550</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>787</v>
+        <v>579</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N122" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="B123" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="C123" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D123" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="E123" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="F123" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="G123" t="s">
         <v>550</v>
@@ -12366,13 +12321,13 @@
         <v>550</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N123" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -12380,19 +12335,19 @@
         <v>159</v>
       </c>
       <c r="B124" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C124" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D124" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E124" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F124" t="s">
-        <v>791</v>
+        <v>689</v>
       </c>
       <c r="G124" t="s">
         <v>550</v>
@@ -12410,13 +12365,13 @@
         <v>550</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>792</v>
+        <v>568</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N124" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -12424,19 +12379,19 @@
         <v>159</v>
       </c>
       <c r="B125" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C125" t="s">
         <v>546</v>
       </c>
       <c r="D125" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E125" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F125" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="G125" t="s">
         <v>550</v>
@@ -12454,13 +12409,13 @@
         <v>550</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N125" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -12468,19 +12423,19 @@
         <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C126" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D126" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E126" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F126" t="s">
-        <v>791</v>
+        <v>668</v>
       </c>
       <c r="G126" t="s">
         <v>550</v>
@@ -12498,13 +12453,13 @@
         <v>550</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N126" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -12512,19 +12467,19 @@
         <v>159</v>
       </c>
       <c r="B127" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="C127" t="s">
-        <v>797</v>
+        <v>553</v>
       </c>
       <c r="D127" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E127" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F127" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="G127" t="s">
         <v>550</v>
@@ -12542,13 +12497,13 @@
         <v>550</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>799</v>
+        <v>666</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N127" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -12556,19 +12511,19 @@
         <v>159</v>
       </c>
       <c r="B128" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C128" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D128" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E128" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F128" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G128" t="s">
         <v>550</v>
@@ -12586,13 +12541,13 @@
         <v>550</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>802</v>
+        <v>562</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N128" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -12600,19 +12555,19 @@
         <v>159</v>
       </c>
       <c r="B129" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C129" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D129" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E129" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F129" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G129" t="s">
         <v>550</v>
@@ -12630,13 +12585,13 @@
         <v>550</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>748</v>
+        <v>572</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N129" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -12644,19 +12599,19 @@
         <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C130" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D130" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E130" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="F130" t="s">
-        <v>806</v>
+        <v>670</v>
       </c>
       <c r="G130" t="s">
         <v>550</v>
@@ -12674,13 +12629,13 @@
         <v>550</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N130" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -12688,19 +12643,19 @@
         <v>159</v>
       </c>
       <c r="B131" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C131" t="s">
         <v>546</v>
       </c>
       <c r="D131" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E131" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="F131" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="G131" t="s">
         <v>550</v>
@@ -12718,13 +12673,13 @@
         <v>550</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N131" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -12732,19 +12687,19 @@
         <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C132" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D132" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E132" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="F132" t="s">
-        <v>809</v>
+        <v>684</v>
       </c>
       <c r="G132" t="s">
         <v>550</v>
@@ -12762,13 +12717,13 @@
         <v>550</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N132" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -12776,19 +12731,19 @@
         <v>159</v>
       </c>
       <c r="B133" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C133" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="D133" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E133" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="F133" t="s">
-        <v>811</v>
+        <v>684</v>
       </c>
       <c r="G133" t="s">
         <v>550</v>
@@ -12806,7 +12761,7 @@
         <v>550</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>550</v>
@@ -12820,19 +12775,19 @@
         <v>159</v>
       </c>
       <c r="B134" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C134" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D134" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E134" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="F134" t="s">
-        <v>806</v>
+        <v>684</v>
       </c>
       <c r="G134" t="s">
         <v>550</v>
@@ -12850,7 +12805,7 @@
         <v>550</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>550</v>
@@ -12864,19 +12819,19 @@
         <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C135" t="s">
         <v>546</v>
       </c>
       <c r="D135" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E135" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="F135" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
       <c r="G135" t="s">
         <v>550</v>
@@ -12894,7 +12849,7 @@
         <v>550</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>550</v>
@@ -12908,16 +12863,16 @@
         <v>159</v>
       </c>
       <c r="B136" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C136" t="s">
         <v>553</v>
       </c>
       <c r="D136" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E136" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="F136" t="s">
         <v>815</v>
@@ -12938,33 +12893,33 @@
         <v>550</v>
       </c>
       <c r="L136" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N136" t="s">
         <v>816</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N136" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B137" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="C137" t="s">
         <v>546</v>
       </c>
       <c r="D137" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E137" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="F137" t="s">
-        <v>687</v>
+        <v>817</v>
       </c>
       <c r="G137" t="s">
         <v>550</v>
@@ -12982,77 +12937,77 @@
         <v>550</v>
       </c>
       <c r="L137" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N137" t="s">
         <v>818</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N137" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B138" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="C138" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D138" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
       <c r="E138" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F138" t="s">
+        <v>749</v>
+      </c>
+      <c r="G138" t="s">
+        <v>550</v>
+      </c>
+      <c r="H138" t="s">
+        <v>550</v>
+      </c>
+      <c r="I138" t="s">
+        <v>550</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N138" t="s">
         <v>820</v>
-      </c>
-      <c r="G138" t="s">
-        <v>550</v>
-      </c>
-      <c r="H138" t="s">
-        <v>550</v>
-      </c>
-      <c r="I138" t="s">
-        <v>550</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N138" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="B139" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="C139" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D139" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E139" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="F139" t="s">
-        <v>694</v>
+        <v>746</v>
       </c>
       <c r="G139" t="s">
         <v>550</v>
@@ -13070,18 +13025,18 @@
         <v>550</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>551</v>
+        <v>701</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N139" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="B140" t="s">
         <v>822</v>
@@ -13090,13 +13045,13 @@
         <v>546</v>
       </c>
       <c r="D140" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E140" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F140" t="s">
-        <v>700</v>
+        <v>823</v>
       </c>
       <c r="G140" t="s">
         <v>550</v>
@@ -13114,7 +13069,7 @@
         <v>550</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>580</v>
+        <v>800</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>550</v>
@@ -13125,22 +13080,22 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="B141" t="s">
         <v>822</v>
       </c>
       <c r="C141" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D141" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E141" t="s">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="F141" t="s">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="G141" t="s">
         <v>550</v>
@@ -13158,33 +13113,33 @@
         <v>550</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>576</v>
+        <v>826</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N141" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="B142" t="s">
         <v>822</v>
       </c>
       <c r="C142" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D142" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E142" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F142" t="s">
-        <v>705</v>
+        <v>828</v>
       </c>
       <c r="G142" t="s">
         <v>550</v>
@@ -13202,33 +13157,33 @@
         <v>550</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>685</v>
+        <v>829</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N142" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="B143" t="s">
         <v>822</v>
       </c>
       <c r="C143" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D143" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E143" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="F143" t="s">
-        <v>703</v>
+        <v>831</v>
       </c>
       <c r="G143" t="s">
         <v>550</v>
@@ -13246,33 +13201,33 @@
         <v>550</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>685</v>
+        <v>562</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N143" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c r="B144" t="s">
         <v>822</v>
       </c>
       <c r="C144" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D144" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="E144" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="F144" t="s">
-        <v>703</v>
+        <v>831</v>
       </c>
       <c r="G144" t="s">
         <v>550</v>
@@ -13290,33 +13245,33 @@
         <v>550</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>685</v>
+        <v>833</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N144" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="B145" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="C145" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D145" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E145" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F145" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
       <c r="G145" t="s">
         <v>550</v>
@@ -13334,33 +13289,33 @@
         <v>550</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>685</v>
+        <v>836</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N145" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="B146" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="C146" t="s">
         <v>553</v>
       </c>
       <c r="D146" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E146" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="F146" t="s">
-        <v>705</v>
+        <v>838</v>
       </c>
       <c r="G146" t="s">
         <v>550</v>
@@ -13378,33 +13333,33 @@
         <v>550</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>685</v>
+        <v>839</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N146" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="B147" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="C147" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="D147" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="E147" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="F147" t="s">
-        <v>556</v>
+        <v>841</v>
       </c>
       <c r="G147" t="s">
         <v>550</v>
@@ -13422,33 +13377,33 @@
         <v>550</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>685</v>
+        <v>842</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N147" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="B148" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="C148" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D148" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E148" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="F148" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="G148" t="s">
         <v>550</v>
@@ -13466,33 +13421,33 @@
         <v>550</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>551</v>
+        <v>844</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N148" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="B149" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="C149" t="s">
         <v>546</v>
       </c>
       <c r="D149" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E149" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F149" t="s">
-        <v>766</v>
+        <v>841</v>
       </c>
       <c r="G149" t="s">
         <v>550</v>
@@ -13510,505 +13465,21 @@
         <v>550</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>550</v>
       </c>
       <c r="N149" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>317</v>
-      </c>
-      <c r="B150" t="s">
-        <v>796</v>
-      </c>
-      <c r="C150" t="s">
-        <v>553</v>
-      </c>
-      <c r="D150" t="s">
-        <v>609</v>
-      </c>
-      <c r="E150" t="s">
-        <v>613</v>
-      </c>
-      <c r="F150" t="s">
-        <v>763</v>
-      </c>
-      <c r="G150" t="s">
-        <v>550</v>
-      </c>
-      <c r="H150" t="s">
-        <v>550</v>
-      </c>
-      <c r="I150" t="s">
-        <v>550</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K150" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="M150" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N150" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>332</v>
-      </c>
-      <c r="B151" t="s">
-        <v>837</v>
-      </c>
-      <c r="C151" t="s">
-        <v>553</v>
-      </c>
-      <c r="D151" t="s">
-        <v>571</v>
-      </c>
-      <c r="E151" t="s">
-        <v>548</v>
-      </c>
-      <c r="F151" t="s">
-        <v>838</v>
-      </c>
-      <c r="G151" t="s">
-        <v>550</v>
-      </c>
-      <c r="H151" t="s">
-        <v>550</v>
-      </c>
-      <c r="I151" t="s">
-        <v>550</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N151" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>332</v>
-      </c>
-      <c r="B152" t="s">
-        <v>837</v>
-      </c>
-      <c r="C152" t="s">
-        <v>553</v>
-      </c>
-      <c r="D152" t="s">
-        <v>571</v>
-      </c>
-      <c r="E152" t="s">
-        <v>548</v>
-      </c>
-      <c r="F152" t="s">
-        <v>840</v>
-      </c>
-      <c r="G152" t="s">
-        <v>550</v>
-      </c>
-      <c r="H152" t="s">
-        <v>550</v>
-      </c>
-      <c r="I152" t="s">
-        <v>550</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N152" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>332</v>
-      </c>
-      <c r="B153" t="s">
-        <v>837</v>
-      </c>
-      <c r="C153" t="s">
-        <v>553</v>
-      </c>
-      <c r="D153" t="s">
-        <v>571</v>
-      </c>
-      <c r="E153" t="s">
-        <v>548</v>
-      </c>
-      <c r="F153" t="s">
-        <v>843</v>
-      </c>
-      <c r="G153" t="s">
-        <v>550</v>
-      </c>
-      <c r="H153" t="s">
-        <v>550</v>
-      </c>
-      <c r="I153" t="s">
-        <v>550</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N153" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>332</v>
-      </c>
-      <c r="B154" t="s">
-        <v>837</v>
-      </c>
-      <c r="C154" t="s">
-        <v>553</v>
-      </c>
-      <c r="D154" t="s">
-        <v>609</v>
-      </c>
-      <c r="E154" t="s">
-        <v>610</v>
-      </c>
-      <c r="F154" t="s">
-        <v>846</v>
-      </c>
-      <c r="G154" t="s">
-        <v>550</v>
-      </c>
-      <c r="H154" t="s">
-        <v>550</v>
-      </c>
-      <c r="I154" t="s">
-        <v>550</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L154" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="M154" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N154" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>332</v>
-      </c>
-      <c r="B155" t="s">
-        <v>837</v>
-      </c>
-      <c r="C155" t="s">
-        <v>553</v>
-      </c>
-      <c r="D155" t="s">
-        <v>566</v>
-      </c>
-      <c r="E155" t="s">
-        <v>625</v>
-      </c>
-      <c r="F155" t="s">
-        <v>846</v>
-      </c>
-      <c r="G155" t="s">
-        <v>550</v>
-      </c>
-      <c r="H155" t="s">
-        <v>550</v>
-      </c>
-      <c r="I155" t="s">
-        <v>550</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L155" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="M155" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N155" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>414</v>
-      </c>
-      <c r="B156" t="s">
-        <v>850</v>
-      </c>
-      <c r="C156" t="s">
-        <v>553</v>
-      </c>
-      <c r="D156" t="s">
-        <v>571</v>
-      </c>
-      <c r="E156" t="s">
-        <v>548</v>
-      </c>
-      <c r="F156" t="s">
-        <v>766</v>
-      </c>
-      <c r="G156" t="s">
-        <v>550</v>
-      </c>
-      <c r="H156" t="s">
-        <v>550</v>
-      </c>
-      <c r="I156" t="s">
-        <v>550</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="M156" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N156" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>414</v>
-      </c>
-      <c r="B157" t="s">
-        <v>850</v>
-      </c>
-      <c r="C157" t="s">
-        <v>546</v>
-      </c>
-      <c r="D157" t="s">
-        <v>547</v>
-      </c>
-      <c r="E157" t="s">
-        <v>561</v>
-      </c>
-      <c r="F157" t="s">
-        <v>853</v>
-      </c>
-      <c r="G157" t="s">
-        <v>550</v>
-      </c>
-      <c r="H157" t="s">
-        <v>550</v>
-      </c>
-      <c r="I157" t="s">
-        <v>550</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="M157" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N157" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>414</v>
-      </c>
-      <c r="B158" t="s">
-        <v>850</v>
-      </c>
-      <c r="C158" t="s">
-        <v>578</v>
-      </c>
-      <c r="D158" t="s">
-        <v>609</v>
-      </c>
-      <c r="E158" t="s">
-        <v>601</v>
-      </c>
-      <c r="F158" t="s">
-        <v>856</v>
-      </c>
-      <c r="G158" t="s">
-        <v>550</v>
-      </c>
-      <c r="H158" t="s">
-        <v>550</v>
-      </c>
-      <c r="I158" t="s">
-        <v>550</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="M158" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N158" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>414</v>
-      </c>
-      <c r="B159" t="s">
-        <v>850</v>
-      </c>
-      <c r="C159" t="s">
-        <v>553</v>
-      </c>
-      <c r="D159" t="s">
-        <v>571</v>
-      </c>
-      <c r="E159" t="s">
-        <v>548</v>
-      </c>
-      <c r="F159" t="s">
-        <v>856</v>
-      </c>
-      <c r="G159" t="s">
-        <v>550</v>
-      </c>
-      <c r="H159" t="s">
-        <v>550</v>
-      </c>
-      <c r="I159" t="s">
-        <v>550</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N159" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>414</v>
-      </c>
-      <c r="B160" t="s">
-        <v>850</v>
-      </c>
-      <c r="C160" t="s">
-        <v>553</v>
-      </c>
-      <c r="D160" t="s">
-        <v>609</v>
-      </c>
-      <c r="E160" t="s">
-        <v>601</v>
-      </c>
-      <c r="F160" t="s">
-        <v>856</v>
-      </c>
-      <c r="G160" t="s">
-        <v>550</v>
-      </c>
-      <c r="H160" t="s">
-        <v>550</v>
-      </c>
-      <c r="I160" t="s">
-        <v>550</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N160" t="s">
-        <v>862</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="163">
-    <dataValidation type="list" sqref="H10:H160">
+  <dataValidations count="152">
+    <dataValidation type="list" sqref="H10:H149">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H160">
+    <dataValidation type="list" sqref="H2:H149">
       <formula1>Info!$A$2:$A$156</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I10">
@@ -14179,42 +13650,9 @@
     <dataValidation type="list" sqref="I15">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H15,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I150">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H150,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I151">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H151,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I152">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H152,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I153">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H153,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I154">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H154,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I155">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H155,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I156">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H156,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I157">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H157,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I158">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H158,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I159">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H159,"-","_"))</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="I16">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H16,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I160">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H160,"-","_"))</formula1>
-    </dataValidation>
     <dataValidation type="list" sqref="I17">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H17,"-","_"))</formula1>
     </dataValidation>
@@ -14488,11 +13926,11 @@
     <dataValidation type="list" sqref="I99">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H99,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J160">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J10:J149">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J160">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J149">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="573">
   <si>
     <t>VAT</t>
   </si>
@@ -1286,6 +1286,9 @@
     <t>76860335-9</t>
   </si>
   <si>
+    <t>EMPRESA ZOR CI</t>
+  </si>
+  <si>
     <t>76933672-9</t>
   </si>
   <si>
@@ -1661,40 +1664,73 @@
     <t>PESO VALORIZADO</t>
   </si>
   <si>
-    <t>est_cm2 - Región de Arica y Parinacota</t>
+    <t>zor-ges-arica - Región de Arica y Parinacota</t>
   </si>
   <si>
     <t>Valorización Energética</t>
   </si>
   <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Envase Aluminio</t>
+  </si>
+  <si>
+    <t>11/09/2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>Disposición Final en RS</t>
+  </si>
+  <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>Plástico Film Embalaje</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>Plástico Zuncho</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>664</t>
+  </si>
+  <si>
+    <t>zor-ges-santiago - Región Metropolitana</t>
+  </si>
+  <si>
+    <t>DF en Relleno Seguridad</t>
+  </si>
+  <si>
     <t>Madera</t>
   </si>
   <si>
     <t>Pallet de Madera</t>
   </si>
   <si>
-    <t>07/09/2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>Caja de Madera</t>
-  </si>
-  <si>
-    <t>08/09/2023</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>657</t>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>666</t>
   </si>
 </sst>
 </file>
@@ -2723,8 +2759,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="_11992209_7" displayName="_11992209_7" ref="C1:C45" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="C1:C45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="_11992209_7" displayName="_11992209_7" ref="C1:C46" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="C1:C46">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -5336,569 +5372,572 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>423</v>
       </c>
+      <c r="C46" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6069,7 +6108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
@@ -6089,136 +6128,224 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="N2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H3" t="s">
+        <v>555</v>
+      </c>
+      <c r="I3" t="s">
+        <v>555</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="N3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" t="s">
         <v>550</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>551</v>
       </c>
-      <c r="E3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F3" t="s">
-        <v>558</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E4" t="s">
+        <v>563</v>
+      </c>
+      <c r="F4" t="s">
         <v>554</v>
       </c>
-      <c r="H3" t="s">
-        <v>554</v>
-      </c>
-      <c r="I3" t="s">
-        <v>554</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="N3" t="s">
-        <v>560</v>
+      <c r="G4" t="s">
+        <v>555</v>
+      </c>
+      <c r="H4" t="s">
+        <v>555</v>
+      </c>
+      <c r="I4" t="s">
+        <v>555</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="N4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H5" t="s">
+        <v>555</v>
+      </c>
+      <c r="I5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="N5" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" sqref="H2:H3">
+  <dataValidations count="6">
+    <dataValidation type="list" sqref="H2:H5">
       <formula1>Info!$A$2:$A$157</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2">
@@ -6227,7 +6354,13 @@
     <dataValidation type="list" sqref="I3">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H3,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J3">
+    <dataValidation type="list" sqref="I4">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H4,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I5">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H5,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J5">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1531">
   <si>
     <t>VAT</t>
   </si>
@@ -2082,29 +2082,22 @@
     <t>Rembre Magallanes SPA</t>
   </si>
   <si>
+    <t>RECICLADORA 2020 SPA</t>
+  </si>
+  <si>
+    <t>Sociedad Comercial Degraf Ltda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakelite Resinas </t>
+  </si>
+  <si>
+    <t>Sustrendlab SPA</t>
+  </si>
+  <si>
     <t>DPAirless Chile SpA</t>
   </si>
   <si>
     <t>Paz Recycling</t>
-  </si>
-  <si>
-    <t>Plantas Polpaico del Pacifico Limitada</t>
-  </si>
-  <si>
-    <t>Agroorgánicos Mostazal Limitada</t>
-  </si>
-  <si>
-    <t>Servicios Tecnicos Urbanos Ltda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recicamp - PAPELES Y CARTONES CONSTANZA LTDA
-</t>
-  </si>
-  <si>
-    <t>Construya Ltda.</t>
-  </si>
-  <si>
-    <t>SOCIEDAD COMERCIAL RECMETAL COMPANIA LIMITADA</t>
   </si>
   <si>
     <t>Terramar</t>
@@ -2748,13 +2741,25 @@
     <t>Fundición Talleres Ltda.</t>
   </si>
   <si>
+    <t>Saboraid Pet S.A.</t>
+  </si>
+  <si>
+    <t>Mol Ambiente Sociedad Anonima</t>
+  </si>
+  <si>
     <t>RELLENOS SANITARIOS DEL MAULE S A</t>
   </si>
   <si>
+    <t xml:space="preserve">Dimensión S.A. </t>
+  </si>
+  <si>
     <t>Ecomaule S A</t>
   </si>
   <si>
     <t>Ecofibras</t>
+  </si>
+  <si>
+    <t>Los Glaciares S A</t>
   </si>
   <si>
     <t>Inversiones Las Garzas Sa</t>
@@ -4525,6 +4530,9 @@
     <t>EMPRESA CI</t>
   </si>
   <si>
+    <t>EMPRESA GESTOR</t>
+  </si>
+  <si>
     <t>ESTABLECIMIENTO</t>
   </si>
   <si>
@@ -4609,49 +4617,25 @@
     <t>Metal</t>
   </si>
   <si>
-    <t>Esquineros Metal</t>
-  </si>
-  <si>
-    <t>01/04/2024</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1289</t>
-  </si>
-  <si>
-    <t>Preparación Reutilización</t>
-  </si>
-  <si>
     <t>Malla o Reja (IBC)</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1290</t>
+    <t>15/04/2024</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>1328</t>
   </si>
   <si>
     <t>Envase Hojalata</t>
   </si>
   <si>
-    <t>02/04/2024</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>1291</t>
-  </si>
-  <si>
-    <t>05/04/2024</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1293</t>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>1335</t>
   </si>
 </sst>
 </file>
@@ -6364,8 +6348,8 @@
 </file>
 
 <file path=xl/tables/table223.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="223" name="_77167876_9" displayName="_77167876_9" ref="HO1:HO1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HO1:HO1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="223" name="_77167876_9" displayName="_77167876_9" ref="HO1:HO2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HO1:HO2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6376,8 +6360,8 @@
 </file>
 
 <file path=xl/tables/table224.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="224" name="_77179750_4" displayName="_77179750_4" ref="HP1:HP1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HP1:HP1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="224" name="_77179750_4" displayName="_77179750_4" ref="HP1:HP2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HP1:HP2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6388,8 +6372,8 @@
 </file>
 
 <file path=xl/tables/table225.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="225" name="_77195620_3" displayName="_77195620_3" ref="HQ1:HQ1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HQ1:HQ1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="225" name="_77195620_3" displayName="_77195620_3" ref="HQ1:HQ2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HQ1:HQ2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6400,8 +6384,8 @@
 </file>
 
 <file path=xl/tables/table226.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="226" name="_77209527_9" displayName="_77209527_9" ref="HR1:HR1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HR1:HR1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="226" name="_77209527_9" displayName="_77209527_9" ref="HR1:HR2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HR1:HR2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6460,8 +6444,8 @@
 </file>
 
 <file path=xl/tables/table230.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="230" name="_77328490_3" displayName="_77328490_3" ref="HV1:HV2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HV1:HV2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="230" name="_77328490_3" displayName="_77328490_3" ref="HV1:HV1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HV1:HV1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6484,8 +6468,8 @@
 </file>
 
 <file path=xl/tables/table232.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="232" name="_77429370_1" displayName="_77429370_1" ref="HX1:HX2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HX1:HX2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="232" name="_77429370_1" displayName="_77429370_1" ref="HX1:HX1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HX1:HX1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6496,8 +6480,8 @@
 </file>
 
 <file path=xl/tables/table233.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="233" name="_77462400_7" displayName="_77462400_7" ref="HY1:HY2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HY1:HY2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="233" name="_77462400_7" displayName="_77462400_7" ref="HY1:HY1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HY1:HY1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6544,8 +6528,8 @@
 </file>
 
 <file path=xl/tables/table237.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="237" name="_77583350_5" displayName="_77583350_5" ref="IC1:IC2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="IC1:IC2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="237" name="_77583350_5" displayName="_77583350_5" ref="IC1:IC1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="IC1:IC1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6556,8 +6540,8 @@
 </file>
 
 <file path=xl/tables/table238.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="238" name="_77610380_2" displayName="_77610380_2" ref="ID1:ID2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="ID1:ID2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="238" name="_77610380_2" displayName="_77610380_2" ref="ID1:ID1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="ID1:ID1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6568,8 +6552,8 @@
 </file>
 
 <file path=xl/tables/table239.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="239" name="_77612130_4" displayName="_77612130_4" ref="IE1:IE2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="IE1:IE2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="239" name="_77612130_4" displayName="_77612130_4" ref="IE1:IE1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="IE1:IE1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -9412,8 +9396,8 @@
 </file>
 
 <file path=xl/tables/table452.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="452" name="_99535460_8" displayName="_99535460_8" ref="QJ1:QJ1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="QJ1:QJ1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="452" name="_99535460_8" displayName="_99535460_8" ref="QJ1:QJ2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="QJ1:QJ2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -9424,8 +9408,8 @@
 </file>
 
 <file path=xl/tables/table453.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="453" name="_99536660_6" displayName="_99536660_6" ref="QK1:QK1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="QK1:QK1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="453" name="_99536660_6" displayName="_99536660_6" ref="QK1:QK2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="QK1:QK2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -9448,8 +9432,8 @@
 </file>
 
 <file path=xl/tables/table455.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="455" name="_99538350_0" displayName="_99538350_0" ref="QM1:QM1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="QM1:QM1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="455" name="_99538350_0" displayName="_99538350_0" ref="QM1:QM2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="QM1:QM2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -9484,8 +9468,8 @@
 </file>
 
 <file path=xl/tables/table458.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="458" name="_99553930_6" displayName="_99553930_6" ref="QP1:QP1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="QP1:QP1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="458" name="_99553930_6" displayName="_99553930_6" ref="QP1:QP2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="QP1:QP2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -12631,1310 +12615,1316 @@
       <c r="HN2" t="s">
         <v>683</v>
       </c>
+      <c r="HO2" t="s">
+        <v>684</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>685</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>686</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>687</v>
+      </c>
       <c r="HS2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="HT2" t="s">
-        <v>685</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>686</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>687</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>688</v>
-      </c>
-      <c r="IC2" t="s">
         <v>689</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="IF2" t="s">
         <v>690</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="IG2" t="s">
         <v>691</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="IH2" t="s">
         <v>692</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="II2" t="s">
         <v>693</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="IJ2" t="s">
         <v>694</v>
       </c>
-      <c r="II2" t="s">
+      <c r="IK2" t="s">
         <v>695</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="IL2" t="s">
         <v>696</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="IM2" t="s">
         <v>697</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="IN2" t="s">
         <v>698</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="IO2" t="s">
         <v>699</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="IP2" t="s">
         <v>700</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="IQ2" t="s">
         <v>701</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="IR2" t="s">
         <v>702</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="IS2" t="s">
         <v>703</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="IT2" t="s">
         <v>704</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="IU2" t="s">
         <v>705</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="IV2" t="s">
         <v>706</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="IW2" t="s">
         <v>707</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="IX2" t="s">
         <v>708</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="IY2" t="s">
         <v>709</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="IZ2" t="s">
         <v>710</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="JA2" t="s">
         <v>711</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="JB2" t="s">
         <v>712</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="JC2" t="s">
         <v>713</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="JD2" t="s">
         <v>714</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="JE2" t="s">
         <v>715</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="JF2" t="s">
         <v>716</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="JG2" t="s">
         <v>717</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="JH2" t="s">
         <v>718</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="JI2" t="s">
         <v>719</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="JJ2" t="s">
         <v>720</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="JK2" t="s">
         <v>721</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="JL2" t="s">
         <v>722</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="JM2" t="s">
         <v>723</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="JN2" t="s">
         <v>724</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="JO2" t="s">
         <v>725</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="JP2" t="s">
         <v>726</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="JQ2" t="s">
         <v>727</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="JR2" t="s">
         <v>728</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="JS2" t="s">
         <v>729</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="JT2" t="s">
         <v>730</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="JU2" t="s">
         <v>731</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="JV2" t="s">
         <v>732</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="JW2" t="s">
         <v>733</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="JX2" t="s">
         <v>734</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="JY2" t="s">
         <v>735</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="JZ2" t="s">
         <v>736</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="KA2" t="s">
         <v>737</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="KB2" t="s">
         <v>738</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="KC2" t="s">
         <v>739</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="KD2" t="s">
         <v>740</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="KE2" t="s">
         <v>741</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="KF2" t="s">
         <v>742</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="KG2" t="s">
         <v>743</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="KH2" t="s">
         <v>744</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="KI2" t="s">
         <v>745</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="KJ2" t="s">
         <v>746</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="KK2" t="s">
         <v>747</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="KL2" t="s">
         <v>748</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="KM2" t="s">
         <v>749</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="KN2" t="s">
         <v>750</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="KO2" t="s">
         <v>751</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="KP2" t="s">
         <v>752</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="KQ2" t="s">
         <v>753</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="KR2" t="s">
         <v>754</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="KS2" t="s">
         <v>755</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="KT2" t="s">
+        <v>755</v>
+      </c>
+      <c r="KU2" t="s">
         <v>756</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="KV2" t="s">
         <v>757</v>
       </c>
-      <c r="KT2" t="s">
-        <v>757</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="KW2" t="s">
         <v>758</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="KX2" t="s">
         <v>759</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="KY2" t="s">
         <v>760</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="KZ2" t="s">
         <v>761</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="LA2" t="s">
         <v>762</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="LB2" t="s">
         <v>763</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="LC2" t="s">
         <v>764</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="LD2" t="s">
         <v>765</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="LE2" t="s">
         <v>766</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="LF2" t="s">
         <v>767</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="LG2" t="s">
         <v>768</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="LH2" t="s">
         <v>769</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="LI2" t="s">
         <v>770</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="LJ2" t="s">
         <v>771</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="LK2" t="s">
         <v>772</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="LL2" t="s">
         <v>773</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="LM2" t="s">
         <v>774</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="LN2" t="s">
         <v>775</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="LO2" t="s">
         <v>776</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="LP2" t="s">
         <v>777</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="LQ2" t="s">
         <v>778</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="LR2" t="s">
         <v>779</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="LS2" t="s">
         <v>780</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="LT2" t="s">
         <v>781</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="LU2" t="s">
         <v>782</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="LV2" t="s">
         <v>783</v>
       </c>
-      <c r="LU2" t="s">
+      <c r="LW2" t="s">
         <v>784</v>
       </c>
-      <c r="LV2" t="s">
+      <c r="LX2" t="s">
         <v>785</v>
       </c>
-      <c r="LW2" t="s">
+      <c r="LY2" t="s">
         <v>786</v>
       </c>
-      <c r="LX2" t="s">
+      <c r="LZ2" t="s">
         <v>787</v>
       </c>
-      <c r="LY2" t="s">
+      <c r="MA2" t="s">
         <v>788</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="MB2" t="s">
         <v>789</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="MC2" t="s">
         <v>790</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="MD2" t="s">
         <v>791</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="ME2" t="s">
         <v>792</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="MF2" t="s">
         <v>793</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="MG2" t="s">
         <v>794</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="MH2" t="s">
         <v>795</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="MI2" t="s">
         <v>796</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="MJ2" t="s">
         <v>797</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="MK2" t="s">
         <v>798</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="ML2" t="s">
         <v>799</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="MM2" t="s">
         <v>800</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="MN2" t="s">
+        <v>800</v>
+      </c>
+      <c r="MO2" t="s">
         <v>801</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="MP2" t="s">
         <v>802</v>
       </c>
-      <c r="MN2" t="s">
-        <v>802</v>
-      </c>
-      <c r="MO2" t="s">
+      <c r="MQ2" t="s">
         <v>803</v>
       </c>
-      <c r="MP2" t="s">
+      <c r="MR2" t="s">
         <v>804</v>
       </c>
-      <c r="MQ2" t="s">
+      <c r="MS2" t="s">
         <v>805</v>
       </c>
-      <c r="MR2" t="s">
+      <c r="MT2" t="s">
         <v>806</v>
       </c>
-      <c r="MS2" t="s">
+      <c r="MU2" t="s">
         <v>807</v>
       </c>
-      <c r="MT2" t="s">
+      <c r="MV2" t="s">
         <v>808</v>
       </c>
-      <c r="MU2" t="s">
+      <c r="MW2" t="s">
         <v>809</v>
       </c>
-      <c r="MV2" t="s">
+      <c r="MX2" t="s">
         <v>810</v>
       </c>
-      <c r="MW2" t="s">
+      <c r="MY2" t="s">
         <v>811</v>
       </c>
-      <c r="MX2" t="s">
+      <c r="MZ2" t="s">
         <v>812</v>
       </c>
-      <c r="MY2" t="s">
+      <c r="NA2" t="s">
         <v>813</v>
       </c>
-      <c r="MZ2" t="s">
+      <c r="NB2" t="s">
         <v>814</v>
       </c>
-      <c r="NA2" t="s">
+      <c r="NC2" t="s">
         <v>815</v>
       </c>
-      <c r="NB2" t="s">
+      <c r="ND2" t="s">
         <v>816</v>
       </c>
-      <c r="NC2" t="s">
+      <c r="NE2" t="s">
         <v>817</v>
       </c>
-      <c r="ND2" t="s">
+      <c r="NF2" t="s">
         <v>818</v>
       </c>
-      <c r="NE2" t="s">
+      <c r="NG2" t="s">
         <v>819</v>
       </c>
-      <c r="NF2" t="s">
+      <c r="NH2" t="s">
         <v>820</v>
       </c>
-      <c r="NG2" t="s">
+      <c r="NI2" t="s">
         <v>821</v>
       </c>
-      <c r="NH2" t="s">
+      <c r="NJ2" t="s">
         <v>822</v>
       </c>
-      <c r="NI2" t="s">
+      <c r="NK2" t="s">
         <v>823</v>
       </c>
-      <c r="NJ2" t="s">
+      <c r="NL2" t="s">
         <v>824</v>
       </c>
-      <c r="NK2" t="s">
+      <c r="NM2" t="s">
         <v>825</v>
       </c>
-      <c r="NL2" t="s">
+      <c r="NN2" t="s">
         <v>826</v>
       </c>
-      <c r="NM2" t="s">
+      <c r="NO2" t="s">
         <v>827</v>
       </c>
-      <c r="NN2" t="s">
+      <c r="NP2" t="s">
         <v>828</v>
       </c>
-      <c r="NO2" t="s">
+      <c r="NQ2" t="s">
         <v>829</v>
       </c>
-      <c r="NP2" t="s">
+      <c r="NR2" t="s">
         <v>830</v>
       </c>
-      <c r="NQ2" t="s">
+      <c r="NS2" t="s">
         <v>831</v>
       </c>
-      <c r="NR2" t="s">
+      <c r="NT2" t="s">
         <v>832</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="NU2" t="s">
         <v>833</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="NV2" t="s">
         <v>834</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="NW2" t="s">
         <v>835</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="NX2" t="s">
         <v>836</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="NY2" t="s">
         <v>837</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="NZ2" t="s">
         <v>838</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="OA2" t="s">
         <v>839</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="OB2" t="s">
         <v>840</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="OC2" t="s">
         <v>841</v>
       </c>
-      <c r="OB2" t="s">
+      <c r="OD2" t="s">
         <v>842</v>
       </c>
-      <c r="OC2" t="s">
+      <c r="OE2" t="s">
         <v>843</v>
       </c>
-      <c r="OD2" t="s">
+      <c r="OF2" t="s">
         <v>844</v>
       </c>
-      <c r="OE2" t="s">
+      <c r="OG2" t="s">
         <v>845</v>
       </c>
-      <c r="OF2" t="s">
+      <c r="OH2" t="s">
         <v>846</v>
       </c>
-      <c r="OG2" t="s">
+      <c r="OI2" t="s">
         <v>847</v>
       </c>
-      <c r="OH2" t="s">
+      <c r="OJ2" t="s">
         <v>848</v>
       </c>
-      <c r="OI2" t="s">
+      <c r="OK2" t="s">
         <v>849</v>
       </c>
-      <c r="OJ2" t="s">
+      <c r="OL2" t="s">
         <v>850</v>
       </c>
-      <c r="OK2" t="s">
+      <c r="OM2" t="s">
         <v>851</v>
       </c>
-      <c r="OL2" t="s">
+      <c r="ON2" t="s">
         <v>852</v>
       </c>
-      <c r="OM2" t="s">
+      <c r="OO2" t="s">
         <v>853</v>
       </c>
-      <c r="ON2" t="s">
+      <c r="OP2" t="s">
         <v>854</v>
       </c>
-      <c r="OO2" t="s">
+      <c r="OQ2" t="s">
         <v>855</v>
       </c>
-      <c r="OP2" t="s">
+      <c r="OR2" t="s">
         <v>856</v>
       </c>
-      <c r="OQ2" t="s">
+      <c r="OS2" t="s">
         <v>857</v>
       </c>
-      <c r="OR2" t="s">
+      <c r="OT2" t="s">
         <v>858</v>
       </c>
-      <c r="OS2" t="s">
+      <c r="OU2" t="s">
         <v>859</v>
       </c>
-      <c r="OT2" t="s">
+      <c r="OV2" t="s">
         <v>860</v>
       </c>
-      <c r="OU2" t="s">
+      <c r="OW2" t="s">
         <v>861</v>
       </c>
-      <c r="OV2" t="s">
+      <c r="OX2" t="s">
         <v>862</v>
       </c>
-      <c r="OW2" t="s">
+      <c r="OY2" t="s">
         <v>863</v>
       </c>
-      <c r="OX2" t="s">
+      <c r="OZ2" t="s">
         <v>864</v>
       </c>
-      <c r="OY2" t="s">
+      <c r="PA2" t="s">
         <v>865</v>
       </c>
-      <c r="OZ2" t="s">
+      <c r="PB2" t="s">
         <v>866</v>
       </c>
-      <c r="PA2" t="s">
+      <c r="PC2" t="s">
         <v>867</v>
       </c>
-      <c r="PB2" t="s">
+      <c r="PD2" t="s">
         <v>868</v>
       </c>
-      <c r="PC2" t="s">
+      <c r="PE2" t="s">
         <v>869</v>
       </c>
-      <c r="PD2" t="s">
+      <c r="PF2" t="s">
         <v>870</v>
       </c>
-      <c r="PE2" t="s">
+      <c r="PG2" t="s">
         <v>871</v>
       </c>
-      <c r="PF2" t="s">
+      <c r="PH2" t="s">
         <v>872</v>
       </c>
-      <c r="PG2" t="s">
+      <c r="PI2" t="s">
         <v>873</v>
       </c>
-      <c r="PH2" t="s">
+      <c r="PJ2" t="s">
         <v>874</v>
       </c>
-      <c r="PI2" t="s">
+      <c r="PK2" t="s">
         <v>875</v>
       </c>
-      <c r="PJ2" t="s">
+      <c r="PL2" t="s">
         <v>876</v>
       </c>
-      <c r="PK2" t="s">
+      <c r="PM2" t="s">
         <v>877</v>
       </c>
-      <c r="PL2" t="s">
+      <c r="PN2" t="s">
         <v>878</v>
       </c>
-      <c r="PM2" t="s">
+      <c r="PO2" t="s">
         <v>879</v>
       </c>
-      <c r="PN2" t="s">
+      <c r="PP2" t="s">
         <v>880</v>
       </c>
-      <c r="PO2" t="s">
+      <c r="PQ2" t="s">
         <v>881</v>
       </c>
-      <c r="PP2" t="s">
+      <c r="PR2" t="s">
         <v>882</v>
       </c>
-      <c r="PQ2" t="s">
+      <c r="PS2" t="s">
         <v>883</v>
       </c>
-      <c r="PR2" t="s">
+      <c r="PT2" t="s">
         <v>884</v>
       </c>
-      <c r="PS2" t="s">
+      <c r="PU2" t="s">
         <v>885</v>
       </c>
-      <c r="PT2" t="s">
+      <c r="PV2" t="s">
         <v>886</v>
       </c>
-      <c r="PU2" t="s">
+      <c r="PW2" t="s">
         <v>887</v>
       </c>
-      <c r="PV2" t="s">
+      <c r="PX2" t="s">
         <v>888</v>
       </c>
-      <c r="PW2" t="s">
+      <c r="PY2" t="s">
         <v>889</v>
       </c>
-      <c r="PX2" t="s">
+      <c r="PZ2" t="s">
         <v>890</v>
       </c>
-      <c r="PY2" t="s">
+      <c r="QA2" t="s">
         <v>891</v>
       </c>
-      <c r="PZ2" t="s">
+      <c r="QB2" t="s">
         <v>892</v>
       </c>
-      <c r="QA2" t="s">
+      <c r="QC2" t="s">
         <v>893</v>
       </c>
-      <c r="QB2" t="s">
+      <c r="QD2" t="s">
         <v>894</v>
       </c>
-      <c r="QC2" t="s">
+      <c r="QE2" t="s">
         <v>895</v>
       </c>
-      <c r="QD2" t="s">
+      <c r="QF2" t="s">
         <v>896</v>
       </c>
-      <c r="QE2" t="s">
+      <c r="QG2" t="s">
         <v>897</v>
       </c>
-      <c r="QF2" t="s">
+      <c r="QH2" t="s">
         <v>898</v>
       </c>
-      <c r="QG2" t="s">
+      <c r="QI2" t="s">
         <v>899</v>
       </c>
-      <c r="QH2" t="s">
+      <c r="QJ2" t="s">
         <v>900</v>
       </c>
-      <c r="QI2" t="s">
+      <c r="QK2" t="s">
         <v>901</v>
       </c>
       <c r="QL2" t="s">
         <v>902</v>
       </c>
+      <c r="QM2" t="s">
+        <v>903</v>
+      </c>
       <c r="QN2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="QO2" t="s">
-        <v>904</v>
+        <v>905</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>906</v>
       </c>
       <c r="QQ2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="QR2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="QS2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="QT2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:434" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D3" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="M3" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="P3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="Q3" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="R3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="AS3" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="DT3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="EP3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="GY3" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="KY3" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="LI3" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="LV3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="MF3" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="NJ3" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="NU3" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="OP3" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="OS3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="PR3" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4" spans="1:409" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D4" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="P4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="Q4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="R4" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="OS4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D5" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="M5" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="Q5" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="R5" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D6" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="M6" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="Q6" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="R6" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D7" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M7" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="Q7" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="R7" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D8" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M8" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="Q8" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D9" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M9" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="Q9" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D10" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="M10" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="Q10" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D11" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="M11" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="Q11" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D12" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M12" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D13" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="M13" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D14" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="M14" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D15" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="M15" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D16" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="M16" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D17" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M17" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D18" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="M18" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D19" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="M19" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D20" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="M20" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D21" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M21" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D22" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="M22" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D23" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="M23" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D24" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M24" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D25" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="M25" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D26" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="M26" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D27" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="M27" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D28" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="M28" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D29" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="M29" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D30" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D31" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D32" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D33" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D34" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D35" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D36" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D37" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D38" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D39" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D40" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D41" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="D42" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="D43" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D44" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D45" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D46" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D47" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D48" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D49" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D50" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D51" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D52" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D53" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D54" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D55" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D56" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D57" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D58" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D59" t="s">
         <v>475</v>
@@ -13942,2053 +13932,2053 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D60" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D61" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D62" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D63" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D64" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D65" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D66" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D67" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D68" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D69" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D70" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D71" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
   </sheetData>
@@ -16463,353 +16453,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="9" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="17" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="B1" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="D1" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="E1" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="F1" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="G1" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="H1" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="I1" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="J1" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="K1" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="L1" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="M1" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B2" t="s">
-        <v>1505</v>
+        <v>915</v>
       </c>
       <c r="C2" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="D2" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="E2" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F2" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="G2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E3" t="s">
         <v>1510</v>
       </c>
-      <c r="H2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>964</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H3" t="s">
         <v>1513</v>
       </c>
-      <c r="C3" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1510</v>
-      </c>
       <c r="I3" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1510</v>
+        <v>1513</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1513</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D4" t="s">
         <v>1517</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>964</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1520</v>
-      </c>
       <c r="E4" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="F4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B5" t="s">
+        <v>950</v>
+      </c>
+      <c r="C5" t="s">
         <v>1522</v>
       </c>
-      <c r="G4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="D5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E5" t="s">
         <v>1523</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>964</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="F5" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>964</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="N5" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="O5" t="s">
         <v>1530</v>
       </c>
-      <c r="G6" t="s">
-        <v>1510</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>964</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1510</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1535</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" sqref="H2:H7">
+  <dataValidations count="6">
+    <dataValidation type="list" sqref="I2:I5">
       <formula1>Info!$A$2:$A$461</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I2">
+    <dataValidation type="list" sqref="J2">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H2,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I3">
+    <dataValidation type="list" sqref="J3">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H3,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I4">
+    <dataValidation type="list" sqref="J4">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H4,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I5">
+    <dataValidation type="list" sqref="J5">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H5,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I6">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H6,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I7">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H7,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="J2:J7">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="K2:K5">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1648">
   <si>
     <t>VAT</t>
   </si>
@@ -1418,16 +1418,10 @@
     <t>Empresa DEMO 2</t>
   </si>
   <si>
-    <t>Dimter (Gustavo Alonso Dimter Chacón)</t>
-  </si>
-  <si>
     <t>EMPRESA ZOR CI 2</t>
   </si>
   <si>
     <t>EMPRESA RECICLADORA 2</t>
-  </si>
-  <si>
-    <t>Excedentes Industriales Christian Rojas Concha</t>
   </si>
   <si>
     <t>Empresa ZOR-20</t>
@@ -2045,13 +2039,7 @@
     <t>Recycling S. A.</t>
   </si>
   <si>
-    <t>Avient Chile</t>
-  </si>
-  <si>
     <t>Fertiamerica SpA</t>
-  </si>
-  <si>
-    <t>Comercial Bendito Residuo SPA</t>
   </si>
   <si>
     <t xml:space="preserve">Hitachi Energy </t>
@@ -2100,6 +2088,40 @@
     <t>Paz Recycling</t>
   </si>
   <si>
+    <t>Sociedad Comercializadora Importadora Y Exportadora De Excedentes Industriales Poliplas Ltda.</t>
+  </si>
+  <si>
+    <t>Plantas Polpaico del Pacifico Limitada</t>
+  </si>
+  <si>
+    <t>Sociedad Industrial de Plástico Ltda.</t>
+  </si>
+  <si>
+    <t>Agroorgánicos Mostazal Limitada</t>
+  </si>
+  <si>
+    <t>Servicios Tecnicos Urbanos Ltda.</t>
+  </si>
+  <si>
+    <t>Andritz Chile</t>
+  </si>
+  <si>
+    <t>Comfrut Chile</t>
+  </si>
+  <si>
+    <t>Sociedad Comercial Leo Limitada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recicamp - PAPELES Y CARTONES CONSTANZA LTDA
+</t>
+  </si>
+  <si>
+    <t>Construya Ltda.</t>
+  </si>
+  <si>
+    <t>SOCIEDAD COMERCIAL RECMETAL COMPANIA LIMITADA</t>
+  </si>
+  <si>
     <t>Terramar</t>
   </si>
   <si>
@@ -4593,33 +4615,168 @@
     <t>648</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>establecimiento 1 - Huara - Región de Tarapacá</t>
+  </si>
+  <si>
+    <t>Valorización Energética</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Papel Compuesto (Cemento)</t>
+  </si>
+  <si>
+    <t>26/12/2023</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
     <t>Prueba  - La Cisterna - Región Metropolitana</t>
   </si>
   <si>
-    <t>Valorización Energética</t>
-  </si>
-  <si>
-    <t>Papel Compuesto (Cemento)</t>
-  </si>
-  <si>
     <t>16/02/2024</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1283</t>
   </si>
   <si>
+    <t>10347</t>
+  </si>
+  <si>
+    <t>Los Aromos 2432 - La Serena - Quinta Región</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Papel Otros</t>
+  </si>
+  <si>
+    <t>23/03/1950</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Reciclaje Mecánico</t>
+  </si>
+  <si>
+    <t>Cartón RH</t>
+  </si>
+  <si>
+    <t>23/03/1951</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>Envase Aluminio</t>
+  </si>
+  <si>
+    <t>24/03/1951</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>santiago-etl3 - Las Condes - Región Metropolitana</t>
+  </si>
+  <si>
+    <t>24/08/2023</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>establecimiento dci1 - Valparaíso - Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>zz1-valpo - Casablanca - Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>23/11/2023</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>estab E-MV2 - Sierra Gorda - Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>02/12/2023</t>
+  </si>
+  <si>
+    <t>2.222</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
     <t>Test3 - Chañaral - Región de Atacama</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Malla o Reja (IBC)</t>
-  </si>
-  <si>
     <t>15/04/2024</t>
   </si>
   <si>
@@ -4636,6 +4793,201 @@
   </si>
   <si>
     <t>1335</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>DF en Relleno Seguridad</t>
+  </si>
+  <si>
+    <t>Metal Otros</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>22.22</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>1348</t>
+  </si>
+  <si>
+    <t>Reciclaje Interno</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
+    <t>44.44</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>55.55</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>Establecimiento - Fresia - Región de Los Lagos</t>
+  </si>
+  <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>ejemplo - Caldera - Región de Atacama</t>
+  </si>
+  <si>
+    <t>Esquineros Metal</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>25/08/2023</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>Plástico Envases Rigidos (Incl. Tapas)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>Mezclados</t>
+  </si>
+  <si>
+    <t>EyE sin separación</t>
+  </si>
+  <si>
+    <t>20.38</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>30.45</t>
+  </si>
+  <si>
+    <t>1338</t>
+  </si>
+  <si>
+    <t>40.68</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>26/05/2024</t>
+  </si>
+  <si>
+    <t>50.13</t>
+  </si>
+  <si>
+    <t>1340</t>
+  </si>
+  <si>
+    <t>25/05/2024</t>
+  </si>
+  <si>
+    <t>60.17</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>70.94</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>80.88</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>22/05/2024</t>
+  </si>
+  <si>
+    <t>90.99</t>
+  </si>
+  <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>100.56</t>
+  </si>
+  <si>
+    <t>1345</t>
   </si>
 </sst>
 </file>
@@ -4704,8 +5056,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" name="_14444936_3" displayName="_14444936_3" ref="J1:J2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="J1:J2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" name="_14444936_3" displayName="_14444936_3" ref="J1:J1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="J1:J1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6192,8 +6544,8 @@
 </file>
 
 <file path=xl/tables/table211.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="211" name="_77038524_5" displayName="_77038524_5" ref="HC1:HC2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HC1:HC2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="211" name="_77038524_5" displayName="_77038524_5" ref="HC1:HC1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HC1:HC1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6216,8 +6568,8 @@
 </file>
 
 <file path=xl/tables/table213.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="213" name="_77045065_9" displayName="_77045065_9" ref="HE1:HE2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HE1:HE2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="213" name="_77045065_9" displayName="_77045065_9" ref="HE1:HE1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HE1:HE1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6420,8 +6772,8 @@
 </file>
 
 <file path=xl/tables/table229.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="229" name="_77320250_8" displayName="_77320250_8" ref="HU1:HU1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HU1:HU1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="229" name="_77320250_8" displayName="_77320250_8" ref="HU1:HU2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HU1:HU2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6444,8 +6796,8 @@
 </file>
 
 <file path=xl/tables/table230.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="230" name="_77328490_3" displayName="_77328490_3" ref="HV1:HV1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HV1:HV1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="230" name="_77328490_3" displayName="_77328490_3" ref="HV1:HV2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HV1:HV2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6456,8 +6808,8 @@
 </file>
 
 <file path=xl/tables/table231.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="231" name="_77349350_2" displayName="_77349350_2" ref="HW1:HW1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HW1:HW1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="231" name="_77349350_2" displayName="_77349350_2" ref="HW1:HW2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HW1:HW2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6468,8 +6820,8 @@
 </file>
 
 <file path=xl/tables/table232.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="232" name="_77429370_1" displayName="_77429370_1" ref="HX1:HX1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HX1:HX1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="232" name="_77429370_1" displayName="_77429370_1" ref="HX1:HX2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HX1:HX2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6480,8 +6832,8 @@
 </file>
 
 <file path=xl/tables/table233.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="233" name="_77462400_7" displayName="_77462400_7" ref="HY1:HY1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HY1:HY1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="233" name="_77462400_7" displayName="_77462400_7" ref="HY1:HY2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HY1:HY2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6492,8 +6844,8 @@
 </file>
 
 <file path=xl/tables/table234.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="234" name="_77470940_1" displayName="_77470940_1" ref="HZ1:HZ1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HZ1:HZ1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="234" name="_77470940_1" displayName="_77470940_1" ref="HZ1:HZ2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HZ1:HZ2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6504,8 +6856,8 @@
 </file>
 
 <file path=xl/tables/table235.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="235" name="_77482236_4" displayName="_77482236_4" ref="IA1:IA1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="IA1:IA1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="235" name="_77482236_4" displayName="_77482236_4" ref="IA1:IA2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="IA1:IA2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6516,8 +6868,8 @@
 </file>
 
 <file path=xl/tables/table236.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="236" name="_77488470_K" displayName="_77488470_K" ref="IB1:IB1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="IB1:IB1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="236" name="_77488470_K" displayName="_77488470_K" ref="IB1:IB2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="IB1:IB2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6528,8 +6880,8 @@
 </file>
 
 <file path=xl/tables/table237.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="237" name="_77583350_5" displayName="_77583350_5" ref="IC1:IC1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="IC1:IC1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="237" name="_77583350_5" displayName="_77583350_5" ref="IC1:IC2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="IC1:IC2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6540,8 +6892,8 @@
 </file>
 
 <file path=xl/tables/table238.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="238" name="_77610380_2" displayName="_77610380_2" ref="ID1:ID1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="ID1:ID1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="238" name="_77610380_2" displayName="_77610380_2" ref="ID1:ID2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="ID1:ID2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6552,8 +6904,8 @@
 </file>
 
 <file path=xl/tables/table239.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="239" name="_77612130_4" displayName="_77612130_4" ref="IE1:IE1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="IE1:IE1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="239" name="_77612130_4" displayName="_77612130_4" ref="IE1:IE2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="IE1:IE2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -9840,8 +10192,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" name="_12660876_4" displayName="_12660876_4" ref="G1:G2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="G1:G2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" name="_12660876_4" displayName="_12660876_4" ref="G1:G1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="G1:G1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -11967,4018 +12319,4039 @@
       <c r="F2" t="s">
         <v>467</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>468</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>469</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>470</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>471</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>472</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>473</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>474</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>475</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>476</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>477</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>478</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>479</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>480</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>481</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>482</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>483</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>484</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>485</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>486</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>487</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>488</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>489</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>490</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>491</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>492</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>493</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>494</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>495</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>496</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>497</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>498</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>499</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>500</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>501</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>502</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>503</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>504</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>505</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>506</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>507</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>508</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>509</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>510</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>511</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>512</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>513</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>514</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>515</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>516</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>517</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>518</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>519</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>520</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>521</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>522</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>523</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BM2" t="s">
         <v>524</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BN2" t="s">
         <v>525</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BO2" t="s">
         <v>526</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BP2" t="s">
         <v>527</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BQ2" t="s">
         <v>528</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>529</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BS2" t="s">
         <v>530</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BT2" t="s">
         <v>531</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BU2" t="s">
         <v>532</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>533</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BW2" t="s">
         <v>534</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BX2" t="s">
         <v>535</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BY2" t="s">
         <v>536</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BZ2" t="s">
         <v>537</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CA2" t="s">
         <v>538</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CB2" t="s">
         <v>539</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CC2" t="s">
         <v>540</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CD2" t="s">
         <v>541</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CE2" t="s">
         <v>542</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CF2" t="s">
         <v>543</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CG2" t="s">
         <v>544</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CH2" t="s">
         <v>545</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CI2" t="s">
         <v>546</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
         <v>547</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CK2" t="s">
         <v>548</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CL2" t="s">
         <v>549</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CM2" t="s">
         <v>550</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CN2" t="s">
         <v>551</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CO2" t="s">
         <v>552</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CP2" t="s">
         <v>553</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CQ2" t="s">
         <v>554</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CR2" t="s">
         <v>555</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CS2" t="s">
         <v>556</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CT2" t="s">
         <v>557</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CU2" t="s">
         <v>558</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CV2" t="s">
         <v>559</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CW2" t="s">
         <v>560</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CX2" t="s">
         <v>561</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CY2" t="s">
         <v>562</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CZ2" t="s">
         <v>563</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DA2" t="s">
         <v>564</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DB2" t="s">
         <v>565</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DC2" t="s">
         <v>566</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DD2" t="s">
         <v>567</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DE2" t="s">
         <v>568</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DF2" t="s">
         <v>569</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DG2" t="s">
         <v>570</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DH2" t="s">
         <v>571</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DI2" t="s">
         <v>572</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DJ2" t="s">
         <v>573</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DK2" t="s">
         <v>574</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DL2" t="s">
         <v>575</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DM2" t="s">
         <v>576</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DN2" t="s">
         <v>577</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DO2" t="s">
         <v>578</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DP2" t="s">
         <v>579</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DQ2" t="s">
         <v>580</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DR2" t="s">
         <v>581</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DS2" t="s">
         <v>582</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DT2" t="s">
         <v>583</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DU2" t="s">
         <v>584</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>585</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DW2" t="s">
         <v>586</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DX2" t="s">
         <v>587</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DY2" t="s">
         <v>588</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="DZ2" t="s">
         <v>589</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EA2" t="s">
         <v>590</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EB2" t="s">
         <v>591</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EC2" t="s">
         <v>592</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="ED2" t="s">
         <v>593</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EE2" t="s">
         <v>594</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EF2" t="s">
         <v>595</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EG2" t="s">
         <v>596</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EH2" t="s">
         <v>597</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EI2" t="s">
         <v>598</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EJ2" t="s">
         <v>599</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EK2" t="s">
         <v>600</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EL2" t="s">
         <v>601</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EM2" t="s">
         <v>602</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EN2" t="s">
         <v>603</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EO2" t="s">
         <v>604</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EP2" t="s">
         <v>605</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="EQ2" t="s">
         <v>606</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ER2" t="s">
         <v>607</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ES2" t="s">
         <v>608</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="ET2" t="s">
         <v>609</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EU2" t="s">
         <v>610</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EV2" t="s">
         <v>611</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EW2" t="s">
         <v>612</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EX2" t="s">
         <v>613</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EY2" t="s">
         <v>614</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="EZ2" t="s">
         <v>615</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FA2" t="s">
         <v>616</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FB2" t="s">
         <v>617</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FC2" t="s">
         <v>618</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FD2" t="s">
         <v>619</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FE2" t="s">
         <v>620</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FF2" t="s">
         <v>621</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FG2" t="s">
         <v>622</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FH2" t="s">
         <v>623</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FI2" t="s">
         <v>624</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FJ2" t="s">
         <v>625</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FK2" t="s">
         <v>626</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FL2" t="s">
         <v>627</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FM2" t="s">
         <v>628</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FN2" t="s">
         <v>629</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FO2" t="s">
         <v>630</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FP2" t="s">
         <v>631</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FQ2" t="s">
         <v>632</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FR2" t="s">
         <v>633</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FS2" t="s">
         <v>634</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FT2" t="s">
         <v>635</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FU2" t="s">
         <v>636</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="FV2" t="s">
         <v>637</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="FW2" t="s">
         <v>638</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="FX2" t="s">
         <v>639</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="FY2" t="s">
         <v>640</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="FZ2" t="s">
         <v>641</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GA2" t="s">
         <v>642</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GB2" t="s">
         <v>643</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GC2" t="s">
         <v>644</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GD2" t="s">
         <v>645</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="GE2" t="s">
         <v>646</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="GF2" t="s">
         <v>647</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="GG2" t="s">
         <v>648</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="GH2" t="s">
         <v>649</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="GI2" t="s">
         <v>650</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="GJ2" t="s">
         <v>651</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="GK2" t="s">
         <v>652</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="GL2" t="s">
         <v>653</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="GM2" t="s">
         <v>654</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="GN2" t="s">
         <v>655</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="GO2" t="s">
         <v>656</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="GP2" t="s">
         <v>657</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="GQ2" t="s">
         <v>658</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="GR2" t="s">
         <v>659</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="GS2" t="s">
         <v>660</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="GT2" t="s">
         <v>661</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="GU2" t="s">
         <v>662</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="GV2" t="s">
         <v>663</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="GW2" t="s">
         <v>664</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="GX2" t="s">
         <v>665</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="GY2" t="s">
         <v>666</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="GZ2" t="s">
         <v>667</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="HA2" t="s">
         <v>668</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="HB2" t="s">
         <v>669</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="HD2" t="s">
         <v>670</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="HF2" t="s">
         <v>671</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="HG2" t="s">
         <v>672</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="HH2" t="s">
         <v>673</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="HI2" t="s">
         <v>674</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="HJ2" t="s">
         <v>675</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="HK2" t="s">
         <v>676</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="HL2" t="s">
         <v>677</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="HM2" t="s">
         <v>678</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="HN2" t="s">
         <v>679</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="HO2" t="s">
         <v>680</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="HP2" t="s">
         <v>681</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="HQ2" t="s">
         <v>682</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="HR2" t="s">
         <v>683</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="HS2" t="s">
         <v>684</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="HT2" t="s">
         <v>685</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="HU2" t="s">
         <v>686</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="HV2" t="s">
         <v>687</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="HW2" t="s">
         <v>688</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="HX2" t="s">
         <v>689</v>
       </c>
+      <c r="HY2" t="s">
+        <v>690</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>691</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>692</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>693</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>694</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>695</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>696</v>
+      </c>
       <c r="IF2" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="IG2" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="IH2" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="II2" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="IJ2" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="IK2" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="IL2" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="IM2" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="IN2" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="IO2" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="IP2" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="IQ2" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="IR2" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="IS2" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="IT2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="IU2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="IV2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="IW2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="IX2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="IY2" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="IZ2" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="JA2" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="JB2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="JC2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="JD2" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="JE2" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="JF2" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="JG2" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="JH2" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="JI2" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="JJ2" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="JK2" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="JL2" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="JM2" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="JN2" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="JO2" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="JP2" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="JQ2" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="JR2" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="JS2" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="JT2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="JU2" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="JV2" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="JW2" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="JX2" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="JY2" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="JZ2" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="KA2" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="KB2" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="KC2" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="KD2" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="KE2" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="KF2" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="KG2" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="KH2" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="KI2" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="KJ2" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="KK2" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="KL2" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="KM2" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="KN2" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="KO2" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="KP2" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="KQ2" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="KR2" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="KS2" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="KT2" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="KU2" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="KV2" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="KW2" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="KX2" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="KY2" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="KZ2" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="LA2" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="LB2" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="LC2" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="LD2" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="LE2" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="LF2" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="LG2" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="LH2" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="LI2" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="LJ2" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="LK2" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="LL2" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="LM2" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="LN2" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="LO2" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="LP2" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="LQ2" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="LR2" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="LS2" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="LT2" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="LU2" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="LV2" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="LW2" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="LX2" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="LY2" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="LZ2" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="MA2" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="MB2" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="MC2" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="MD2" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="ME2" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="MF2" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="MG2" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="MH2" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="MI2" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="MJ2" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="MK2" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="ML2" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="MM2" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="MN2" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="MO2" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="MP2" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="MQ2" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="MR2" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="MS2" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="MT2" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="MU2" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="MV2" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="MW2" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="MX2" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="MY2" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="MZ2" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="NA2" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="NB2" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="NC2" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="ND2" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="NE2" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="NF2" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="NG2" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="NH2" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="NI2" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="NJ2" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="NK2" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="NL2" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="NM2" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="NN2" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="NO2" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="NP2" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="NQ2" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="NR2" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="NS2" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="NT2" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="NU2" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="NV2" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="NW2" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="NX2" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="NY2" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="NZ2" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="OA2" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="OB2" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="OC2" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="OD2" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="OE2" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="OF2" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="OG2" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="OH2" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="OI2" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="OJ2" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="OK2" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="OL2" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="OM2" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="ON2" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="OO2" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="OP2" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="OQ2" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="OR2" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="OS2" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="OT2" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="OU2" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="OV2" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="OW2" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="OX2" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="OY2" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="OZ2" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="PA2" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="PB2" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="PC2" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="PD2" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="PE2" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="PF2" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="PG2" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="PH2" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="PI2" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="PJ2" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="PK2" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="PL2" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="PM2" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="PN2" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="PO2" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="PP2" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="PQ2" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="PR2" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="PS2" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="PT2" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="PU2" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="PV2" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="PW2" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="PX2" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="PY2" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="PZ2" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="QA2" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="QB2" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="QC2" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="QD2" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="QE2" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="QF2" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="QG2" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="QH2" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="QI2" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="QJ2" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="QK2" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="QL2" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="QM2" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="QN2" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="QO2" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="QP2" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="QQ2" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="QR2" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="QS2" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="QT2" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:434" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="D3" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="M3" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="P3" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="Q3" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="R3" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="AS3" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="DT3" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="EP3" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="GY3" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="KY3" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="LI3" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="LV3" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="MF3" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="NJ3" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="NU3" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="OP3" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="OS3" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="PR3" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:409" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="D4" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="M4" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="P4" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="Q4" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="R4" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="OS4" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="D5" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="M5" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="Q5" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="R5" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="D6" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="M6" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="Q6" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="R6" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="D7" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="M7" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="Q7" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="R7" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="D8" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="M8" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="Q8" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="D9" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="M9" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="Q9" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="D10" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="M10" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="Q10" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="D11" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="M11" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="Q11" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="D12" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="M12" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="D13" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="M13" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="D14" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="M14" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="D15" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="M15" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D16" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="M16" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="D17" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="M17" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="D18" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="M18" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="D19" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="M19" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="D20" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="M20" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="D21" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="M21" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="D22" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="M22" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="D23" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="M23" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="D24" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="M24" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="D25" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="M25" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="D26" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="M26" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="D27" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M27" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="D28" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="M28" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="D29" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="M29" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="D30" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="D31" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="D32" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="D33" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="D34" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="D35" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="D36" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="D37" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="D38" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="D39" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="D40" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="D41" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="D42" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="D43" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="D44" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="D45" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="D46" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="D47" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="D48" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="D49" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="D50" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="D51" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="D52" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="D53" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="D54" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="D55" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="D56" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="D57" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="D58" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="D60" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="D61" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="D62" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="D63" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="D64" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="D65" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="D66" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="D67" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="D68" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="D69" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="D70" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="D71" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1122</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1142</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1143</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1147</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1148</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1149</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1152</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1153</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1155</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1160</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1163</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1165</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1166</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1167</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1168</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1169</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1172</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1177</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1179</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1180</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1181</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1188</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1191</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1202</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1203</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1204</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1205</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1208</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1211</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1212</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1213</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1214</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1218</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1219</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1220</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1221</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1222</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1223</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1224</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1225</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1226</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1227</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1228</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1231</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1233</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1234</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1238</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1240</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1241</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1242</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1244</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1245</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1246</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1247</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1250</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1258</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1259</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1260</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1261</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1262</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1263</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1264</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1269</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1270</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1271</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1283</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1285</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1287</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1288</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1291</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1293</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1295</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1296</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1297</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1298</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1299</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1300</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1301</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1302</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1304</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1305</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1306</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1307</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1308</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1309</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1310</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1311</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1312</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1313</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1314</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1315</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1317</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1318</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1319</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1320</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1321</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1322</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1323</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1324</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1326</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1327</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1328</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1329</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1330</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1331</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1332</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1333</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1334</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1335</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1336</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1337</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1339</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1340</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1344</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1347</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1353</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1365</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1366</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1368</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1370</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1371</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1372</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1373</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1374</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1375</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1376</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1377</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1378</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1379</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1380</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1381</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1383</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1384</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1385</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1386</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1387</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1388</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1391</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1392</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1393</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1394</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1396</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1398</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1400</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1403</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1404</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1406</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1407</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1408</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1409</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1412</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1416</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1417</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1419</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1420</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1421</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1424</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1425</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1427</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1431</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1432</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1434</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1435</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1436</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1437</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1438</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1440</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1442</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1443</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1444</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1446</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1447</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1448</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1454</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1455</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1456</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1458</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1459</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1460</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1461</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1462</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1463</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1464</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1465</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1466</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1467</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1468</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1469</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1471</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1472</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1474</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1475</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1476</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1477</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1478</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1479</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1480</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1481</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1482</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1483</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1484</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1485</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1488</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1492</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -16453,7 +16826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P42"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
@@ -16467,260 +16840,2241 @@
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="17" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="B1" t="s">
-        <v>1495</v>
+        <v>1502</v>
       </c>
       <c r="C1" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
       <c r="D1" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
       <c r="E1" t="s">
-        <v>1498</v>
+        <v>1505</v>
       </c>
       <c r="F1" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
       <c r="G1" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="H1" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
       <c r="I1" t="s">
-        <v>1502</v>
+        <v>1509</v>
       </c>
       <c r="J1" t="s">
-        <v>1503</v>
+        <v>1510</v>
       </c>
       <c r="K1" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="L1" t="s">
-        <v>1505</v>
+        <v>1512</v>
       </c>
       <c r="M1" t="s">
-        <v>1506</v>
+        <v>1513</v>
       </c>
       <c r="N1" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="B2" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C2" t="s">
-        <v>1508</v>
+        <v>1515</v>
       </c>
       <c r="D2" t="s">
-        <v>1509</v>
+        <v>1516</v>
       </c>
       <c r="E2" t="s">
-        <v>1510</v>
+        <v>1517</v>
       </c>
       <c r="F2" t="s">
-        <v>1511</v>
+        <v>1518</v>
       </c>
       <c r="G2" t="s">
-        <v>1512</v>
+        <v>1519</v>
       </c>
       <c r="H2" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="I2" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="J2" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="O2" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1522</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>966</v>
+        <v>922</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>476</v>
       </c>
       <c r="C3" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="D3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E3" t="s">
         <v>1517</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1510</v>
       </c>
       <c r="F3" t="s">
         <v>1518</v>
       </c>
       <c r="G3" t="s">
-        <v>1519</v>
+        <v>1526</v>
       </c>
       <c r="H3" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="I3" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="J3" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1520</v>
+        <v>1527</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="O3" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>966</v>
+        <v>922</v>
       </c>
       <c r="B4" t="s">
-        <v>915</v>
+        <v>476</v>
       </c>
       <c r="C4" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="D4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E4" t="s">
         <v>1517</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1553</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1561</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1564</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1568</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B17" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1573</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>922</v>
+      </c>
+      <c r="B18" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1575</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>973</v>
+      </c>
+      <c r="B19" t="s">
+        <v>922</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1579</v>
+      </c>
+      <c r="P19" t="s">
         <v>1523</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>973</v>
+      </c>
+      <c r="B20" t="s">
+        <v>957</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1582</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>922</v>
+      </c>
+      <c r="B21" t="s">
+        <v>957</v>
+      </c>
+      <c r="C21" t="s">
         <v>1524</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D21" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1588</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>922</v>
+      </c>
+      <c r="B22" t="s">
+        <v>957</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1591</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>922</v>
+      </c>
+      <c r="B23" t="s">
+        <v>957</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1595</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>922</v>
+      </c>
+      <c r="B24" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1597</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>922</v>
+      </c>
+      <c r="B25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1599</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>465</v>
+      </c>
+      <c r="B26" t="s">
+        <v>476</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D26" t="s">
         <v>1525</v>
       </c>
-      <c r="H4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="E26" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>966</v>
-      </c>
-      <c r="B5" t="s">
-        <v>950</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1528</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="N26" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1603</v>
+      </c>
+      <c r="P26" t="s">
         <v>1529</v>
       </c>
-      <c r="H5" t="s">
-        <v>1513</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1513</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1530</v>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>465</v>
+      </c>
+      <c r="B27" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1604</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>476</v>
+      </c>
+      <c r="B28" t="s">
+        <v>476</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1609</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B29" t="s">
+        <v>476</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1612</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B30" t="s">
+        <v>476</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1614</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B31" t="s">
+        <v>476</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1617</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1621</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>465</v>
+      </c>
+      <c r="B33" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1583</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>922</v>
+      </c>
+      <c r="B34" t="s">
+        <v>476</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1625</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>922</v>
+      </c>
+      <c r="B35" t="s">
+        <v>476</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1627</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>922</v>
+      </c>
+      <c r="B36" t="s">
+        <v>476</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1629</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>922</v>
+      </c>
+      <c r="B37" t="s">
+        <v>476</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1632</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>922</v>
+      </c>
+      <c r="B38" t="s">
+        <v>476</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1635</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>922</v>
+      </c>
+      <c r="B39" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>922</v>
+      </c>
+      <c r="B40" t="s">
+        <v>476</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>922</v>
+      </c>
+      <c r="B41" t="s">
+        <v>476</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1644</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>922</v>
+      </c>
+      <c r="B42" t="s">
+        <v>476</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1647</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1529</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" sqref="I2:I5">
+  <dataValidations count="45">
+    <dataValidation type="list" sqref="I10:I42">
       <formula1>Info!$A$2:$A$461</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="I2:I42">
+      <formula1>Info!$A$2:$A$461</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J10">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H10,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J11">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H11,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J12">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H12,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J13">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H13,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J14">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H14,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J15">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H15,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J16">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H16,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J17">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H17,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J18">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H18,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J19">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H19,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H2,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="J20">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H20,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J21">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H21,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J22">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H22,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J23">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H23,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J24">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H24,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J25">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H25,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J26">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H26,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J27">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H27,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J28">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H28,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J29">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H29,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="J3">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H3,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J30">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H30,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J31">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H31,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J32">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H32,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J33">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H33,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J34">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H34,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J35">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H35,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J36">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H36,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J37">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H37,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J38">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H38,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J39">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H39,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J4">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H4,"-","_"))</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="J40">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H40,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J41">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H41,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J42">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H42,"-","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="J5">
       <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H5,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="K2:K5">
+    <dataValidation type="list" sqref="J6">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H6,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J7">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H7,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J8">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H8,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J9">
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H9,"-","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="K10:K42">
+      <formula1>10</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="K2:K42">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_z.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1619">
   <si>
     <t>VAT</t>
   </si>
@@ -1418,10 +1418,16 @@
     <t>Empresa DEMO 2</t>
   </si>
   <si>
+    <t>Dimter (Gustavo Alonso Dimter Chacón)</t>
+  </si>
+  <si>
     <t>EMPRESA ZOR CI 2</t>
   </si>
   <si>
     <t>EMPRESA RECICLADORA 2</t>
+  </si>
+  <si>
+    <t>Excedentes Industriales Christian Rojas Concha</t>
   </si>
   <si>
     <t>Empresa ZOR-20</t>
@@ -2039,9 +2045,15 @@
     <t>Recycling S. A.</t>
   </si>
   <si>
+    <t>Avient Chile</t>
+  </si>
+  <si>
     <t>Fertiamerica SpA</t>
   </si>
   <si>
+    <t>Comercial Bendito Residuo SPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hitachi Energy </t>
   </si>
   <si>
@@ -2052,25 +2064,6 @@
   </si>
   <si>
     <t>Triciclo Sur Ingeniería e innovación Spa</t>
-  </si>
-  <si>
-    <t>Tecnovial S.A.</t>
-  </si>
-  <si>
-    <t>Sociedad Plásticos Técnicos Spa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDC SPA
-</t>
-  </si>
-  <si>
-    <t>Recuperadora de Plásticos Granplas</t>
-  </si>
-  <si>
-    <t>Rembre Magallanes SPA</t>
-  </si>
-  <si>
-    <t>RECICLADORA 2020 SPA</t>
   </si>
   <si>
     <t>Sociedad Comercial Degraf Ltda.</t>
@@ -2119,9 +2112,6 @@
     <t>Construya Ltda.</t>
   </si>
   <si>
-    <t>SOCIEDAD COMERCIAL RECMETAL COMPANIA LIMITADA</t>
-  </si>
-  <si>
     <t>Terramar</t>
   </si>
   <si>
@@ -2778,12 +2768,6 @@
     <t>Ecomaule S A</t>
   </si>
   <si>
-    <t>Ecofibras</t>
-  </si>
-  <si>
-    <t>Los Glaciares S A</t>
-  </si>
-  <si>
     <t>Inversiones Las Garzas Sa</t>
   </si>
   <si>
@@ -2887,6 +2871,9 @@
     <t>EMPRESA NESKO TEST 1</t>
   </si>
   <si>
+    <t>test 1</t>
+  </si>
+  <si>
     <t>ejemplo</t>
   </si>
   <si>
@@ -2902,6 +2889,9 @@
     <t>EMPRESA NESKO TEST 2</t>
   </si>
   <si>
+    <t>test-2</t>
+  </si>
+  <si>
     <t>EJEMPLO</t>
   </si>
   <si>
@@ -3136,12 +3126,18 @@
     <t>EMPRESA ZOR-23</t>
   </si>
   <si>
+    <t>empresa prorateo</t>
+  </si>
+  <si>
     <t>76008262-7</t>
   </si>
   <si>
     <t>EMPRESA ZOR-PROD-1</t>
   </si>
   <si>
+    <t>EMPRESA CONSUMIDOR INDUSTRIAL</t>
+  </si>
+  <si>
     <t>76009053-0</t>
   </si>
   <si>
@@ -3379,6 +3375,9 @@
     <t>76117980-2</t>
   </si>
   <si>
+    <t>EMPRESA VALIDACION GESTOR</t>
+  </si>
+  <si>
     <t>76122914-1</t>
   </si>
   <si>
@@ -4624,27 +4623,21 @@
     <t>Valorización Energética</t>
   </si>
   <si>
-    <t>18/12/2023</t>
+    <t>Papel Compuesto (Cemento)</t>
+  </si>
+  <si>
+    <t>26/12/2023</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>1124</t>
+    <t>1144</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Papel Compuesto (Cemento)</t>
-  </si>
-  <si>
-    <t>26/12/2023</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
     <t>Prueba  - La Cisterna - Región Metropolitana</t>
   </si>
   <si>
@@ -4657,6 +4650,21 @@
     <t>10347</t>
   </si>
   <si>
+    <t>test - Arica - Región de Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Reciclaje Mecánico</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
     <t>Los Aromos 2432 - La Serena - Quinta Región</t>
   </si>
   <si>
@@ -4693,9 +4701,6 @@
     <t>233</t>
   </si>
   <si>
-    <t>Reciclaje Mecánico</t>
-  </si>
-  <si>
     <t>Cartón RH</t>
   </si>
   <si>
@@ -4753,147 +4758,117 @@
     <t>939</t>
   </si>
   <si>
+    <t>Test3 - Chañaral - Región de Atacama</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>DF en Relleno Seguridad</t>
+  </si>
+  <si>
+    <t>Metal Otros</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>22.22</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>1348</t>
+  </si>
+  <si>
+    <t>Reciclaje Interno</t>
+  </si>
+  <si>
+    <t>Envase Hojalata</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
+    <t>44.44</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>Establecimiento - Fresia - Región de Los Lagos</t>
+  </si>
+  <si>
+    <t>Plástico</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>ejemplo - Caldera - Región de Atacama</t>
+  </si>
+  <si>
+    <t>Esquineros Metal</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>25/08/2023</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
     <t>estab E-MV2 - Sierra Gorda - Región de Antofagasta</t>
   </si>
   <si>
-    <t>Malla o Reja (IBC)</t>
+    <t>Plástico Envases Rigidos (Incl. Tapas)</t>
   </si>
   <si>
     <t>02/12/2023</t>
   </si>
   <si>
-    <t>2.222</t>
-  </si>
-  <si>
-    <t>1096</t>
-  </si>
-  <si>
-    <t>20/12/2023</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>Test3 - Chañaral - Región de Atacama</t>
-  </si>
-  <si>
-    <t>15/04/2024</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>1328</t>
-  </si>
-  <si>
-    <t>Envase Hojalata</t>
-  </si>
-  <si>
-    <t>27/05/2024</t>
-  </si>
-  <si>
-    <t>1335</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>DF en Relleno Seguridad</t>
-  </si>
-  <si>
-    <t>Metal Otros</t>
-  </si>
-  <si>
-    <t>30/05/2024</t>
-  </si>
-  <si>
-    <t>22.22</t>
-  </si>
-  <si>
-    <t>1347</t>
-  </si>
-  <si>
-    <t>29/05/2024</t>
-  </si>
-  <si>
-    <t>33.33</t>
-  </si>
-  <si>
-    <t>1348</t>
-  </si>
-  <si>
-    <t>Reciclaje Interno</t>
-  </si>
-  <si>
-    <t>28/05/2024</t>
-  </si>
-  <si>
-    <t>44.44</t>
-  </si>
-  <si>
-    <t>1349</t>
-  </si>
-  <si>
-    <t>55.55</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1352</t>
-  </si>
-  <si>
-    <t>Establecimiento - Fresia - Región de Los Lagos</t>
-  </si>
-  <si>
-    <t>Plástico</t>
-  </si>
-  <si>
-    <t>12/10/2012</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>ejemplo - Caldera - Región de Atacama</t>
-  </si>
-  <si>
-    <t>Esquineros Metal</t>
-  </si>
-  <si>
-    <t>12/05/2021</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>01/09/2023</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>25/08/2023</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>Plástico Envases Rigidos (Incl. Tapas)</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -4916,69 +4891,6 @@
   </si>
   <si>
     <t>EyE sin separación</t>
-  </si>
-  <si>
-    <t>20.38</t>
-  </si>
-  <si>
-    <t>1337</t>
-  </si>
-  <si>
-    <t>30.45</t>
-  </si>
-  <si>
-    <t>1338</t>
-  </si>
-  <si>
-    <t>40.68</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>26/05/2024</t>
-  </si>
-  <si>
-    <t>50.13</t>
-  </si>
-  <si>
-    <t>1340</t>
-  </si>
-  <si>
-    <t>25/05/2024</t>
-  </si>
-  <si>
-    <t>60.17</t>
-  </si>
-  <si>
-    <t>1341</t>
-  </si>
-  <si>
-    <t>24/05/2024</t>
-  </si>
-  <si>
-    <t>70.94</t>
-  </si>
-  <si>
-    <t>1342</t>
-  </si>
-  <si>
-    <t>23/05/2024</t>
-  </si>
-  <si>
-    <t>80.88</t>
-  </si>
-  <si>
-    <t>1343</t>
-  </si>
-  <si>
-    <t>22/05/2024</t>
-  </si>
-  <si>
-    <t>90.99</t>
-  </si>
-  <si>
-    <t>1344</t>
   </si>
   <si>
     <t>21/05/2024</t>
@@ -5056,8 +4968,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" name="_14444936_3" displayName="_14444936_3" ref="J1:J1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="J1:J1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" name="_14444936_3" displayName="_14444936_3" ref="J1:J2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="J1:J2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -5452,8 +5364,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" name="_16114742_7" displayName="_16114742_7" ref="M1:M29" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="M1:M29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" name="_16114742_7" displayName="_16114742_7" ref="M1:M31" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="M1:M31">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -5848,8 +5760,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" name="_19115648_k" displayName="_19115648_k" ref="P1:P4" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="P1:P4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" name="_19115648_k" displayName="_19115648_k" ref="P1:P6" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="P1:P6">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6544,8 +6456,8 @@
 </file>
 
 <file path=xl/tables/table211.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="211" name="_77038524_5" displayName="_77038524_5" ref="HC1:HC1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HC1:HC1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="211" name="_77038524_5" displayName="_77038524_5" ref="HC1:HC2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HC1:HC2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6568,8 +6480,8 @@
 </file>
 
 <file path=xl/tables/table213.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="213" name="_77045065_9" displayName="_77045065_9" ref="HE1:HE1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HE1:HE1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="213" name="_77045065_9" displayName="_77045065_9" ref="HE1:HE2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HE1:HE2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6628,8 +6540,8 @@
 </file>
 
 <file path=xl/tables/table218.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="218" name="_77086090_3" displayName="_77086090_3" ref="HJ1:HJ2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HJ1:HJ2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="218" name="_77086090_3" displayName="_77086090_3" ref="HJ1:HJ1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HJ1:HJ1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6640,8 +6552,8 @@
 </file>
 
 <file path=xl/tables/table219.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="219" name="_77099530_2" displayName="_77099530_2" ref="HK1:HK2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HK1:HK2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="219" name="_77099530_2" displayName="_77099530_2" ref="HK1:HK1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HK1:HK1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6664,8 +6576,8 @@
 </file>
 
 <file path=xl/tables/table220.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="220" name="_77112684_7" displayName="_77112684_7" ref="HL1:HL2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HL1:HL2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="220" name="_77112684_7" displayName="_77112684_7" ref="HL1:HL1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HL1:HL1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6676,8 +6588,8 @@
 </file>
 
 <file path=xl/tables/table221.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="221" name="_77137141_9" displayName="_77137141_9" ref="HM1:HM2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HM1:HM2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="221" name="_77137141_9" displayName="_77137141_9" ref="HM1:HM1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HM1:HM1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6688,8 +6600,8 @@
 </file>
 
 <file path=xl/tables/table222.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="222" name="_77147375_K" displayName="_77147375_K" ref="HN1:HN2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HN1:HN2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="222" name="_77147375_K" displayName="_77147375_K" ref="HN1:HN1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HN1:HN1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6700,8 +6612,8 @@
 </file>
 
 <file path=xl/tables/table223.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="223" name="_77167876_9" displayName="_77167876_9" ref="HO1:HO2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="HO1:HO2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="223" name="_77167876_9" displayName="_77167876_9" ref="HO1:HO1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="HO1:HO1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -6904,8 +6816,8 @@
 </file>
 
 <file path=xl/tables/table239.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="239" name="_77612130_4" displayName="_77612130_4" ref="IE1:IE2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="IE1:IE2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="239" name="_77612130_4" displayName="_77612130_4" ref="IE1:IE1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="IE1:IE1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -9040,8 +8952,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="_11992209_7" displayName="_11992209_7" ref="D1:D71" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="D1:D71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="_11992209_7" displayName="_11992209_7" ref="D1:D72" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="D1:D72">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -9808,8 +9720,8 @@
 </file>
 
 <file path=xl/tables/table457.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="457" name="_99545960_4" displayName="_99545960_4" ref="QO1:QO2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="QO1:QO2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="457" name="_99545960_4" displayName="_99545960_4" ref="QO1:QO1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="QO1:QO1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -9820,8 +9732,8 @@
 </file>
 
 <file path=xl/tables/table458.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="458" name="_99553930_6" displayName="_99553930_6" ref="QP1:QP2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="QP1:QP2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="458" name="_99553930_6" displayName="_99553930_6" ref="QP1:QP1" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="QP1:QP1">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -10192,8 +10104,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" name="_12660876_4" displayName="_12660876_4" ref="G1:G1" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="G1:G1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" name="_12660876_4" displayName="_12660876_4" ref="G1:G2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="G1:G2">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -12319,2088 +12231,2088 @@
       <c r="F2" t="s">
         <v>467</v>
       </c>
+      <c r="G2" t="s">
+        <v>468</v>
+      </c>
       <c r="H2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I2" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="J2" t="s">
+        <v>471</v>
       </c>
       <c r="K2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="R2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="S2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="T2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="U2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="V2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="W2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="X2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Y2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Z2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AA2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AB2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AC2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AD2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AE2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AH2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AI2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AJ2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AK2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AL2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AM2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AP2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AQ2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AR2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AS2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AT2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AU2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AV2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AW2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AX2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AY2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AZ2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="BA2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="BB2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="BC2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="BD2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="BE2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="BF2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="BG2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="BH2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="BI2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="BJ2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="BK2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="BL2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="BM2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="BN2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="BO2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="BP2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="BQ2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="BR2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="BS2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="BT2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="BU2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="BV2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="BW2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="BX2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="BY2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="BZ2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="CA2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="CB2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="CC2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="CD2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="CE2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="CF2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="CG2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="CH2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="CI2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CJ2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="CK2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="CL2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="CM2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="CN2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="CO2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CP2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CQ2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="CR2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="CS2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="CT2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="CU2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="CV2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="CW2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="CX2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="CY2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="CZ2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="DA2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="DB2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="DC2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="DD2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="DE2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="DF2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="DG2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="DH2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="DI2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="DJ2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="DK2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="DL2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="DM2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="DN2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="DO2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="DP2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="DQ2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="DR2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="DS2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="DT2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="DU2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="DV2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="DW2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="DX2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="DY2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="DZ2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="EA2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="EB2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="EC2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="ED2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="EE2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="EF2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="EG2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="EH2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="EI2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="EJ2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="EK2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="EL2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="EM2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="EN2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="EO2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="EP2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="EQ2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="ER2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="ES2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="ET2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="EU2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="EV2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="EW2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="EX2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="EY2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="EZ2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="FA2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="FB2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="FC2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="FD2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="FE2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="FF2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="FG2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="FH2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="FI2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="FJ2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="FK2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="FL2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="FM2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="FN2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="FO2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="FP2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="FQ2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="FR2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="FS2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="FT2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="FU2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="FV2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="FW2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="FX2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="FY2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="FZ2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="GA2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="GB2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="GC2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="GD2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="GE2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="GF2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="GG2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="GH2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="GI2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="GJ2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="GK2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="GL2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="GM2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="GN2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="GO2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="GP2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="GQ2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="GR2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="GS2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="GT2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="GU2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="GV2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="GW2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="GX2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="GY2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="GZ2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="HA2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="HB2" t="s">
-        <v>669</v>
+        <v>671</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>672</v>
       </c>
       <c r="HD2" t="s">
-        <v>670</v>
+        <v>673</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>674</v>
       </c>
       <c r="HF2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="HG2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="HH2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="HI2" t="s">
-        <v>674</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>675</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>676</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>677</v>
-      </c>
-      <c r="HM2" t="s">
         <v>678</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="HP2" t="s">
         <v>679</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="HQ2" t="s">
         <v>680</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="HR2" t="s">
         <v>681</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="HS2" t="s">
         <v>682</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="HT2" t="s">
         <v>683</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="HU2" t="s">
         <v>684</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="HV2" t="s">
         <v>685</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="HW2" t="s">
         <v>686</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="HX2" t="s">
         <v>687</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="HY2" t="s">
         <v>688</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="HZ2" t="s">
         <v>689</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="IA2" t="s">
         <v>690</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="IB2" t="s">
         <v>691</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="IC2" t="s">
         <v>692</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="ID2" t="s">
         <v>693</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="IF2" t="s">
         <v>694</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="IG2" t="s">
         <v>695</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="IH2" t="s">
         <v>696</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="II2" t="s">
         <v>697</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="IJ2" t="s">
         <v>698</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="IK2" t="s">
         <v>699</v>
       </c>
-      <c r="II2" t="s">
+      <c r="IL2" t="s">
         <v>700</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="IM2" t="s">
         <v>701</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="IN2" t="s">
         <v>702</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="IO2" t="s">
         <v>703</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="IP2" t="s">
         <v>704</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="IQ2" t="s">
         <v>705</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="IR2" t="s">
         <v>706</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="IS2" t="s">
         <v>707</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="IT2" t="s">
         <v>708</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="IU2" t="s">
         <v>709</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="IV2" t="s">
         <v>710</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="IW2" t="s">
         <v>711</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="IX2" t="s">
         <v>712</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="IY2" t="s">
         <v>713</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="IZ2" t="s">
         <v>714</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="JA2" t="s">
         <v>715</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="JB2" t="s">
         <v>716</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="JC2" t="s">
         <v>717</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="JD2" t="s">
         <v>718</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="JE2" t="s">
         <v>719</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="JF2" t="s">
         <v>720</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="JG2" t="s">
         <v>721</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="JH2" t="s">
         <v>722</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="JI2" t="s">
         <v>723</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="JJ2" t="s">
         <v>724</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="JK2" t="s">
         <v>725</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="JL2" t="s">
         <v>726</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="JM2" t="s">
         <v>727</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="JN2" t="s">
         <v>728</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="JO2" t="s">
         <v>729</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="JP2" t="s">
         <v>730</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="JQ2" t="s">
         <v>731</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="JR2" t="s">
         <v>732</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="JS2" t="s">
         <v>733</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="JT2" t="s">
         <v>734</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="JU2" t="s">
         <v>735</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="JV2" t="s">
         <v>736</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="JW2" t="s">
         <v>737</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="JX2" t="s">
         <v>738</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="JY2" t="s">
         <v>739</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="JZ2" t="s">
         <v>740</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="KA2" t="s">
         <v>741</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="KB2" t="s">
         <v>742</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="KC2" t="s">
         <v>743</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="KD2" t="s">
         <v>744</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="KE2" t="s">
         <v>745</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="KF2" t="s">
         <v>746</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="KG2" t="s">
         <v>747</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="KH2" t="s">
         <v>748</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="KI2" t="s">
         <v>749</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="KJ2" t="s">
         <v>750</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="KK2" t="s">
         <v>751</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="KL2" t="s">
         <v>752</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="KM2" t="s">
         <v>753</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="KN2" t="s">
         <v>754</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="KO2" t="s">
         <v>755</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="KP2" t="s">
         <v>756</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="KQ2" t="s">
         <v>757</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="KR2" t="s">
         <v>758</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="KS2" t="s">
         <v>759</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="KT2" t="s">
+        <v>759</v>
+      </c>
+      <c r="KU2" t="s">
         <v>760</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="KV2" t="s">
         <v>761</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="KW2" t="s">
         <v>762</v>
       </c>
-      <c r="KT2" t="s">
-        <v>762</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="KX2" t="s">
         <v>763</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="KY2" t="s">
         <v>764</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="KZ2" t="s">
         <v>765</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="LA2" t="s">
         <v>766</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="LB2" t="s">
         <v>767</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="LC2" t="s">
         <v>768</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="LD2" t="s">
         <v>769</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="LE2" t="s">
         <v>770</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="LF2" t="s">
         <v>771</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="LG2" t="s">
         <v>772</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="LH2" t="s">
         <v>773</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="LI2" t="s">
         <v>774</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="LJ2" t="s">
         <v>775</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="LK2" t="s">
         <v>776</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="LL2" t="s">
         <v>777</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="LM2" t="s">
         <v>778</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="LN2" t="s">
         <v>779</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="LO2" t="s">
         <v>780</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="LP2" t="s">
         <v>781</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="LQ2" t="s">
         <v>782</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="LR2" t="s">
         <v>783</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="LS2" t="s">
         <v>784</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="LT2" t="s">
         <v>785</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="LU2" t="s">
         <v>786</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="LV2" t="s">
         <v>787</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="LW2" t="s">
         <v>788</v>
       </c>
-      <c r="LU2" t="s">
+      <c r="LX2" t="s">
         <v>789</v>
       </c>
-      <c r="LV2" t="s">
+      <c r="LY2" t="s">
         <v>790</v>
       </c>
-      <c r="LW2" t="s">
+      <c r="LZ2" t="s">
         <v>791</v>
       </c>
-      <c r="LX2" t="s">
+      <c r="MA2" t="s">
         <v>792</v>
       </c>
-      <c r="LY2" t="s">
+      <c r="MB2" t="s">
         <v>793</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="MC2" t="s">
         <v>794</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="MD2" t="s">
         <v>795</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="ME2" t="s">
         <v>796</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="MF2" t="s">
         <v>797</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="MG2" t="s">
         <v>798</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="MH2" t="s">
         <v>799</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="MI2" t="s">
         <v>800</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="MJ2" t="s">
         <v>801</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="MK2" t="s">
         <v>802</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="ML2" t="s">
         <v>803</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="MM2" t="s">
         <v>804</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="MN2" t="s">
+        <v>804</v>
+      </c>
+      <c r="MO2" t="s">
         <v>805</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="MP2" t="s">
         <v>806</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="MQ2" t="s">
         <v>807</v>
       </c>
-      <c r="MN2" t="s">
-        <v>807</v>
-      </c>
-      <c r="MO2" t="s">
+      <c r="MR2" t="s">
         <v>808</v>
       </c>
-      <c r="MP2" t="s">
+      <c r="MS2" t="s">
         <v>809</v>
       </c>
-      <c r="MQ2" t="s">
+      <c r="MT2" t="s">
         <v>810</v>
       </c>
-      <c r="MR2" t="s">
+      <c r="MU2" t="s">
         <v>811</v>
       </c>
-      <c r="MS2" t="s">
+      <c r="MV2" t="s">
         <v>812</v>
       </c>
-      <c r="MT2" t="s">
+      <c r="MW2" t="s">
         <v>813</v>
       </c>
-      <c r="MU2" t="s">
+      <c r="MX2" t="s">
         <v>814</v>
       </c>
-      <c r="MV2" t="s">
+      <c r="MY2" t="s">
         <v>815</v>
       </c>
-      <c r="MW2" t="s">
+      <c r="MZ2" t="s">
         <v>816</v>
       </c>
-      <c r="MX2" t="s">
+      <c r="NA2" t="s">
         <v>817</v>
       </c>
-      <c r="MY2" t="s">
+      <c r="NB2" t="s">
         <v>818</v>
       </c>
-      <c r="MZ2" t="s">
+      <c r="NC2" t="s">
         <v>819</v>
       </c>
-      <c r="NA2" t="s">
+      <c r="ND2" t="s">
         <v>820</v>
       </c>
-      <c r="NB2" t="s">
+      <c r="NE2" t="s">
         <v>821</v>
       </c>
-      <c r="NC2" t="s">
+      <c r="NF2" t="s">
         <v>822</v>
       </c>
-      <c r="ND2" t="s">
+      <c r="NG2" t="s">
         <v>823</v>
       </c>
-      <c r="NE2" t="s">
+      <c r="NH2" t="s">
         <v>824</v>
       </c>
-      <c r="NF2" t="s">
+      <c r="NI2" t="s">
         <v>825</v>
       </c>
-      <c r="NG2" t="s">
+      <c r="NJ2" t="s">
         <v>826</v>
       </c>
-      <c r="NH2" t="s">
+      <c r="NK2" t="s">
         <v>827</v>
       </c>
-      <c r="NI2" t="s">
+      <c r="NL2" t="s">
         <v>828</v>
       </c>
-      <c r="NJ2" t="s">
+      <c r="NM2" t="s">
         <v>829</v>
       </c>
-      <c r="NK2" t="s">
+      <c r="NN2" t="s">
         <v>830</v>
       </c>
-      <c r="NL2" t="s">
+      <c r="NO2" t="s">
         <v>831</v>
       </c>
-      <c r="NM2" t="s">
+      <c r="NP2" t="s">
         <v>832</v>
       </c>
-      <c r="NN2" t="s">
+      <c r="NQ2" t="s">
         <v>833</v>
       </c>
-      <c r="NO2" t="s">
+      <c r="NR2" t="s">
         <v>834</v>
       </c>
-      <c r="NP2" t="s">
+      <c r="NS2" t="s">
         <v>835</v>
       </c>
-      <c r="NQ2" t="s">
+      <c r="NT2" t="s">
         <v>836</v>
       </c>
-      <c r="NR2" t="s">
+      <c r="NU2" t="s">
         <v>837</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="NV2" t="s">
         <v>838</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="NW2" t="s">
         <v>839</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="NX2" t="s">
         <v>840</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="NY2" t="s">
         <v>841</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="NZ2" t="s">
         <v>842</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="OA2" t="s">
         <v>843</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="OB2" t="s">
         <v>844</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="OC2" t="s">
         <v>845</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="OD2" t="s">
         <v>846</v>
       </c>
-      <c r="OB2" t="s">
+      <c r="OE2" t="s">
         <v>847</v>
       </c>
-      <c r="OC2" t="s">
+      <c r="OF2" t="s">
         <v>848</v>
       </c>
-      <c r="OD2" t="s">
+      <c r="OG2" t="s">
         <v>849</v>
       </c>
-      <c r="OE2" t="s">
+      <c r="OH2" t="s">
         <v>850</v>
       </c>
-      <c r="OF2" t="s">
+      <c r="OI2" t="s">
         <v>851</v>
       </c>
-      <c r="OG2" t="s">
+      <c r="OJ2" t="s">
         <v>852</v>
       </c>
-      <c r="OH2" t="s">
+      <c r="OK2" t="s">
         <v>853</v>
       </c>
-      <c r="OI2" t="s">
+      <c r="OL2" t="s">
         <v>854</v>
       </c>
-      <c r="OJ2" t="s">
+      <c r="OM2" t="s">
         <v>855</v>
       </c>
-      <c r="OK2" t="s">
+      <c r="ON2" t="s">
         <v>856</v>
       </c>
-      <c r="OL2" t="s">
+      <c r="OO2" t="s">
         <v>857</v>
       </c>
-      <c r="OM2" t="s">
+      <c r="OP2" t="s">
         <v>858</v>
       </c>
-      <c r="ON2" t="s">
+      <c r="OQ2" t="s">
         <v>859</v>
       </c>
-      <c r="OO2" t="s">
+      <c r="OR2" t="s">
         <v>860</v>
       </c>
-      <c r="OP2" t="s">
+      <c r="OS2" t="s">
         <v>861</v>
       </c>
-      <c r="OQ2" t="s">
+      <c r="OT2" t="s">
         <v>862</v>
       </c>
-      <c r="OR2" t="s">
+      <c r="OU2" t="s">
         <v>863</v>
       </c>
-      <c r="OS2" t="s">
+      <c r="OV2" t="s">
         <v>864</v>
       </c>
-      <c r="OT2" t="s">
+      <c r="OW2" t="s">
         <v>865</v>
       </c>
-      <c r="OU2" t="s">
+      <c r="OX2" t="s">
         <v>866</v>
       </c>
-      <c r="OV2" t="s">
+      <c r="OY2" t="s">
         <v>867</v>
       </c>
-      <c r="OW2" t="s">
+      <c r="OZ2" t="s">
         <v>868</v>
       </c>
-      <c r="OX2" t="s">
+      <c r="PA2" t="s">
         <v>869</v>
       </c>
-      <c r="OY2" t="s">
+      <c r="PB2" t="s">
         <v>870</v>
       </c>
-      <c r="OZ2" t="s">
+      <c r="PC2" t="s">
         <v>871</v>
       </c>
-      <c r="PA2" t="s">
+      <c r="PD2" t="s">
         <v>872</v>
       </c>
-      <c r="PB2" t="s">
+      <c r="PE2" t="s">
         <v>873</v>
       </c>
-      <c r="PC2" t="s">
+      <c r="PF2" t="s">
         <v>874</v>
       </c>
-      <c r="PD2" t="s">
+      <c r="PG2" t="s">
         <v>875</v>
       </c>
-      <c r="PE2" t="s">
+      <c r="PH2" t="s">
         <v>876</v>
       </c>
-      <c r="PF2" t="s">
+      <c r="PI2" t="s">
         <v>877</v>
       </c>
-      <c r="PG2" t="s">
+      <c r="PJ2" t="s">
         <v>878</v>
       </c>
-      <c r="PH2" t="s">
+      <c r="PK2" t="s">
         <v>879</v>
       </c>
-      <c r="PI2" t="s">
+      <c r="PL2" t="s">
         <v>880</v>
       </c>
-      <c r="PJ2" t="s">
+      <c r="PM2" t="s">
         <v>881</v>
       </c>
-      <c r="PK2" t="s">
+      <c r="PN2" t="s">
         <v>882</v>
       </c>
-      <c r="PL2" t="s">
+      <c r="PO2" t="s">
         <v>883</v>
       </c>
-      <c r="PM2" t="s">
+      <c r="PP2" t="s">
         <v>884</v>
       </c>
-      <c r="PN2" t="s">
+      <c r="PQ2" t="s">
         <v>885</v>
       </c>
-      <c r="PO2" t="s">
+      <c r="PR2" t="s">
         <v>886</v>
       </c>
-      <c r="PP2" t="s">
+      <c r="PS2" t="s">
         <v>887</v>
       </c>
-      <c r="PQ2" t="s">
+      <c r="PT2" t="s">
         <v>888</v>
       </c>
-      <c r="PR2" t="s">
+      <c r="PU2" t="s">
         <v>889</v>
       </c>
-      <c r="PS2" t="s">
+      <c r="PV2" t="s">
         <v>890</v>
       </c>
-      <c r="PT2" t="s">
+      <c r="PW2" t="s">
         <v>891</v>
       </c>
-      <c r="PU2" t="s">
+      <c r="PX2" t="s">
         <v>892</v>
       </c>
-      <c r="PV2" t="s">
+      <c r="PY2" t="s">
         <v>893</v>
       </c>
-      <c r="PW2" t="s">
+      <c r="PZ2" t="s">
         <v>894</v>
       </c>
-      <c r="PX2" t="s">
+      <c r="QA2" t="s">
         <v>895</v>
       </c>
-      <c r="PY2" t="s">
+      <c r="QB2" t="s">
         <v>896</v>
       </c>
-      <c r="PZ2" t="s">
+      <c r="QC2" t="s">
         <v>897</v>
       </c>
-      <c r="QA2" t="s">
+      <c r="QD2" t="s">
         <v>898</v>
       </c>
-      <c r="QB2" t="s">
+      <c r="QE2" t="s">
         <v>899</v>
       </c>
-      <c r="QC2" t="s">
+      <c r="QF2" t="s">
         <v>900</v>
       </c>
-      <c r="QD2" t="s">
+      <c r="QG2" t="s">
         <v>901</v>
       </c>
-      <c r="QE2" t="s">
+      <c r="QH2" t="s">
         <v>902</v>
       </c>
-      <c r="QF2" t="s">
+      <c r="QI2" t="s">
         <v>903</v>
       </c>
-      <c r="QG2" t="s">
+      <c r="QJ2" t="s">
         <v>904</v>
       </c>
-      <c r="QH2" t="s">
+      <c r="QK2" t="s">
         <v>905</v>
       </c>
-      <c r="QI2" t="s">
+      <c r="QL2" t="s">
         <v>906</v>
       </c>
-      <c r="QJ2" t="s">
+      <c r="QM2" t="s">
         <v>907</v>
       </c>
-      <c r="QK2" t="s">
+      <c r="QN2" t="s">
         <v>908</v>
       </c>
-      <c r="QL2" t="s">
+      <c r="QQ2" t="s">
         <v>909</v>
       </c>
-      <c r="QM2" t="s">
+      <c r="QR2" t="s">
         <v>910</v>
       </c>
-      <c r="QN2" t="s">
+      <c r="QS2" t="s">
         <v>911</v>
       </c>
-      <c r="QO2" t="s">
+      <c r="QT2" t="s">
         <v>912</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>913</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>914</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>915</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>916</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:434" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>913</v>
+      </c>
+      <c r="D3" t="s">
+        <v>914</v>
+      </c>
+      <c r="M3" t="s">
+        <v>915</v>
+      </c>
+      <c r="P3" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>917</v>
+      </c>
+      <c r="R3" t="s">
         <v>918</v>
       </c>
-      <c r="D3" t="s">
+      <c r="AS3" t="s">
         <v>919</v>
       </c>
-      <c r="M3" t="s">
+      <c r="DT3" t="s">
         <v>920</v>
       </c>
-      <c r="P3" t="s">
+      <c r="EP3" t="s">
         <v>921</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="GY3" t="s">
         <v>922</v>
       </c>
-      <c r="R3" t="s">
+      <c r="KY3" t="s">
         <v>923</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="LI3" t="s">
         <v>924</v>
       </c>
-      <c r="DT3" t="s">
+      <c r="LV3" t="s">
         <v>925</v>
       </c>
-      <c r="EP3" t="s">
+      <c r="MF3" t="s">
         <v>926</v>
       </c>
-      <c r="GY3" t="s">
+      <c r="NJ3" t="s">
         <v>927</v>
       </c>
-      <c r="KY3" t="s">
+      <c r="NU3" t="s">
         <v>928</v>
       </c>
-      <c r="LI3" t="s">
+      <c r="OP3" t="s">
         <v>929</v>
       </c>
-      <c r="LV3" t="s">
+      <c r="OS3" t="s">
         <v>930</v>
       </c>
-      <c r="MF3" t="s">
+      <c r="PR3" t="s">
         <v>931</v>
-      </c>
-      <c r="NJ3" t="s">
-        <v>932</v>
-      </c>
-      <c r="NU3" t="s">
-        <v>933</v>
-      </c>
-      <c r="OP3" t="s">
-        <v>934</v>
-      </c>
-      <c r="OS3" t="s">
-        <v>935</v>
-      </c>
-      <c r="PR3" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="4" spans="1:409" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D4" t="s">
+        <v>933</v>
+      </c>
+      <c r="M4" t="s">
+        <v>934</v>
+      </c>
+      <c r="P4" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>936</v>
+      </c>
+      <c r="R4" t="s">
         <v>937</v>
       </c>
-      <c r="D4" t="s">
+      <c r="OS4" t="s">
         <v>938</v>
-      </c>
-      <c r="M4" t="s">
-        <v>939</v>
-      </c>
-      <c r="P4" t="s">
-        <v>940</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>941</v>
-      </c>
-      <c r="R4" t="s">
-        <v>942</v>
-      </c>
-      <c r="OS4" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>939</v>
+      </c>
+      <c r="D5" t="s">
+        <v>940</v>
+      </c>
+      <c r="M5" t="s">
+        <v>941</v>
+      </c>
+      <c r="P5" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>943</v>
+      </c>
+      <c r="R5" t="s">
         <v>944</v>
-      </c>
-      <c r="D5" t="s">
-        <v>945</v>
-      </c>
-      <c r="M5" t="s">
-        <v>946</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>947</v>
-      </c>
-      <c r="R5" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>945</v>
+      </c>
+      <c r="D6" t="s">
+        <v>946</v>
+      </c>
+      <c r="M6" t="s">
+        <v>947</v>
+      </c>
+      <c r="P6" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q6" t="s">
         <v>949</v>
       </c>
-      <c r="D6" t="s">
+      <c r="R6" t="s">
         <v>950</v>
-      </c>
-      <c r="M6" t="s">
-        <v>951</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>952</v>
-      </c>
-      <c r="R6" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>951</v>
+      </c>
+      <c r="D7" t="s">
+        <v>952</v>
+      </c>
+      <c r="M7" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q7" t="s">
         <v>954</v>
       </c>
-      <c r="D7" t="s">
+      <c r="R7" t="s">
         <v>955</v>
-      </c>
-      <c r="M7" t="s">
-        <v>956</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>957</v>
-      </c>
-      <c r="R7" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D8" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="M8" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="Q8" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>959</v>
+      </c>
+      <c r="D9" t="s">
+        <v>960</v>
+      </c>
+      <c r="M9" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q9" t="s">
         <v>962</v>
-      </c>
-      <c r="D9" t="s">
-        <v>963</v>
-      </c>
-      <c r="M9" t="s">
-        <v>964</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>963</v>
+      </c>
+      <c r="D10" t="s">
+        <v>964</v>
+      </c>
+      <c r="M10" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q10" t="s">
         <v>966</v>
-      </c>
-      <c r="D10" t="s">
-        <v>967</v>
-      </c>
-      <c r="M10" t="s">
-        <v>968</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>967</v>
+      </c>
+      <c r="D11" t="s">
+        <v>968</v>
+      </c>
+      <c r="M11" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q11" t="s">
         <v>970</v>
-      </c>
-      <c r="D11" t="s">
-        <v>971</v>
-      </c>
-      <c r="M11" t="s">
-        <v>972</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D12" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="M12" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D13" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="M13" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D14" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="M14" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D15" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="M15" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D16" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M16" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D17" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="M17" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D18" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="M18" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D19" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="M19" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D20" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="M20" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D21" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M21" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D22" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="M22" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D23" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M23" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D24" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="M24" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D25" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="M25" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D26" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="M26" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D27" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="M27" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D28" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M28" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>1025</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>1026</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>1028</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="M31" t="s">
         <v>1030</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D32" t="s">
         <v>1032</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D33" t="s">
         <v>1034</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D35" t="s">
         <v>1037</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D36" t="s">
         <v>1039</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D37" t="s">
         <v>1041</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D38" t="s">
         <v>1043</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D39" t="s">
         <v>1045</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D40" t="s">
         <v>1047</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D41" t="s">
         <v>1049</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D42" t="s">
         <v>1051</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D43" t="s">
         <v>1053</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D44" t="s">
         <v>1055</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D45" t="s">
         <v>1057</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D46" t="s">
         <v>1059</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D47" t="s">
         <v>1061</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D48" t="s">
         <v>1063</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D49" t="s">
         <v>1065</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D50" t="s">
         <v>1067</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D51" t="s">
         <v>1069</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D52" t="s">
         <v>1071</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D53" t="s">
         <v>1073</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D54" t="s">
         <v>1075</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D55" t="s">
         <v>1077</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D56" t="s">
         <v>1079</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D57" t="s">
         <v>1081</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D58" t="s">
         <v>1083</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D59" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D60" t="s">
         <v>1086</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D61" t="s">
         <v>1088</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D62" t="s">
         <v>1090</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D63" t="s">
         <v>1092</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D64" t="s">
         <v>1094</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D65" t="s">
         <v>1096</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D66" t="s">
         <v>1098</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D67" t="s">
         <v>1100</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D68" t="s">
         <v>1102</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D69" t="s">
         <v>1104</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D70" t="s">
         <v>1106</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D71" t="s">
         <v>1108</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D72" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -16826,7 +16738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
@@ -16891,10 +16803,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B2" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C2" t="s">
         <v>1515</v>
@@ -16941,10 +16853,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
         <v>1524</v>
@@ -16956,10 +16868,10 @@
         <v>1517</v>
       </c>
       <c r="F3" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="G3" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H3" t="s">
         <v>1520</v>
@@ -16977,27 +16889,27 @@
         <v>1520</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O3" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="P3" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>922</v>
+        <v>970</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>626</v>
       </c>
       <c r="C4" t="s">
-        <v>1524</v>
+        <v>1531</v>
       </c>
       <c r="D4" t="s">
         <v>1525</v>
@@ -17006,10 +16918,10 @@
         <v>1517</v>
       </c>
       <c r="F4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="G4" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H4" t="s">
         <v>1520</v>
@@ -17027,39 +16939,39 @@
         <v>1520</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O4" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="P4" t="s">
-        <v>1529</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>973</v>
+        <v>942</v>
       </c>
       <c r="B5" t="s">
-        <v>624</v>
+        <v>478</v>
       </c>
       <c r="C5" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="D5" t="s">
-        <v>1525</v>
+        <v>1536</v>
       </c>
       <c r="E5" t="s">
         <v>1517</v>
       </c>
       <c r="F5" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="G5" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="H5" t="s">
         <v>1520</v>
@@ -17077,16 +16989,16 @@
         <v>1520</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O5" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="P5" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -17094,22 +17006,22 @@
         <v>465</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C6" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D6" t="s">
         <v>1516</v>
       </c>
       <c r="E6" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F6" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G6" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H6" t="s">
         <v>1520</v>
@@ -17127,16 +17039,16 @@
         <v>1520</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O6" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="P6" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -17144,22 +17056,22 @@
         <v>465</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D7" t="s">
         <v>1516</v>
       </c>
       <c r="E7" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F7" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G7" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H7" t="s">
         <v>1520</v>
@@ -17177,16 +17089,16 @@
         <v>1520</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O7" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="P7" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -17194,22 +17106,22 @@
         <v>465</v>
       </c>
       <c r="B8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C8" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D8" t="s">
         <v>1516</v>
       </c>
       <c r="E8" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F8" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G8" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H8" t="s">
         <v>1520</v>
@@ -17227,16 +17139,16 @@
         <v>1520</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O8" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="P8" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -17244,22 +17156,22 @@
         <v>465</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C9" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D9" t="s">
         <v>1516</v>
       </c>
       <c r="E9" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F9" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G9" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H9" t="s">
         <v>1520</v>
@@ -17277,16 +17189,16 @@
         <v>1520</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O9" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="P9" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -17294,22 +17206,22 @@
         <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C10" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D10" t="s">
         <v>1516</v>
       </c>
       <c r="E10" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F10" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G10" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H10" t="s">
         <v>1520</v>
@@ -17327,16 +17239,16 @@
         <v>1520</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O10" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="P10" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -17344,22 +17256,22 @@
         <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D11" t="s">
         <v>1516</v>
       </c>
       <c r="E11" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F11" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="G11" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H11" t="s">
         <v>1520</v>
@@ -17377,16 +17289,16 @@
         <v>1520</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O11" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="P11" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -17394,22 +17306,22 @@
         <v>465</v>
       </c>
       <c r="B12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C12" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D12" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="E12" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F12" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G12" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="H12" t="s">
         <v>1520</v>
@@ -17427,16 +17339,16 @@
         <v>1520</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O12" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="P12" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -17444,22 +17356,22 @@
         <v>465</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C13" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="D13" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="E13" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F13" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="G13" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="H13" t="s">
         <v>1520</v>
@@ -17477,39 +17389,39 @@
         <v>1520</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O13" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="P13" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C14" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D14" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="E14" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F14" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G14" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="H14" t="s">
         <v>1520</v>
@@ -17527,39 +17439,39 @@
         <v>1520</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O14" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="P14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C15" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D15" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="E15" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F15" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="G15" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="H15" t="s">
         <v>1520</v>
@@ -17577,39 +17489,39 @@
         <v>1520</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O15" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="P15" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C16" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="D16" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="E16" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F16" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="G16" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="H16" t="s">
         <v>1520</v>
@@ -17627,39 +17539,39 @@
         <v>1520</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O16" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="P16" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1082</v>
+        <v>970</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>917</v>
       </c>
       <c r="C17" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="D17" t="s">
         <v>1525</v>
       </c>
       <c r="E17" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F17" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="G17" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="H17" t="s">
         <v>1520</v>
@@ -17677,39 +17589,39 @@
         <v>1520</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O17" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="P17" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B18" t="s">
-        <v>476</v>
+        <v>954</v>
       </c>
       <c r="C18" t="s">
         <v>1524</v>
       </c>
       <c r="D18" t="s">
-        <v>1525</v>
+        <v>1576</v>
       </c>
       <c r="E18" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F18" t="s">
-        <v>1554</v>
+        <v>1577</v>
       </c>
       <c r="G18" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="H18" t="s">
         <v>1520</v>
@@ -17727,39 +17639,39 @@
         <v>1520</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1527</v>
+        <v>1579</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O18" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="P18" t="s">
-        <v>1529</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>973</v>
+        <v>917</v>
       </c>
       <c r="B19" t="s">
-        <v>922</v>
+        <v>954</v>
       </c>
       <c r="C19" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D19" t="s">
         <v>1576</v>
       </c>
-      <c r="D19" t="s">
-        <v>1525</v>
-      </c>
       <c r="E19" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F19" t="s">
-        <v>1570</v>
+        <v>1577</v>
       </c>
       <c r="G19" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="H19" t="s">
         <v>1520</v>
@@ -17777,39 +17689,39 @@
         <v>1520</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O19" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="P19" t="s">
-        <v>1523</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>973</v>
+        <v>917</v>
       </c>
       <c r="B20" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C20" t="s">
-        <v>1576</v>
+        <v>1524</v>
       </c>
       <c r="D20" t="s">
-        <v>1525</v>
+        <v>1585</v>
       </c>
       <c r="E20" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F20" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="G20" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="H20" t="s">
         <v>1520</v>
@@ -17827,39 +17739,39 @@
         <v>1520</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1578</v>
+        <v>1588</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O20" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="P20" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>922</v>
+        <v>465</v>
       </c>
       <c r="B21" t="s">
-        <v>957</v>
+        <v>478</v>
       </c>
       <c r="C21" t="s">
-        <v>1524</v>
+        <v>1590</v>
       </c>
       <c r="D21" t="s">
-        <v>1584</v>
+        <v>1525</v>
       </c>
       <c r="E21" t="s">
-        <v>1538</v>
+        <v>1591</v>
       </c>
       <c r="F21" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="G21" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="H21" t="s">
         <v>1520</v>
@@ -17877,39 +17789,39 @@
         <v>1520</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1587</v>
+        <v>1528</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O21" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="P21" t="s">
-        <v>1583</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>922</v>
+        <v>465</v>
       </c>
       <c r="B22" t="s">
-        <v>957</v>
+        <v>478</v>
       </c>
       <c r="C22" t="s">
-        <v>1524</v>
+        <v>1590</v>
       </c>
       <c r="D22" t="s">
-        <v>1584</v>
+        <v>1536</v>
       </c>
       <c r="E22" t="s">
-        <v>1538</v>
+        <v>1591</v>
       </c>
       <c r="F22" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="G22" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="H22" t="s">
         <v>1520</v>
@@ -17927,39 +17839,39 @@
         <v>1520</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1590</v>
+        <v>1528</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O22" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="P22" t="s">
-        <v>1583</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>922</v>
+        <v>478</v>
       </c>
       <c r="B23" t="s">
-        <v>957</v>
+        <v>478</v>
       </c>
       <c r="C23" t="s">
-        <v>1524</v>
+        <v>1595</v>
       </c>
       <c r="D23" t="s">
-        <v>1592</v>
+        <v>1525</v>
       </c>
       <c r="E23" t="s">
-        <v>1538</v>
+        <v>1591</v>
       </c>
       <c r="F23" t="s">
-        <v>1580</v>
+        <v>1596</v>
       </c>
       <c r="G23" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="H23" t="s">
         <v>1520</v>
@@ -17977,39 +17889,39 @@
         <v>1520</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O23" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="P23" t="s">
-        <v>1583</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>922</v>
+        <v>1055</v>
       </c>
       <c r="B24" t="s">
-        <v>957</v>
+        <v>478</v>
       </c>
       <c r="C24" t="s">
-        <v>1524</v>
+        <v>1560</v>
       </c>
       <c r="D24" t="s">
-        <v>1549</v>
+        <v>1525</v>
       </c>
       <c r="E24" t="s">
-        <v>1538</v>
+        <v>1591</v>
       </c>
       <c r="F24" t="s">
-        <v>1554</v>
+        <v>1596</v>
       </c>
       <c r="G24" t="s">
-        <v>1581</v>
+        <v>1600</v>
       </c>
       <c r="H24" t="s">
         <v>1520</v>
@@ -18027,39 +17939,39 @@
         <v>1520</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O24" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="P24" t="s">
-        <v>1583</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>922</v>
+        <v>1055</v>
       </c>
       <c r="B25" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C25" t="s">
-        <v>1524</v>
+        <v>1560</v>
       </c>
       <c r="D25" t="s">
-        <v>1516</v>
+        <v>1525</v>
       </c>
       <c r="E25" t="s">
-        <v>1538</v>
+        <v>1591</v>
       </c>
       <c r="F25" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="G25" t="s">
-        <v>1586</v>
+        <v>1603</v>
       </c>
       <c r="H25" t="s">
         <v>1520</v>
@@ -18077,39 +17989,39 @@
         <v>1520</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O25" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="P25" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>465</v>
+        <v>1081</v>
       </c>
       <c r="B26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C26" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="D26" t="s">
         <v>1525</v>
       </c>
       <c r="E26" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="F26" t="s">
-        <v>1585</v>
+        <v>1606</v>
       </c>
       <c r="G26" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="H26" t="s">
         <v>1520</v>
@@ -18127,16 +18039,16 @@
         <v>1520</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1527</v>
+        <v>1608</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O26" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="P26" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -18144,22 +18056,22 @@
         <v>465</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C27" t="s">
-        <v>1600</v>
+        <v>1540</v>
       </c>
       <c r="D27" t="s">
-        <v>1549</v>
+        <v>1516</v>
       </c>
       <c r="E27" t="s">
-        <v>1601</v>
+        <v>1610</v>
       </c>
       <c r="F27" t="s">
-        <v>1585</v>
+        <v>1611</v>
       </c>
       <c r="G27" t="s">
-        <v>1602</v>
+        <v>1553</v>
       </c>
       <c r="H27" t="s">
         <v>1520</v>
@@ -18177,39 +18089,39 @@
         <v>1520</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>1527</v>
+        <v>1612</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O27" t="s">
-        <v>1604</v>
+        <v>1613</v>
       </c>
       <c r="P27" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B28" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C28" t="s">
-        <v>1605</v>
+        <v>1540</v>
       </c>
       <c r="D28" t="s">
-        <v>1525</v>
+        <v>1536</v>
       </c>
       <c r="E28" t="s">
-        <v>1601</v>
+        <v>1610</v>
       </c>
       <c r="F28" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="G28" t="s">
-        <v>1607</v>
+        <v>1553</v>
       </c>
       <c r="H28" t="s">
         <v>1520</v>
@@ -18227,39 +18139,39 @@
         <v>1520</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O28" t="s">
-        <v>1609</v>
+        <v>1581</v>
       </c>
       <c r="P28" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1056</v>
+        <v>917</v>
       </c>
       <c r="B29" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C29" t="s">
-        <v>1558</v>
+        <v>1524</v>
       </c>
       <c r="D29" t="s">
-        <v>1525</v>
+        <v>1536</v>
       </c>
       <c r="E29" t="s">
-        <v>1601</v>
+        <v>1614</v>
       </c>
       <c r="F29" t="s">
-        <v>1606</v>
+        <v>1615</v>
       </c>
       <c r="G29" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="H29" t="s">
         <v>1520</v>
@@ -18277,804 +18189,115 @@
         <v>1520</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="O29" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="P29" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B30" t="s">
-        <v>476</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1606</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1613</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1614</v>
-      </c>
-      <c r="P30" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B31" t="s">
-        <v>476</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1615</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1571</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1617</v>
-      </c>
-      <c r="P31" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>465</v>
-      </c>
-      <c r="B32" t="s">
-        <v>476</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1618</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1551</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1621</v>
-      </c>
-      <c r="P32" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>465</v>
-      </c>
-      <c r="B33" t="s">
-        <v>476</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1618</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1619</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1551</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1583</v>
-      </c>
-      <c r="P33" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>922</v>
-      </c>
-      <c r="B34" t="s">
-        <v>476</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1589</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1625</v>
-      </c>
-      <c r="P34" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>922</v>
-      </c>
-      <c r="B35" t="s">
-        <v>476</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1593</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1627</v>
-      </c>
-      <c r="P35" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>922</v>
-      </c>
-      <c r="B36" t="s">
-        <v>476</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1629</v>
-      </c>
-      <c r="P36" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>922</v>
-      </c>
-      <c r="B37" t="s">
-        <v>476</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1630</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O37" t="s">
-        <v>1632</v>
-      </c>
-      <c r="P37" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>922</v>
-      </c>
-      <c r="B38" t="s">
-        <v>476</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1633</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1635</v>
-      </c>
-      <c r="P38" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>922</v>
-      </c>
-      <c r="B39" t="s">
-        <v>476</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O39" t="s">
-        <v>1638</v>
-      </c>
-      <c r="P39" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>922</v>
-      </c>
-      <c r="B40" t="s">
-        <v>476</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1639</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O40" t="s">
-        <v>1641</v>
-      </c>
-      <c r="P40" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>922</v>
-      </c>
-      <c r="B41" t="s">
-        <v>476</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O41" t="s">
-        <v>1644</v>
-      </c>
-      <c r="P41" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>922</v>
-      </c>
-      <c r="B42" t="s">
-        <v>476</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1623</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1645</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="O42" t="s">
-        <v>1647</v>
-      </c>
-      <c r="P42" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="45">
-    <dataValidation type="list" sqref="I10:I42">
+  <dataValidations count="32">
+    <dataValidation type="list" sqref="I10:I29">
       <formula1>Info!$A$2:$A$461</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="I2:I42">
+    <dataValidation type="list" sqref="I2:I29">
       <formula1>Info!$A$2:$A$461</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J10">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H10,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I10,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J11">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H11,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I11,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J12">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H12,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I12,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J13">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H13,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I13,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J14">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H14,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I14,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J15">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H15,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I15,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J16">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H16,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I16,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J17">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H17,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I17,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J18">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H18,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I18,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J19">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H19,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I19,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H2,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I2,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J20">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H20,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I20,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J21">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H21,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I21,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J22">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H22,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I22,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J23">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H23,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I23,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J24">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H24,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I24,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J25">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H25,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I25,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J26">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H26,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I26,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J27">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H27,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I27,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J28">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H28,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I28,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J29">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H29,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I29,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J3">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H3,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J30">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H30,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J31">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H31,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J32">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H32,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J33">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H33,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J34">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H34,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J35">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H35,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J36">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H36,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J37">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H37,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J38">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H38,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J39">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H39,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I3,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J4">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H4,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J40">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H40,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J41">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H41,"-","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="J42">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H42,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I4,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J5">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H5,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I5,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J6">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H6,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I6,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J7">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H7,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I7,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J8">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H8,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I8,"-","_"))</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J9">
-      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(H9,"-","_"))</formula1>
+      <formula1>=INDIRECT("_"&amp;SUBSTITUTE(I9,"-","_"))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="K10:K42">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="K10:K29">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="K2:K42">
+    <dataValidation type="textLength" showErrorMessage="1" errorStyle="error" errorTitle="Formato de Fecha Inválido" error="Por favor, ingrese una fecha válida en formato DD/MM/AAAA." sqref="K2:K29">
       <formula1>10</formula1>
       <formula2>10</formula2>
     </dataValidation>
